--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -1210,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>1.23520104988596</v>
+        <v>1.23520522151401</v>
       </c>
     </row>
     <row r="3">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2.50228680612</v>
+        <v>2.50229695382235</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>2.05798364238305</v>
+        <v>2.05799818762834</v>
       </c>
     </row>
     <row r="5">
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2.34792466594697</v>
+        <v>2.34788572255323</v>
       </c>
     </row>
     <row r="6">
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>1.19393181097358</v>
+        <v>1.19393412426776</v>
       </c>
     </row>
     <row r="7">
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.41125262278129</v>
+        <v>1.4112176836144</v>
       </c>
     </row>
     <row r="8">
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>1.58061211553583</v>
+        <v>1.5806233448202</v>
       </c>
     </row>
     <row r="9">
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1.67380566874764</v>
+        <v>1.67378768800091</v>
       </c>
     </row>
     <row r="10">
@@ -1346,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1.13735951524103</v>
+        <v>1.13735409230288</v>
       </c>
     </row>
     <row r="11">
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>2.23940626713636</v>
+        <v>2.2393838445227</v>
       </c>
     </row>
     <row r="12">
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>1.99089083998859</v>
+        <v>1.99088546390738</v>
       </c>
     </row>
     <row r="13">
@@ -1397,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.49272003921705</v>
+        <v>1.49272798787136</v>
       </c>
     </row>
     <row r="14">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>2.07772061674333</v>
+        <v>2.07773148356783</v>
       </c>
     </row>
     <row r="15">
@@ -1431,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>4.81549548845</v>
+        <v>4.8154788087238</v>
       </c>
     </row>
     <row r="16">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>2.99442761084686</v>
+        <v>2.99445662099563</v>
       </c>
     </row>
     <row r="17">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>3.70672800622699</v>
+        <v>3.70673082347425</v>
       </c>
     </row>
     <row r="18">
@@ -1482,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.998632188304238</v>
+        <v>0.998636371812413</v>
       </c>
     </row>
     <row r="19">
@@ -1499,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>2.65201864350789</v>
+        <v>2.65202737092728</v>
       </c>
     </row>
     <row r="20">
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>2.76300973923526</v>
+        <v>2.76301965264553</v>
       </c>
     </row>
     <row r="21">
@@ -1533,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>2.82263325748005</v>
+        <v>2.8226573274246</v>
       </c>
     </row>
     <row r="22">
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.306214265251197</v>
+        <v>0.306228092876365</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>2.48553619892877</v>
+        <v>2.48550176945518</v>
       </c>
     </row>
     <row r="24">
@@ -1584,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>1.66554954676733</v>
+        <v>1.66554647431633</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>1.85761417741781</v>
+        <v>1.85760388958103</v>
       </c>
     </row>
     <row r="26">
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.987703841884906</v>
+        <v>0.987707239084757</v>
       </c>
     </row>
     <row r="27">
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2.50409212820603</v>
+        <v>2.50410833410508</v>
       </c>
     </row>
     <row r="28">
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>2.70257350858308</v>
+        <v>2.70257467847858</v>
       </c>
     </row>
     <row r="29">
@@ -1669,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>2.84930768849071</v>
+        <v>2.84932657120515</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>1.41921652190414</v>
+        <v>1.41922261572269</v>
       </c>
     </row>
     <row r="31">
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>2.73825386977352</v>
+        <v>2.73824656709592</v>
       </c>
     </row>
     <row r="32">
@@ -1720,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1312954253461</v>
+        <v>2.13127732002008</v>
       </c>
     </row>
     <row r="33">
@@ -1737,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>2.48424137581506</v>
+        <v>2.48423504497327</v>
       </c>
     </row>
     <row r="34">
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>0.750350183122867</v>
+        <v>0.750350476201593</v>
       </c>
     </row>
     <row r="35">
@@ -1771,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>1.24989180549469</v>
+        <v>1.24988820040719</v>
       </c>
     </row>
     <row r="36">
@@ -1788,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>1.24669780109093</v>
+        <v>1.24668027987538</v>
       </c>
     </row>
     <row r="37">
@@ -1805,7 +1805,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>1.3182703203957</v>
+        <v>1.31830127517936</v>
       </c>
     </row>
     <row r="38">
@@ -1822,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>2.8284755366083</v>
+        <v>2.82847758831485</v>
       </c>
     </row>
     <row r="39">
@@ -1839,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>3.86638094632021</v>
+        <v>3.86638916660163</v>
       </c>
     </row>
     <row r="40">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4.02524749279385</v>
+        <v>4.02523389618896</v>
       </c>
     </row>
     <row r="41">
@@ -1873,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4.13073313754918</v>
+        <v>4.130716813547</v>
       </c>
     </row>
     <row r="42">
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>1.86617438088311</v>
+        <v>1.8661763297873</v>
       </c>
     </row>
     <row r="43">
@@ -1907,7 +1907,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>2.95739201987898</v>
+        <v>2.95739191619107</v>
       </c>
     </row>
     <row r="44">
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.66513938534579</v>
+        <v>1.66513172301437</v>
       </c>
     </row>
     <row r="45">
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>1.73883484175651</v>
+        <v>1.73879502490809</v>
       </c>
     </row>
     <row r="46">
@@ -1958,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1.40492979133298</v>
+        <v>1.40493190239974</v>
       </c>
     </row>
     <row r="47">
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>2.05395605896245</v>
+        <v>2.05398916201409</v>
       </c>
     </row>
     <row r="48">
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2.01915933156835</v>
+        <v>2.01912155551953</v>
       </c>
     </row>
     <row r="49">
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2.14085314790134</v>
+        <v>2.14089436498047</v>
       </c>
     </row>
     <row r="50">
@@ -2026,7 +2026,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>2.2804286930445</v>
+        <v>2.2804301747882</v>
       </c>
     </row>
     <row r="51">
@@ -2043,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>2.01534298849371</v>
+        <v>2.0153547673843</v>
       </c>
     </row>
     <row r="52">
@@ -2060,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>1.92799155984612</v>
+        <v>1.92799450493921</v>
       </c>
     </row>
     <row r="53">
@@ -2077,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>1.92799661247561</v>
+        <v>1.92799450493921</v>
       </c>
     </row>
     <row r="54">
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>0.854184305085836</v>
+        <v>0.854197729391157</v>
       </c>
     </row>
     <row r="55">
@@ -2111,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>1.74076098404486</v>
+        <v>1.74073779184454</v>
       </c>
     </row>
     <row r="56">
@@ -2128,7 +2128,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>2.17534472039256</v>
+        <v>2.17532956812214</v>
       </c>
     </row>
     <row r="57">
@@ -2145,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>2.31270085062076</v>
+        <v>2.31273904192639</v>
       </c>
     </row>
     <row r="58">
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>3.04352448444595</v>
+        <v>3.04352143990596</v>
       </c>
     </row>
     <row r="59">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>15.5160306812878</v>
+        <v>15.5160175507939</v>
       </c>
     </row>
     <row r="60">
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>14.7834941211292</v>
+        <v>14.783484673616</v>
       </c>
     </row>
     <row r="61">
@@ -2213,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>15.0882881362918</v>
+        <v>15.0882574834054</v>
       </c>
     </row>
     <row r="62">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>1.35905767668562</v>
+        <v>1.35905378423995</v>
       </c>
     </row>
     <row r="63">
@@ -2247,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>4.67180123545484</v>
+        <v>4.67181063198098</v>
       </c>
     </row>
     <row r="64">
@@ -2264,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>4.4802697492712</v>
+        <v>4.48022929448089</v>
       </c>
     </row>
     <row r="65">
@@ -2281,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>3.51750074010393</v>
+        <v>3.51751896150463</v>
       </c>
     </row>
     <row r="66">
@@ -2298,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>0.842228566806374</v>
+        <v>0.842221576243996</v>
       </c>
     </row>
     <row r="67">
@@ -2315,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>1.27635411495424</v>
+        <v>1.27637191658556</v>
       </c>
     </row>
     <row r="68">
@@ -2332,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>0.892795179758395</v>
+        <v>0.892807355223368</v>
       </c>
     </row>
     <row r="69">
@@ -2349,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>1.03457588281026</v>
+        <v>1.03453290890504</v>
       </c>
     </row>
     <row r="70">
@@ -2366,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>0.559032190768133</v>
+        <v>0.559023786203937</v>
       </c>
     </row>
     <row r="71">
@@ -2383,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>1.84239950915094</v>
+        <v>1.84236051307619</v>
       </c>
     </row>
     <row r="72">
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>1.4747810293116</v>
+        <v>1.47476585475212</v>
       </c>
     </row>
     <row r="73">
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>1.07655681259223</v>
+        <v>1.07657700157415</v>
       </c>
     </row>
     <row r="74">
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>1.10170960785504</v>
+        <v>1.10171320339071</v>
       </c>
     </row>
     <row r="75">
@@ -2451,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>1.66334562331171</v>
+        <v>1.66331937058669</v>
       </c>
     </row>
     <row r="76">
@@ -2468,7 +2468,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>1.06111406656781</v>
+        <v>1.06111388008496</v>
       </c>
     </row>
     <row r="77">
@@ -2485,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>1.4325072297761</v>
+        <v>1.43255727669939</v>
       </c>
     </row>
     <row r="78">
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>2.97236186289522</v>
+        <v>2.97237372697621</v>
       </c>
     </row>
     <row r="79">
@@ -2519,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>4.30197519662662</v>
+        <v>4.30196632367885</v>
       </c>
     </row>
     <row r="80">
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>3.7625558122013</v>
+        <v>3.76255371463547</v>
       </c>
     </row>
     <row r="81">
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>4.88424836704873</v>
+        <v>4.88421180097899</v>
       </c>
     </row>
     <row r="82">
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>0.883314483179069</v>
+        <v>0.883312292900098</v>
       </c>
     </row>
     <row r="83">
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>2.98355304720741</v>
+        <v>2.98355721958295</v>
       </c>
     </row>
     <row r="84">
@@ -2604,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>0.795274778927528</v>
+        <v>0.795269755485696</v>
       </c>
     </row>
     <row r="85">
@@ -2621,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>0.876078362641429</v>
+        <v>0.876092317852442</v>
       </c>
     </row>
     <row r="86">
@@ -2638,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>3.30300807857023</v>
+        <v>3.30300155982826</v>
       </c>
     </row>
     <row r="87">
@@ -2655,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5.6006058075595</v>
+        <v>5.60062359710557</v>
       </c>
     </row>
     <row r="88">
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4.65147238874264</v>
+        <v>4.65146756558836</v>
       </c>
     </row>
     <row r="89">
@@ -2689,7 +2689,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4.79366100264227</v>
+        <v>4.79368314486366</v>
       </c>
     </row>
     <row r="90">
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4.01629356439807</v>
+        <v>4.01628694657159</v>
       </c>
     </row>
     <row r="91">
@@ -2723,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>4.97386097498626</v>
+        <v>4.97383825123719</v>
       </c>
     </row>
     <row r="92">
@@ -2740,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5.55610947678248</v>
+        <v>5.55611869024556</v>
       </c>
     </row>
     <row r="93">
@@ -2757,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>6.77884342050033</v>
+        <v>6.77885582195648</v>
       </c>
     </row>
     <row r="94">
@@ -2774,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1.47218827924913</v>
+        <v>1.47219290901349</v>
       </c>
     </row>
     <row r="95">
@@ -2791,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>2.25471383555379</v>
+        <v>2.25468892291113</v>
       </c>
     </row>
     <row r="96">
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>1.78668080997647</v>
+        <v>1.78668758647188</v>
       </c>
     </row>
     <row r="97">
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>1.79452207084107</v>
+        <v>1.79454391848008</v>
       </c>
     </row>
     <row r="98">
@@ -2842,7 +2842,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>0.75286925413132</v>
+        <v>0.752870769660412</v>
       </c>
     </row>
     <row r="99">
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>0.906366150119528</v>
+        <v>0.906352977226927</v>
       </c>
     </row>
     <row r="100">
@@ -2876,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>1.06996279160015</v>
+        <v>1.06995526942153</v>
       </c>
     </row>
     <row r="101">
@@ -2893,7 +2893,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>1.11003718865545</v>
+        <v>1.11002737275953</v>
       </c>
     </row>
     <row r="102">
@@ -2910,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>1.94283802275292</v>
+        <v>1.94285864979482</v>
       </c>
     </row>
     <row r="103">
@@ -2927,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>4.15549937934346</v>
+        <v>4.15545678491754</v>
       </c>
     </row>
     <row r="104">
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>4.54143644050615</v>
+        <v>4.54144626375261</v>
       </c>
     </row>
     <row r="105">
@@ -2961,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>4.32052511300685</v>
+        <v>4.32054326362583</v>
       </c>
     </row>
     <row r="106">
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>0.400490144448754</v>
+        <v>0.400493282924849</v>
       </c>
     </row>
     <row r="107">
@@ -2995,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>1.04241722152345</v>
+        <v>1.04241358370963</v>
       </c>
     </row>
     <row r="108">
@@ -3012,7 +3012,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>1.98010493294931</v>
+        <v>1.98008109225057</v>
       </c>
     </row>
     <row r="109">
@@ -3029,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>1.98006844749146</v>
+        <v>1.98008109225057</v>
       </c>
     </row>
     <row r="110">
@@ -3046,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0.665256493073788</v>
+        <v>0.665255427746133</v>
       </c>
     </row>
     <row r="111">
@@ -3063,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>0.68486105301279</v>
+        <v>0.68487238452605</v>
       </c>
     </row>
     <row r="112">
@@ -3080,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>0.656771344657242</v>
+        <v>0.656786895232684</v>
       </c>
     </row>
     <row r="113">
@@ -3097,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>0.678690174448942</v>
+        <v>0.678701506404972</v>
       </c>
     </row>
     <row r="114">
@@ -3114,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>1.73298749975304</v>
+        <v>1.73299626207766</v>
       </c>
     </row>
     <row r="115">
@@ -3131,7 +3131,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>2.38662505607962</v>
+        <v>2.38663429422671</v>
       </c>
     </row>
     <row r="116">
@@ -3148,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>3.8558212402371</v>
+        <v>3.8558373510897</v>
       </c>
     </row>
     <row r="117">
@@ -3165,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>3.72965990512573</v>
+        <v>3.72965508161141</v>
       </c>
     </row>
     <row r="118">
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>2.13601355203676</v>
+        <v>2.13601069314493</v>
       </c>
     </row>
     <row r="119">
@@ -3199,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>5.87719163265628</v>
+        <v>5.87718877803048</v>
       </c>
     </row>
     <row r="120">
@@ -3216,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>9.02163465436475</v>
+        <v>9.02162892752985</v>
       </c>
     </row>
     <row r="121">
@@ -3233,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>6.74239547748065</v>
+        <v>6.74239630288476</v>
       </c>
     </row>
     <row r="122">
@@ -3250,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>4.9421693103843</v>
+        <v>4.94216634488887</v>
       </c>
     </row>
     <row r="123">
@@ -3267,7 +3267,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>8.09689800161055</v>
+        <v>8.09689209804396</v>
       </c>
     </row>
     <row r="124">
@@ -3284,7 +3284,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>8.45547432475943</v>
+        <v>8.4554568651784</v>
       </c>
     </row>
     <row r="125">
@@ -3301,7 +3301,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>1.17945335204089</v>
+        <v>1.17945626862311</v>
       </c>
     </row>
     <row r="126">
@@ -3318,7 +3318,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>5.17368387097575</v>
+        <v>5.17370366056003</v>
       </c>
     </row>
     <row r="127">
@@ -3335,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>4.36647114837433</v>
+        <v>4.3664883918015</v>
       </c>
     </row>
     <row r="128">
@@ -3352,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>4.51194995873333</v>
+        <v>4.51195121642948</v>
       </c>
     </row>
     <row r="129">
@@ -3369,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>1.46874037588434</v>
+        <v>1.4687406857825</v>
       </c>
     </row>
     <row r="130">
@@ -3386,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>0.753638692307368</v>
+        <v>0.753633665023405</v>
       </c>
     </row>
     <row r="131">
@@ -3403,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>2.24973002999776</v>
+        <v>2.24972793732116</v>
       </c>
     </row>
     <row r="132">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>2.46273083866886</v>
+        <v>2.46274598680459</v>
       </c>
     </row>
     <row r="133">
@@ -3437,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>2.59980321125995</v>
+        <v>2.59980183841057</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>5.63174293298929</v>
+        <v>5.63174954725349</v>
       </c>
     </row>
     <row r="135">
@@ -3471,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>3.73709932580007</v>
+        <v>3.73708156136489</v>
       </c>
     </row>
     <row r="136">
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>3.88982765523285</v>
+        <v>3.88984053969013</v>
       </c>
     </row>
     <row r="137">
@@ -3505,7 +3505,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>19.9378927708887</v>
+        <v>19.9378987825684</v>
       </c>
     </row>
     <row r="138">
@@ -3522,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>18.207074943038</v>
+        <v>18.2070840449274</v>
       </c>
     </row>
     <row r="139">
@@ -3539,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>18.3831767594354</v>
+        <v>18.3831762678329</v>
       </c>
     </row>
     <row r="140">
@@ -3556,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>16.4235351002633</v>
+        <v>16.4235503142916</v>
       </c>
     </row>
     <row r="141">
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>0.841127882767669</v>
+        <v>0.841136566016352</v>
       </c>
     </row>
     <row r="142">
@@ -3590,7 +3590,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>1.52365855505902</v>
+        <v>1.52367624372211</v>
       </c>
     </row>
     <row r="143">
@@ -3607,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>1.55795921644113</v>
+        <v>1.55795930138447</v>
       </c>
     </row>
     <row r="144">
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>1.52039108514397</v>
+        <v>1.52037398291059</v>
       </c>
     </row>
     <row r="145">
@@ -3641,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4.9797775463173</v>
+        <v>4.9797743409648</v>
       </c>
     </row>
     <row r="146">
@@ -3658,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>3.85716419491842</v>
+        <v>3.85716429325876</v>
       </c>
     </row>
     <row r="147">
@@ -3675,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>6.55506184713149</v>
+        <v>6.55507310181237</v>
       </c>
     </row>
     <row r="148">
@@ -3692,7 +3692,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>7.57696253421392</v>
+        <v>7.57696373705108</v>
       </c>
     </row>
     <row r="149">
@@ -3709,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>4.23113633858052</v>
+        <v>4.23114011722558</v>
       </c>
     </row>
     <row r="150">
@@ -3726,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>7.81015867646149</v>
+        <v>7.8101631791759</v>
       </c>
     </row>
     <row r="151">
@@ -3743,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>8.2347131099064</v>
+        <v>8.23471582162962</v>
       </c>
     </row>
     <row r="152">
@@ -3760,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>7.89944087621666</v>
+        <v>7.89947880042083</v>
       </c>
     </row>
     <row r="153">
@@ -3777,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>1.23660605459784</v>
+        <v>1.23660579970196</v>
       </c>
     </row>
     <row r="154">
@@ -3794,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>2.75293863555503</v>
+        <v>2.75294214001274</v>
       </c>
     </row>
     <row r="155">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>2.63797703684649</v>
+        <v>2.63797852588771</v>
       </c>
     </row>
     <row r="156">
@@ -3828,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>2.7505020433896</v>
+        <v>2.75053102972414</v>
       </c>
     </row>
     <row r="157">
@@ -3845,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>3.57652465721935</v>
+        <v>3.57653225784671</v>
       </c>
     </row>
     <row r="158">
@@ -3862,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>3.74076441110242</v>
+        <v>3.74075767762387</v>
       </c>
     </row>
     <row r="159">
@@ -3879,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>4.40918649907737</v>
+        <v>4.40916324272846</v>
       </c>
     </row>
     <row r="160">
@@ -3896,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>4.22943709843114</v>
+        <v>4.22943418931836</v>
       </c>
     </row>
     <row r="161">
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>2.52777215401522</v>
+        <v>2.52778757199674</v>
       </c>
     </row>
     <row r="162">
@@ -3930,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>2.17919308219984</v>
+        <v>2.17918955104015</v>
       </c>
     </row>
     <row r="163">
@@ -3947,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>1.6620301324399</v>
+        <v>1.66201192193614</v>
       </c>
     </row>
     <row r="164">
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>1.64950592906515</v>
+        <v>1.64948132554547</v>
       </c>
     </row>
     <row r="165">
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>1.01587142697044</v>
+        <v>1.01587313747149</v>
       </c>
     </row>
     <row r="166">
@@ -3998,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>1.43228984481418</v>
+        <v>1.4322796287736</v>
       </c>
     </row>
     <row r="167">
@@ -4015,7 +4015,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>3.11095576926523</v>
+        <v>3.11096256105014</v>
       </c>
     </row>
     <row r="168">
@@ -4032,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>3.52540018246662</v>
+        <v>3.52543570679362</v>
       </c>
     </row>
     <row r="169">
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>1.12523273431158</v>
+        <v>1.12523483126568</v>
       </c>
     </row>
     <row r="170">
@@ -4066,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>1.10901307645706</v>
+        <v>1.10901165398839</v>
       </c>
     </row>
     <row r="171">
@@ -4083,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>3.4315431619383</v>
+        <v>3.43153319667647</v>
       </c>
     </row>
     <row r="172">
@@ -4100,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>3.51735671587357</v>
+        <v>3.51737676801882</v>
       </c>
     </row>
     <row r="173">
@@ -4117,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>2.52301395011005</v>
+        <v>2.52302899106254</v>
       </c>
     </row>
     <row r="174">
@@ -4134,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>2.3167218148839</v>
+        <v>2.31672327353265</v>
       </c>
     </row>
     <row r="175">
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>2.69136742842538</v>
+        <v>2.69141453908348</v>
       </c>
     </row>
     <row r="176">
@@ -4168,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>3.76318366994105</v>
+        <v>3.76319619490032</v>
       </c>
     </row>
     <row r="177">
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>3.56180321203345</v>
+        <v>3.5618048928175</v>
       </c>
     </row>
     <row r="178">
@@ -4202,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>3.38540538335453</v>
+        <v>3.38539847578133</v>
       </c>
     </row>
     <row r="179">
@@ -4219,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>2.76240274378116</v>
+        <v>2.76238988311454</v>
       </c>
     </row>
     <row r="180">
@@ -4236,7 +4236,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>3.19766820204771</v>
+        <v>3.19766920127068</v>
       </c>
     </row>
     <row r="181">
@@ -4253,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>2.29803950183886</v>
+        <v>2.29806886070733</v>
       </c>
     </row>
     <row r="182">
@@ -4270,7 +4270,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>1.72989052648807</v>
+        <v>1.72988389352117</v>
       </c>
     </row>
     <row r="183">
@@ -4287,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>1.60803088325809</v>
+        <v>1.60804946512096</v>
       </c>
     </row>
     <row r="184">
@@ -4304,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>2.61563727357829</v>
+        <v>2.61563435062145</v>
       </c>
     </row>
     <row r="185">
@@ -4321,7 +4321,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>8.26134970141652</v>
+        <v>8.26135827921442</v>
       </c>
     </row>
     <row r="186">
@@ -4338,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>8.08378883180853</v>
+        <v>8.08378554514719</v>
       </c>
     </row>
     <row r="187">
@@ -4355,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>7.35770095741131</v>
+        <v>7.35770652743574</v>
       </c>
     </row>
     <row r="188">
@@ -4372,7 +4372,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>3.71954661457138</v>
+        <v>3.71954949976892</v>
       </c>
     </row>
     <row r="189">
@@ -4389,7 +4389,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>3.78898112976351</v>
+        <v>3.78901606870482</v>
       </c>
     </row>
     <row r="190">
@@ -4406,7 +4406,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>3.49325403998594</v>
+        <v>3.49326121712175</v>
       </c>
     </row>
     <row r="191">
@@ -4423,7 +4423,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>4.98016896721336</v>
+        <v>4.98018107081247</v>
       </c>
     </row>
     <row r="192">
@@ -4440,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>3.97634324263211</v>
+        <v>3.97633833251124</v>
       </c>
     </row>
     <row r="193">
@@ -4457,7 +4457,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>3.2082137955594</v>
+        <v>3.20824605777204</v>
       </c>
     </row>
     <row r="194">
@@ -4474,7 +4474,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>2.80141990952738</v>
+        <v>2.80139621052229</v>
       </c>
     </row>
     <row r="195">
@@ -4491,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>2.85772278827475</v>
+        <v>2.8577377235137</v>
       </c>
     </row>
     <row r="196">
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>2.02749288886461</v>
+        <v>2.02749541563962</v>
       </c>
     </row>
     <row r="197">
@@ -4525,7 +4525,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>4.65519250622319</v>
+        <v>4.6552024663231</v>
       </c>
     </row>
     <row r="198">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>4.05553340827048</v>
+        <v>4.05552911989711</v>
       </c>
     </row>
     <row r="199">
@@ -4559,7 +4559,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>4.22110776549373</v>
+        <v>4.22112287862409</v>
       </c>
     </row>
     <row r="200">
@@ -4576,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>7.41285554765382</v>
+        <v>7.41282643416469</v>
       </c>
     </row>
     <row r="201">
@@ -4593,7 +4593,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>6.71000760678641</v>
+        <v>6.7099863038134</v>
       </c>
     </row>
     <row r="202">
@@ -4610,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>5.74616503870505</v>
+        <v>5.74620862403684</v>
       </c>
     </row>
     <row r="203">
@@ -4627,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>6.2008958934309</v>
+        <v>6.20083513279232</v>
       </c>
     </row>
     <row r="204">
@@ -4644,7 +4644,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>0.69948952799029</v>
+        <v>0.699480693396352</v>
       </c>
     </row>
     <row r="205">
@@ -4661,7 +4661,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>1.00508187464709</v>
+        <v>1.00507112603409</v>
       </c>
     </row>
     <row r="206">
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>0.858607169900352</v>
+        <v>0.858611292053306</v>
       </c>
     </row>
     <row r="207">
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>0.876822894270104</v>
+        <v>0.876832771442001</v>
       </c>
     </row>
     <row r="208">
@@ -4712,7 +4712,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>7.05577837290655</v>
+        <v>7.05578556266699</v>
       </c>
     </row>
     <row r="209">
@@ -4729,7 +4729,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>7.0550890086314</v>
+        <v>7.05508616104547</v>
       </c>
     </row>
     <row r="210">
@@ -4746,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>6.27901557598214</v>
+        <v>6.27901832179725</v>
       </c>
     </row>
     <row r="211">
@@ -4763,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>4.95357967030441</v>
+        <v>4.95356494359345</v>
       </c>
     </row>
     <row r="212">
@@ -4780,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>0.742429582868931</v>
+        <v>0.742421785344411</v>
       </c>
     </row>
     <row r="213">
@@ -4797,7 +4797,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>6.93413470145748</v>
+        <v>6.93412196259664</v>
       </c>
     </row>
     <row r="214">
@@ -4814,7 +4814,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>6.02804763753551</v>
+        <v>6.02803224769508</v>
       </c>
     </row>
     <row r="215">
@@ -4831,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>5.95394012545955</v>
+        <v>5.95396484908465</v>
       </c>
     </row>
     <row r="216">
@@ -4848,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>1.55891569548354</v>
+        <v>1.55891392593409</v>
       </c>
     </row>
     <row r="217">
@@ -4865,7 +4865,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>2.19982240721274</v>
+        <v>2.19979340907254</v>
       </c>
     </row>
     <row r="218">
@@ -4882,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>3.55292926918648</v>
+        <v>3.55293109387484</v>
       </c>
     </row>
     <row r="219">
@@ -4899,7 +4899,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>3.71848087993436</v>
+        <v>3.71846899022817</v>
       </c>
     </row>
     <row r="220">
@@ -4916,7 +4916,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>1.98111803170169</v>
+        <v>1.98112140123323</v>
       </c>
     </row>
     <row r="221">
@@ -4933,7 +4933,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>4.37119931349975</v>
+        <v>4.37119562487305</v>
       </c>
     </row>
     <row r="222">
@@ -4950,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>4.48366790334024</v>
+        <v>4.4836952643275</v>
       </c>
     </row>
     <row r="223">
@@ -4967,7 +4967,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4.67596454502204</v>
+        <v>4.67596575653247</v>
       </c>
     </row>
     <row r="224">
@@ -4984,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>1.07457496103334</v>
+        <v>1.07457368973821</v>
       </c>
     </row>
     <row r="225">
@@ -5001,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>7.69863667696342</v>
+        <v>7.69863071357823</v>
       </c>
     </row>
     <row r="226">
@@ -5018,7 +5018,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>6.13398180053344</v>
+        <v>6.13398284037743</v>
       </c>
     </row>
     <row r="227">
@@ -5035,7 +5035,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>7.5746900308638</v>
+        <v>7.5746968973113</v>
       </c>
     </row>
     <row r="228">
@@ -5052,7 +5052,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>2.04310115112311</v>
+        <v>2.04310738189506</v>
       </c>
     </row>
     <row r="229">
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>3.23648031465931</v>
+        <v>3.2364640011854</v>
       </c>
     </row>
     <row r="230">
@@ -5086,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>2.26944940915281</v>
+        <v>2.26945881537078</v>
       </c>
     </row>
     <row r="231">
@@ -5103,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>2.38495968434825</v>
+        <v>2.38497657703602</v>
       </c>
     </row>
     <row r="232">
@@ -5120,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>4.51820869687638</v>
+        <v>4.51819441873506</v>
       </c>
     </row>
     <row r="233">
@@ -5137,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>2.67954222765478</v>
+        <v>2.67956774635823</v>
       </c>
     </row>
     <row r="234">
@@ -5154,7 +5154,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>1.16009547722384</v>
+        <v>1.16006168061354</v>
       </c>
     </row>
     <row r="235">
@@ -5171,7 +5171,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>1.57751798399533</v>
+        <v>1.57750004485995</v>
       </c>
     </row>
     <row r="236">
@@ -5188,7 +5188,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>1.05191765386719</v>
+        <v>1.05192443698609</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>1.00990484158795</v>
+        <v>1.00991767263569</v>
       </c>
     </row>
     <row r="238">
@@ -5222,7 +5222,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>1.27745744999598</v>
+        <v>1.27746093792872</v>
       </c>
     </row>
     <row r="239">
@@ -5239,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>1.39203473008683</v>
+        <v>1.39202993645979</v>
       </c>
     </row>
     <row r="240">
@@ -5256,7 +5256,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>1.33668184912074</v>
+        <v>1.33667430184495</v>
       </c>
     </row>
     <row r="241">
@@ -5273,7 +5273,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>2.4079430916534</v>
+        <v>2.40795263818907</v>
       </c>
     </row>
     <row r="242">
@@ -5290,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>2.42077614418554</v>
+        <v>2.42074518389617</v>
       </c>
     </row>
     <row r="243">
@@ -5307,7 +5307,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>2.73545995951096</v>
+        <v>2.73544927106258</v>
       </c>
     </row>
     <row r="244">
@@ -5324,7 +5324,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>2.00738668068252</v>
+        <v>2.00738608004849</v>
       </c>
     </row>
     <row r="245">
@@ -5341,7 +5341,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>2.12121434463732</v>
+        <v>2.12122508298982</v>
       </c>
     </row>
     <row r="246">
@@ -5358,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>3.35449002505732</v>
+        <v>3.35446695809468</v>
       </c>
     </row>
     <row r="247">
@@ -5375,7 +5375,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>3.48200797639206</v>
+        <v>3.48199024646151</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>2.67013761533442</v>
+        <v>2.67013136434165</v>
       </c>
     </row>
     <row r="249">
@@ -5409,7 +5409,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>6.14518830150122</v>
+        <v>6.14521173238664</v>
       </c>
     </row>
     <row r="250">
@@ -5426,7 +5426,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>4.79389141169762</v>
+        <v>4.79386888752066</v>
       </c>
     </row>
     <row r="251">
@@ -5443,7 +5443,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>5.32030250915676</v>
+        <v>5.32025990115726</v>
       </c>
     </row>
     <row r="252">
@@ -5460,7 +5460,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>1.16054780710205</v>
+        <v>1.16054879286392</v>
       </c>
     </row>
     <row r="253">
@@ -5477,7 +5477,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>0.93117149642681</v>
+        <v>0.93116801162313</v>
       </c>
     </row>
     <row r="254">
@@ -5494,7 +5494,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>3.75162420078464</v>
+        <v>3.75161249353571</v>
       </c>
     </row>
     <row r="255">
@@ -5511,7 +5511,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>5.04507793638614</v>
+        <v>5.0450754230459</v>
       </c>
     </row>
     <row r="256">
@@ -5528,7 +5528,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>0.875892440818316</v>
+        <v>0.875888105428788</v>
       </c>
     </row>
     <row r="257">
@@ -5545,7 +5545,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>1.288408900058</v>
+        <v>1.28841108363933</v>
       </c>
     </row>
     <row r="258">
@@ -5562,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>0.977813310450239</v>
+        <v>0.977798637482043</v>
       </c>
     </row>
     <row r="259">
@@ -5579,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>1.44006045780033</v>
+        <v>1.4400552143352</v>
       </c>
     </row>
     <row r="260">
@@ -5596,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>2.68461758065361</v>
+        <v>2.68461947432581</v>
       </c>
     </row>
     <row r="261">
@@ -5613,7 +5613,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>6.30104138457372</v>
+        <v>6.30105079926001</v>
       </c>
     </row>
     <row r="262">
@@ -5630,7 +5630,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>5.14966624526869</v>
+        <v>5.14965905892906</v>
       </c>
     </row>
     <row r="263">
@@ -5647,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>3.62854318817945</v>
+        <v>3.62854885305607</v>
       </c>
     </row>
     <row r="264">
@@ -5664,7 +5664,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>0.420649476313669</v>
+        <v>0.420649190369905</v>
       </c>
     </row>
     <row r="265">
@@ -5681,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>0.570125753486909</v>
+        <v>0.570147779582725</v>
       </c>
     </row>
     <row r="266">
@@ -5698,7 +5698,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>13.6717166624842</v>
+        <v>13.6717238241783</v>
       </c>
     </row>
     <row r="267">
@@ -5715,7 +5715,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>17.3051719101286</v>
+        <v>17.305157417963</v>
       </c>
     </row>
     <row r="268">
@@ -5732,7 +5732,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>1.09423475353312</v>
+        <v>1.09423505797314</v>
       </c>
     </row>
     <row r="269">
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>1.03691159186588</v>
+        <v>1.0369067896807</v>
       </c>
     </row>
     <row r="270">
@@ -5766,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>0.921081026726613</v>
+        <v>0.921092671814231</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>0.928811205875462</v>
+        <v>0.928820802716864</v>
       </c>
     </row>
     <row r="272">
@@ -5800,7 +5800,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>7.23948134427097</v>
+        <v>7.23947507557163</v>
       </c>
     </row>
     <row r="273">
@@ -5817,7 +5817,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>1.5523161329406</v>
+        <v>1.55231911114137</v>
       </c>
     </row>
     <row r="274">
@@ -5834,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>3.60555174988737</v>
+        <v>3.60554532790111</v>
       </c>
     </row>
     <row r="275">
@@ -5851,7 +5851,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>3.26638684509407</v>
+        <v>3.26643157124646</v>
       </c>
     </row>
     <row r="276">
@@ -5868,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>1.45967300750186</v>
+        <v>1.45968923918592</v>
       </c>
     </row>
     <row r="277">
@@ -5885,7 +5885,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>1.42208808999329</v>
+        <v>1.42210150921105</v>
       </c>
     </row>
     <row r="278">
@@ -5902,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>6.67160756544551</v>
+        <v>6.67156156041172</v>
       </c>
     </row>
     <row r="279">
@@ -5919,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>7.01450227583459</v>
+        <v>7.01452070185085</v>
       </c>
     </row>
     <row r="280">
@@ -5936,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>1.50669356351325</v>
+        <v>1.5066971430959</v>
       </c>
     </row>
     <row r="281">
@@ -5953,7 +5953,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>2.65736866817525</v>
+        <v>2.65734894866625</v>
       </c>
     </row>
     <row r="282">
@@ -5970,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>1.80550292866748</v>
+        <v>1.80549472268488</v>
       </c>
     </row>
     <row r="283">
@@ -5987,7 +5987,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>2.02273285613358</v>
+        <v>2.02271432981579</v>
       </c>
     </row>
     <row r="284">
@@ -6004,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>1.50513115445221</v>
+        <v>1.50513414274401</v>
       </c>
     </row>
     <row r="285">
@@ -6021,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>2.07643553696822</v>
+        <v>2.07641469758833</v>
       </c>
     </row>
     <row r="286">
@@ -6038,7 +6038,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>1.36075138531168</v>
+        <v>1.36073846969191</v>
       </c>
     </row>
     <row r="287">
@@ -6055,7 +6055,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>1.14904449243828</v>
+        <v>1.14908200553129</v>
       </c>
     </row>
     <row r="288">
@@ -6072,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>10.4544822470426</v>
+        <v>10.4545041821487</v>
       </c>
     </row>
     <row r="289">
@@ -6089,7 +6089,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>17.3269482370506</v>
+        <v>17.3269502258801</v>
       </c>
     </row>
     <row r="290">
@@ -6106,7 +6106,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>7.11299699501966</v>
+        <v>7.11299637242821</v>
       </c>
     </row>
     <row r="291">
@@ -6123,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>8.11195144485873</v>
+        <v>8.1119954211216</v>
       </c>
     </row>
     <row r="292">
@@ -6140,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>3.45792907694748</v>
+        <v>3.4579202363056</v>
       </c>
     </row>
     <row r="293">
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>5.07147741605032</v>
+        <v>5.07147983105304</v>
       </c>
     </row>
     <row r="294">
@@ -6174,7 +6174,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>6.25487841645637</v>
+        <v>6.25487827216076</v>
       </c>
     </row>
     <row r="295">
@@ -6191,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>7.66637156104444</v>
+        <v>7.66636208262902</v>
       </c>
     </row>
     <row r="296">
@@ -6208,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>1.4980493788853</v>
+        <v>1.49804987249831</v>
       </c>
     </row>
     <row r="297">
@@ -6225,7 +6225,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>2.18913113913141</v>
+        <v>2.1891114335568</v>
       </c>
     </row>
     <row r="298">
@@ -6242,7 +6242,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>2.1739366219064</v>
+        <v>2.17392445637349</v>
       </c>
     </row>
     <row r="299">
@@ -6259,7 +6259,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>2.46707262756158</v>
+        <v>2.46706951104379</v>
       </c>
     </row>
     <row r="300">
@@ -6276,7 +6276,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>7.81659722082681</v>
+        <v>7.81659352724932</v>
       </c>
     </row>
     <row r="301">
@@ -6293,7 +6293,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>3.38455866082477</v>
+        <v>3.38454986288062</v>
       </c>
     </row>
     <row r="302">
@@ -6310,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>8.37024751685334</v>
+        <v>8.37023030890677</v>
       </c>
     </row>
     <row r="303">
@@ -6327,7 +6327,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>9.59502068538656</v>
+        <v>9.59501905159843</v>
       </c>
     </row>
     <row r="304">
@@ -6344,7 +6344,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>6.72901329130779</v>
+        <v>6.7290185091135</v>
       </c>
     </row>
     <row r="305">
@@ -6361,7 +6361,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>3.27195751120832</v>
+        <v>3.27195134316653</v>
       </c>
     </row>
     <row r="306">
@@ -6378,7 +6378,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>9.11687684441709</v>
+        <v>9.11688544644748</v>
       </c>
     </row>
     <row r="307">
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>9.79110952384583</v>
+        <v>9.79110491839096</v>
       </c>
     </row>
     <row r="308">
@@ -6412,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>1.45874075370097</v>
+        <v>1.45874872809317</v>
       </c>
     </row>
     <row r="309">
@@ -6429,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>2.74609882009167</v>
+        <v>2.74611733846424</v>
       </c>
     </row>
     <row r="310">
@@ -6446,7 +6446,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>2.23534628017613</v>
+        <v>2.23535528554594</v>
       </c>
     </row>
     <row r="311">
@@ -6463,7 +6463,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>2.36778849651194</v>
+        <v>2.36779031879969</v>
       </c>
     </row>
     <row r="312">
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>1.87547727058758</v>
+        <v>1.87547120936424</v>
       </c>
     </row>
     <row r="313">
@@ -6497,7 +6497,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>1.28286496876713</v>
+        <v>1.28287146209061</v>
       </c>
     </row>
     <row r="314">
@@ -6514,7 +6514,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>4.27286424632639</v>
+        <v>4.27283833008784</v>
       </c>
     </row>
     <row r="315">
@@ -6531,7 +6531,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>4.09374870071799</v>
+        <v>4.09374665024683</v>
       </c>
     </row>
     <row r="316">
@@ -6548,7 +6548,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>7.25603608879308</v>
+        <v>7.25601847450431</v>
       </c>
     </row>
     <row r="317">
@@ -6565,7 +6565,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>4.30024252552632</v>
+        <v>4.3002207909497</v>
       </c>
     </row>
     <row r="318">
@@ -6582,7 +6582,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>9.5995990123996</v>
+        <v>9.59958405122159</v>
       </c>
     </row>
     <row r="319">
@@ -6599,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>10.6733910826413</v>
+        <v>10.6734313928035</v>
       </c>
     </row>
     <row r="320">
@@ -6616,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>2.7289348774475</v>
+        <v>2.72893757859057</v>
       </c>
     </row>
     <row r="321">
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>3.85577314792405</v>
+        <v>3.85578215546341</v>
       </c>
     </row>
     <row r="322">
@@ -6650,7 +6650,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>4.90866348709674</v>
+        <v>4.90867924277192</v>
       </c>
     </row>
     <row r="323">
@@ -6667,7 +6667,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>3.55936518036595</v>
+        <v>3.55938305419318</v>
       </c>
     </row>
     <row r="324">
@@ -6684,7 +6684,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>2.98048940853884</v>
+        <v>2.98049247432227</v>
       </c>
     </row>
     <row r="325">
@@ -6701,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>7.01680410863631</v>
+        <v>7.01680831042541</v>
       </c>
     </row>
     <row r="326">
@@ -6718,7 +6718,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>4.64911960191087</v>
+        <v>4.64910045939559</v>
       </c>
     </row>
     <row r="327">
@@ -6735,7 +6735,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>4.9153561690667</v>
+        <v>4.91535047113218</v>
       </c>
     </row>
     <row r="328">
@@ -6752,7 +6752,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>1.64393798725778</v>
+        <v>1.64393557349299</v>
       </c>
     </row>
     <row r="329">
@@ -6769,7 +6769,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>4.65138309965896</v>
+        <v>4.65135874177613</v>
       </c>
     </row>
     <row r="330">
@@ -6786,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>4.18682890989807</v>
+        <v>4.18685209967334</v>
       </c>
     </row>
     <row r="331">
@@ -6803,7 +6803,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>4.31134208474788</v>
+        <v>4.31135615759698</v>
       </c>
     </row>
     <row r="332">
@@ -6820,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>9.96354091056281</v>
+        <v>9.96354387541893</v>
       </c>
     </row>
     <row r="333">
@@ -6837,7 +6837,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>10.3950501376166</v>
+        <v>10.3950619838545</v>
       </c>
     </row>
     <row r="334">
@@ -6854,7 +6854,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>8.74956950610844</v>
+        <v>8.74958521552525</v>
       </c>
     </row>
     <row r="335">
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>9.45614409356016</v>
+        <v>9.45616415702485</v>
       </c>
     </row>
     <row r="336">
@@ -6888,7 +6888,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>1.29826712551485</v>
+        <v>1.29826067822886</v>
       </c>
     </row>
     <row r="337">
@@ -6905,7 +6905,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>2.62329584259305</v>
+        <v>2.62331725315686</v>
       </c>
     </row>
     <row r="338">
@@ -6922,7 +6922,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>2.53244209406818</v>
+        <v>2.5324269187771</v>
       </c>
     </row>
     <row r="339">
@@ -6939,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>2.61384744883705</v>
+        <v>2.61385286865884</v>
       </c>
     </row>
     <row r="340">
@@ -6956,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>2.68667753566545</v>
+        <v>2.68668143265248</v>
       </c>
     </row>
     <row r="341">
@@ -6973,7 +6973,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>5.98983944601232</v>
+        <v>5.98984273793014</v>
       </c>
     </row>
     <row r="342">
@@ -6990,7 +6990,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>7.13060912186231</v>
+        <v>7.13061609557099</v>
       </c>
     </row>
     <row r="343">
@@ -7007,7 +7007,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>7.78646786344859</v>
+        <v>7.7864782571486</v>
       </c>
     </row>
     <row r="344">
@@ -7024,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>2.62713404556815</v>
+        <v>2.62710653611025</v>
       </c>
     </row>
     <row r="345">
@@ -7041,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>4.05362237918319</v>
+        <v>4.05358076951178</v>
       </c>
     </row>
     <row r="346">
@@ -7058,7 +7058,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>1.29327882350643</v>
+        <v>1.29327465938808</v>
       </c>
     </row>
     <row r="347">
@@ -7075,7 +7075,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>4.1248881504684</v>
+        <v>4.12491206748337</v>
       </c>
     </row>
     <row r="348">
@@ -7092,7 +7092,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>3.16161923858429</v>
+        <v>3.16162567957561</v>
       </c>
     </row>
     <row r="349">
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>3.32263770008159</v>
+        <v>3.32260590804598</v>
       </c>
     </row>
     <row r="350">
@@ -7126,7 +7126,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>0.697086015426977</v>
+        <v>0.697081087876467</v>
       </c>
     </row>
     <row r="351">
@@ -7143,7 +7143,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>0.669257758311093</v>
+        <v>0.669253144245011</v>
       </c>
     </row>
     <row r="352">
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>1.87840813631441</v>
+        <v>1.87838186757512</v>
       </c>
     </row>
     <row r="353">
@@ -7177,7 +7177,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>1.92820919489408</v>
+        <v>1.9282106640028</v>
       </c>
     </row>
     <row r="354">
@@ -7194,7 +7194,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>0.924035207346424</v>
+        <v>0.924028338945623</v>
       </c>
     </row>
     <row r="355">
@@ -7211,7 +7211,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>2.44312086536742</v>
+        <v>2.44310999883942</v>
       </c>
     </row>
     <row r="356">
@@ -7228,7 +7228,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>2.39745788114423</v>
+        <v>2.39743270914178</v>
       </c>
     </row>
     <row r="357">
@@ -7245,7 +7245,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>1.84812635208848</v>
+        <v>1.84811902263002</v>
       </c>
     </row>
     <row r="358">
@@ -7262,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>1.20899830956961</v>
+        <v>1.20899511016608</v>
       </c>
     </row>
     <row r="359">
@@ -7279,7 +7279,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>5.59757594133287</v>
+        <v>5.59757530721382</v>
       </c>
     </row>
     <row r="360">
@@ -7296,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>5.59755543208131</v>
+        <v>5.59757530721382</v>
       </c>
     </row>
     <row r="361">
@@ -7313,7 +7313,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>5.87496224628548</v>
+        <v>5.87496429839594</v>
       </c>
     </row>
     <row r="362">
@@ -7330,7 +7330,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>1.08698030542497</v>
+        <v>1.08698209955653</v>
       </c>
     </row>
     <row r="363">
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>3.72392275631002</v>
+        <v>3.72392367864222</v>
       </c>
     </row>
     <row r="364">
@@ -7364,7 +7364,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>3.50477979393786</v>
+        <v>3.5047664410061</v>
       </c>
     </row>
     <row r="365">
@@ -7381,7 +7381,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>3.632828330244</v>
+        <v>3.63283135448559</v>
       </c>
     </row>
     <row r="366">
@@ -7398,7 +7398,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>1.44756698939918</v>
+        <v>1.44758191074188</v>
       </c>
     </row>
     <row r="367">
@@ -7415,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>3.26895806465715</v>
+        <v>3.26896744204312</v>
       </c>
     </row>
     <row r="368">
@@ -7432,7 +7432,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>3.35579659203354</v>
+        <v>3.35581179635331</v>
       </c>
     </row>
     <row r="369">
@@ -7449,7 +7449,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>3.47001142636836</v>
+        <v>3.47003310454601</v>
       </c>
     </row>
     <row r="370">
@@ -7466,7 +7466,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>1.09750948416232</v>
+        <v>1.09751015687993</v>
       </c>
     </row>
     <row r="371">
@@ -7483,7 +7483,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>5.72055542293549</v>
+        <v>5.72056961723275</v>
       </c>
     </row>
     <row r="372">
@@ -7500,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>4.99296948075287</v>
+        <v>4.99299026183473</v>
       </c>
     </row>
     <row r="373">
@@ -7517,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>4.98655663245962</v>
+        <v>4.98654369296448</v>
       </c>
     </row>
     <row r="374">
@@ -7534,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>0.643563639378603</v>
+        <v>0.643560464339031</v>
       </c>
     </row>
     <row r="375">
@@ -7551,7 +7551,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>2.03031686769208</v>
+        <v>2.03031536730488</v>
       </c>
     </row>
     <row r="376">
@@ -7568,7 +7568,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>3.39861301898702</v>
+        <v>3.39859326786538</v>
       </c>
     </row>
     <row r="377">
@@ -7585,7 +7585,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>5.57685234098639</v>
+        <v>5.57687646186236</v>
       </c>
     </row>
     <row r="378">
@@ -7602,7 +7602,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>0.916222266412417</v>
+        <v>0.916230221275216</v>
       </c>
     </row>
     <row r="379">
@@ -7619,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>0.894705076298605</v>
+        <v>0.89471255628149</v>
       </c>
     </row>
     <row r="380">
@@ -7636,7 +7636,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>0.982918169290372</v>
+        <v>0.982883260164094</v>
       </c>
     </row>
     <row r="381">
@@ -7653,7 +7653,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>0.990051339906962</v>
+        <v>0.990125622655605</v>
       </c>
     </row>
     <row r="382">
@@ -7670,7 +7670,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>3.79645246960889</v>
+        <v>3.79645149070949</v>
       </c>
     </row>
     <row r="383">
@@ -7687,7 +7687,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>2.79798096960828</v>
+        <v>2.79798732515554</v>
       </c>
     </row>
     <row r="384">
@@ -7704,7 +7704,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>3.91117847794096</v>
+        <v>3.91117065785579</v>
       </c>
     </row>
     <row r="385">
@@ -7721,7 +7721,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>3.75008311448886</v>
+        <v>3.75009311841201</v>
       </c>
     </row>
     <row r="386">
@@ -7738,7 +7738,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>1.83030181844392</v>
+        <v>1.8303038832268</v>
       </c>
     </row>
     <row r="387">
@@ -7755,7 +7755,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>2.46912353918094</v>
+        <v>2.46911930384882</v>
       </c>
     </row>
     <row r="388">
@@ -7772,7 +7772,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>2.85903114637794</v>
+        <v>2.85904075775747</v>
       </c>
     </row>
     <row r="389">
@@ -7789,7 +7789,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>3.2270283291093</v>
+        <v>3.22706886084531</v>
       </c>
     </row>
     <row r="390">
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>1.40396542943579</v>
+        <v>1.4039649565539</v>
       </c>
     </row>
     <row r="391">
@@ -7823,7 +7823,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>1.23274310429214</v>
+        <v>1.23274757912762</v>
       </c>
     </row>
     <row r="392">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>2.4730893992272</v>
+        <v>2.47308774565781</v>
       </c>
     </row>
     <row r="393">
@@ -7857,7 +7857,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>2.61054762398881</v>
+        <v>2.6105554884783</v>
       </c>
     </row>
     <row r="394">
@@ -7874,7 +7874,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>3.50069864463564</v>
+        <v>3.5006983291044</v>
       </c>
     </row>
     <row r="395">
@@ -7891,7 +7891,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>5.71436681563094</v>
+        <v>5.71435531469133</v>
       </c>
     </row>
     <row r="396">
@@ -7908,7 +7908,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>4.0307794260807</v>
+        <v>4.03077026540326</v>
       </c>
     </row>
     <row r="397">
@@ -7925,7 +7925,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>4.13280173519531</v>
+        <v>4.13281888231894</v>
       </c>
     </row>
     <row r="398">
@@ -7942,7 +7942,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>0.800284845201564</v>
+        <v>0.800269110336781</v>
       </c>
     </row>
     <row r="399">
@@ -7959,7 +7959,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>2.93603821605808</v>
+        <v>2.9360713119936</v>
       </c>
     </row>
     <row r="400">
@@ -7976,7 +7976,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>2.40984249305371</v>
+        <v>2.40977535465554</v>
       </c>
     </row>
     <row r="401">
@@ -7993,7 +7993,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>2.55645818584202</v>
+        <v>2.55643730447459</v>
       </c>
     </row>
     <row r="402">
@@ -8010,7 +8010,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>2.64051341746314</v>
+        <v>2.64051776762427</v>
       </c>
     </row>
     <row r="403">
@@ -8027,7 +8027,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>14.4181227705788</v>
+        <v>14.4180086073137</v>
       </c>
     </row>
     <row r="404">
@@ -8044,7 +8044,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>3.54172005771188</v>
+        <v>3.54172275359374</v>
       </c>
     </row>
     <row r="405">
@@ -8061,7 +8061,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>3.37788762107826</v>
+        <v>3.37787901650078</v>
       </c>
     </row>
     <row r="406">
@@ -8078,7 +8078,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>2.10259801385409</v>
+        <v>2.10260323653912</v>
       </c>
     </row>
     <row r="407">
@@ -8095,7 +8095,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>4.64274508793306</v>
+        <v>4.64274129193077</v>
       </c>
     </row>
     <row r="408">
@@ -8112,7 +8112,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>3.70037061396363</v>
+        <v>3.70032771817466</v>
       </c>
     </row>
     <row r="409">
@@ -8129,7 +8129,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>3.77614501441534</v>
+        <v>3.77615265600204</v>
       </c>
     </row>
     <row r="410">
@@ -8146,7 +8146,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>1.57969480661841</v>
+        <v>1.57969870353553</v>
       </c>
     </row>
     <row r="411">
@@ -8163,7 +8163,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>2.44623781089894</v>
+        <v>2.44622965880324</v>
       </c>
     </row>
     <row r="412">
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>2.14107656404696</v>
+        <v>2.14109823798706</v>
       </c>
     </row>
     <row r="413">
@@ -8197,7 +8197,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>2.1472505616736</v>
+        <v>2.14728269152586</v>
       </c>
     </row>
     <row r="414">
@@ -8214,7 +8214,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>1.50963084148063</v>
+        <v>1.50963967547024</v>
       </c>
     </row>
     <row r="415">
@@ -8231,7 +8231,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>2.00636647318116</v>
+        <v>2.0063721847498</v>
       </c>
     </row>
     <row r="416">
@@ -8248,7 +8248,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>3.80762320947391</v>
+        <v>3.80763729074887</v>
       </c>
     </row>
     <row r="417">
@@ -8265,7 +8265,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>3.79370541147813</v>
+        <v>3.79372320192342</v>
       </c>
     </row>
     <row r="418">
@@ -8282,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>2.37152459399476</v>
+        <v>2.37152964949676</v>
       </c>
     </row>
     <row r="419">
@@ -8299,7 +8299,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>4.19230766897408</v>
+        <v>4.1923432759618</v>
       </c>
     </row>
     <row r="420">
@@ -8316,7 +8316,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>2.61124408285335</v>
+        <v>2.6112534577382</v>
       </c>
     </row>
     <row r="421">
@@ -8333,7 +8333,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>2.97524680697036</v>
+        <v>2.97523529524625</v>
       </c>
     </row>
     <row r="422">
@@ -8350,7 +8350,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>1.0343019171596</v>
+        <v>1.03430064146033</v>
       </c>
     </row>
     <row r="423">
@@ -8367,7 +8367,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>1.2154528089862</v>
+        <v>1.21545796628587</v>
       </c>
     </row>
     <row r="424">
@@ -8384,7 +8384,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>2.40980327931525</v>
+        <v>2.40980334771376</v>
       </c>
     </row>
     <row r="425">
@@ -8401,7 +8401,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>2.07122138214326</v>
+        <v>2.07123083939738</v>
       </c>
     </row>
     <row r="426">
@@ -8418,7 +8418,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>2.35815482546733</v>
+        <v>2.35815824922168</v>
       </c>
     </row>
     <row r="427">
@@ -8435,7 +8435,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>4.72306507912688</v>
+        <v>4.7230689386606</v>
       </c>
     </row>
     <row r="428">
@@ -8452,7 +8452,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>6.04081604300908</v>
+        <v>6.04081303700048</v>
       </c>
     </row>
     <row r="429">
@@ -8469,7 +8469,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>6.80982528893863</v>
+        <v>6.80982220540215</v>
       </c>
     </row>
     <row r="430">
@@ -8486,7 +8486,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>12.1755785234644</v>
+        <v>12.1755745751231</v>
       </c>
     </row>
     <row r="431">
@@ -8503,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>15.5405255858804</v>
+        <v>15.5405132568804</v>
       </c>
     </row>
     <row r="432">
@@ -8520,7 +8520,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>16.6159978226301</v>
+        <v>16.6159991033387</v>
       </c>
     </row>
     <row r="433">
@@ -8537,7 +8537,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>17.2222874160051</v>
+        <v>17.2222915674363</v>
       </c>
     </row>
     <row r="434">
@@ -8554,7 +8554,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>0.400369965387046</v>
+        <v>0.400370414329098</v>
       </c>
     </row>
     <row r="435">
@@ -8571,7 +8571,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>1.61606190409687</v>
+        <v>1.61606856129436</v>
       </c>
     </row>
     <row r="436">
@@ -8588,7 +8588,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>1.59405964388374</v>
+        <v>1.59404714101017</v>
       </c>
     </row>
     <row r="437">
@@ -8605,7 +8605,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>1.65100138346854</v>
+        <v>1.65101867753955</v>
       </c>
     </row>
     <row r="438">
@@ -8622,7 +8622,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>1.47084895398617</v>
+        <v>1.47084318735043</v>
       </c>
     </row>
     <row r="439">
@@ -8639,7 +8639,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>1.5654098558706</v>
+        <v>1.56540170882569</v>
       </c>
     </row>
     <row r="440">
@@ -8656,7 +8656,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>4.24994451209268</v>
+        <v>4.24995127853766</v>
       </c>
     </row>
     <row r="441">
@@ -8673,7 +8673,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>4.73255153804779</v>
+        <v>4.73256551473885</v>
       </c>
     </row>
   </sheetData>
@@ -8718,16 +8718,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.23520104988596</v>
+        <v>1.23520522151401</v>
       </c>
       <c r="D2" t="n">
-        <v>2.50228680612</v>
+        <v>2.50229695382235</v>
       </c>
       <c r="E2" t="n">
-        <v>2.05798364238305</v>
+        <v>2.05799818762834</v>
       </c>
       <c r="F2" t="n">
-        <v>2.34792466594697</v>
+        <v>2.34788572255323</v>
       </c>
     </row>
     <row r="3">
@@ -8738,16 +8738,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1.19393181097358</v>
+        <v>1.19393412426776</v>
       </c>
       <c r="D3" t="n">
-        <v>1.41125262278129</v>
+        <v>1.4112176836144</v>
       </c>
       <c r="E3" t="n">
-        <v>1.58061211553583</v>
+        <v>1.5806233448202</v>
       </c>
       <c r="F3" t="n">
-        <v>1.67380566874764</v>
+        <v>1.67378768800091</v>
       </c>
     </row>
     <row r="4">
@@ -8758,16 +8758,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1.13735951524103</v>
+        <v>1.13735409230288</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23940626713636</v>
+        <v>2.2393838445227</v>
       </c>
       <c r="E4" t="n">
-        <v>1.99089083998859</v>
+        <v>1.99088546390738</v>
       </c>
       <c r="F4" t="n">
-        <v>1.49272003921705</v>
+        <v>1.49272798787136</v>
       </c>
     </row>
     <row r="5">
@@ -8778,16 +8778,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.07772061674333</v>
+        <v>2.07773148356783</v>
       </c>
       <c r="D5" t="n">
-        <v>4.81549548845</v>
+        <v>4.8154788087238</v>
       </c>
       <c r="E5" t="n">
-        <v>2.99442761084686</v>
+        <v>2.99445662099563</v>
       </c>
       <c r="F5" t="n">
-        <v>3.70672800622699</v>
+        <v>3.70673082347425</v>
       </c>
     </row>
     <row r="6">
@@ -8798,16 +8798,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998632188304238</v>
+        <v>0.998636371812413</v>
       </c>
       <c r="D6" t="n">
-        <v>2.65201864350789</v>
+        <v>2.65202737092728</v>
       </c>
       <c r="E6" t="n">
-        <v>2.76300973923526</v>
+        <v>2.76301965264553</v>
       </c>
       <c r="F6" t="n">
-        <v>2.82263325748005</v>
+        <v>2.8226573274246</v>
       </c>
     </row>
     <row r="7">
@@ -8818,16 +8818,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.306214265251197</v>
+        <v>0.306228092876365</v>
       </c>
       <c r="D7" t="n">
-        <v>2.48553619892877</v>
+        <v>2.48550176945518</v>
       </c>
       <c r="E7" t="n">
-        <v>1.66554954676733</v>
+        <v>1.66554647431633</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85761417741781</v>
+        <v>1.85760388958103</v>
       </c>
     </row>
     <row r="8">
@@ -8838,16 +8838,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.987703841884906</v>
+        <v>0.987707239084757</v>
       </c>
       <c r="D8" t="n">
-        <v>2.50409212820603</v>
+        <v>2.50410833410508</v>
       </c>
       <c r="E8" t="n">
-        <v>2.70257350858308</v>
+        <v>2.70257467847858</v>
       </c>
       <c r="F8" t="n">
-        <v>2.84930768849071</v>
+        <v>2.84932657120515</v>
       </c>
     </row>
     <row r="9">
@@ -8858,16 +8858,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1.41921652190414</v>
+        <v>1.41922261572269</v>
       </c>
       <c r="D9" t="n">
-        <v>2.73825386977352</v>
+        <v>2.73824656709592</v>
       </c>
       <c r="E9" t="n">
-        <v>2.1312954253461</v>
+        <v>2.13127732002008</v>
       </c>
       <c r="F9" t="n">
-        <v>2.48424137581506</v>
+        <v>2.48423504497327</v>
       </c>
     </row>
     <row r="10">
@@ -8878,16 +8878,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>0.750350183122867</v>
+        <v>0.750350476201593</v>
       </c>
       <c r="D10" t="n">
-        <v>1.24989180549469</v>
+        <v>1.24988820040719</v>
       </c>
       <c r="E10" t="n">
-        <v>1.24669780109093</v>
+        <v>1.24668027987538</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3182703203957</v>
+        <v>1.31830127517936</v>
       </c>
     </row>
     <row r="11">
@@ -8898,16 +8898,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2.8284755366083</v>
+        <v>2.82847758831485</v>
       </c>
       <c r="D11" t="n">
-        <v>3.86638094632021</v>
+        <v>3.86638916660163</v>
       </c>
       <c r="E11" t="n">
-        <v>4.02524749279385</v>
+        <v>4.02523389618896</v>
       </c>
       <c r="F11" t="n">
-        <v>4.13073313754918</v>
+        <v>4.130716813547</v>
       </c>
     </row>
     <row r="12">
@@ -8918,16 +8918,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.86617438088311</v>
+        <v>1.8661763297873</v>
       </c>
       <c r="D12" t="n">
-        <v>2.95739201987898</v>
+        <v>2.95739191619107</v>
       </c>
       <c r="E12" t="n">
-        <v>1.66513938534579</v>
+        <v>1.66513172301437</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73883484175651</v>
+        <v>1.73879502490809</v>
       </c>
     </row>
     <row r="13">
@@ -8938,16 +8938,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1.40492979133298</v>
+        <v>1.40493190239974</v>
       </c>
       <c r="D13" t="n">
-        <v>2.05395605896245</v>
+        <v>2.05398916201409</v>
       </c>
       <c r="E13" t="n">
-        <v>2.01915933156835</v>
+        <v>2.01912155551953</v>
       </c>
       <c r="F13" t="n">
-        <v>2.14085314790134</v>
+        <v>2.14089436498047</v>
       </c>
     </row>
     <row r="14">
@@ -8958,16 +8958,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.2804286930445</v>
+        <v>2.2804301747882</v>
       </c>
       <c r="D14" t="n">
-        <v>2.01534298849371</v>
+        <v>2.0153547673843</v>
       </c>
       <c r="E14" t="n">
-        <v>1.92799155984612</v>
+        <v>1.92799450493921</v>
       </c>
       <c r="F14" t="n">
-        <v>1.92799661247561</v>
+        <v>1.92799450493921</v>
       </c>
     </row>
     <row r="15">
@@ -8978,16 +8978,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>0.854184305085836</v>
+        <v>0.854197729391157</v>
       </c>
       <c r="D15" t="n">
-        <v>1.74076098404486</v>
+        <v>1.74073779184454</v>
       </c>
       <c r="E15" t="n">
-        <v>2.17534472039256</v>
+        <v>2.17532956812214</v>
       </c>
       <c r="F15" t="n">
-        <v>2.31270085062076</v>
+        <v>2.31273904192639</v>
       </c>
     </row>
     <row r="16">
@@ -8998,16 +8998,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>3.04352448444595</v>
+        <v>3.04352143990596</v>
       </c>
       <c r="D16" t="n">
-        <v>15.5160306812878</v>
+        <v>15.5160175507939</v>
       </c>
       <c r="E16" t="n">
-        <v>14.7834941211292</v>
+        <v>14.783484673616</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0882881362918</v>
+        <v>15.0882574834054</v>
       </c>
     </row>
     <row r="17">
@@ -9018,16 +9018,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>1.35905767668562</v>
+        <v>1.35905378423995</v>
       </c>
       <c r="D17" t="n">
-        <v>4.67180123545484</v>
+        <v>4.67181063198098</v>
       </c>
       <c r="E17" t="n">
-        <v>4.4802697492712</v>
+        <v>4.48022929448089</v>
       </c>
       <c r="F17" t="n">
-        <v>3.51750074010393</v>
+        <v>3.51751896150463</v>
       </c>
     </row>
     <row r="18">
@@ -9038,16 +9038,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>0.842228566806374</v>
+        <v>0.842221576243996</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27635411495424</v>
+        <v>1.27637191658556</v>
       </c>
       <c r="E18" t="n">
-        <v>0.892795179758395</v>
+        <v>0.892807355223368</v>
       </c>
       <c r="F18" t="n">
-        <v>1.03457588281026</v>
+        <v>1.03453290890504</v>
       </c>
     </row>
     <row r="19">
@@ -9058,16 +9058,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>0.559032190768133</v>
+        <v>0.559023786203937</v>
       </c>
       <c r="D19" t="n">
-        <v>1.84239950915094</v>
+        <v>1.84236051307619</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4747810293116</v>
+        <v>1.47476585475212</v>
       </c>
       <c r="F19" t="n">
-        <v>1.07655681259223</v>
+        <v>1.07657700157415</v>
       </c>
     </row>
     <row r="20">
@@ -9078,16 +9078,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>1.10170960785504</v>
+        <v>1.10171320339071</v>
       </c>
       <c r="D20" t="n">
-        <v>1.66334562331171</v>
+        <v>1.66331937058669</v>
       </c>
       <c r="E20" t="n">
-        <v>1.06111406656781</v>
+        <v>1.06111388008496</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4325072297761</v>
+        <v>1.43255727669939</v>
       </c>
     </row>
     <row r="21">
@@ -9098,16 +9098,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>2.97236186289522</v>
+        <v>2.97237372697621</v>
       </c>
       <c r="D21" t="n">
-        <v>4.30197519662662</v>
+        <v>4.30196632367885</v>
       </c>
       <c r="E21" t="n">
-        <v>3.7625558122013</v>
+        <v>3.76255371463547</v>
       </c>
       <c r="F21" t="n">
-        <v>4.88424836704873</v>
+        <v>4.88421180097899</v>
       </c>
     </row>
     <row r="22">
@@ -9118,16 +9118,16 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>0.883314483179069</v>
+        <v>0.883312292900098</v>
       </c>
       <c r="D22" t="n">
-        <v>2.98355304720741</v>
+        <v>2.98355721958295</v>
       </c>
       <c r="E22" t="n">
-        <v>0.795274778927528</v>
+        <v>0.795269755485696</v>
       </c>
       <c r="F22" t="n">
-        <v>0.876078362641429</v>
+        <v>0.876092317852442</v>
       </c>
     </row>
     <row r="23">
@@ -9138,16 +9138,16 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>3.30300807857023</v>
+        <v>3.30300155982826</v>
       </c>
       <c r="D23" t="n">
-        <v>5.6006058075595</v>
+        <v>5.60062359710557</v>
       </c>
       <c r="E23" t="n">
-        <v>4.65147238874264</v>
+        <v>4.65146756558836</v>
       </c>
       <c r="F23" t="n">
-        <v>4.79366100264227</v>
+        <v>4.79368314486366</v>
       </c>
     </row>
     <row r="24">
@@ -9158,16 +9158,16 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>4.01629356439807</v>
+        <v>4.01628694657159</v>
       </c>
       <c r="D24" t="n">
-        <v>4.97386097498626</v>
+        <v>4.97383825123719</v>
       </c>
       <c r="E24" t="n">
-        <v>5.55610947678248</v>
+        <v>5.55611869024556</v>
       </c>
       <c r="F24" t="n">
-        <v>6.77884342050033</v>
+        <v>6.77885582195648</v>
       </c>
     </row>
     <row r="25">
@@ -9178,16 +9178,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>1.47218827924913</v>
+        <v>1.47219290901349</v>
       </c>
       <c r="D25" t="n">
-        <v>2.25471383555379</v>
+        <v>2.25468892291113</v>
       </c>
       <c r="E25" t="n">
-        <v>1.78668080997647</v>
+        <v>1.78668758647188</v>
       </c>
       <c r="F25" t="n">
-        <v>1.79452207084107</v>
+        <v>1.79454391848008</v>
       </c>
     </row>
     <row r="26">
@@ -9198,16 +9198,16 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>0.75286925413132</v>
+        <v>0.752870769660412</v>
       </c>
       <c r="D26" t="n">
-        <v>0.906366150119528</v>
+        <v>0.906352977226927</v>
       </c>
       <c r="E26" t="n">
-        <v>1.06996279160015</v>
+        <v>1.06995526942153</v>
       </c>
       <c r="F26" t="n">
-        <v>1.11003718865545</v>
+        <v>1.11002737275953</v>
       </c>
     </row>
     <row r="27">
@@ -9218,16 +9218,16 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>1.94283802275292</v>
+        <v>1.94285864979482</v>
       </c>
       <c r="D27" t="n">
-        <v>4.15549937934346</v>
+        <v>4.15545678491754</v>
       </c>
       <c r="E27" t="n">
-        <v>4.54143644050615</v>
+        <v>4.54144626375261</v>
       </c>
       <c r="F27" t="n">
-        <v>4.32052511300685</v>
+        <v>4.32054326362583</v>
       </c>
     </row>
     <row r="28">
@@ -9238,16 +9238,16 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>0.400490144448754</v>
+        <v>0.400493282924849</v>
       </c>
       <c r="D28" t="n">
-        <v>1.04241722152345</v>
+        <v>1.04241358370963</v>
       </c>
       <c r="E28" t="n">
-        <v>1.98010493294931</v>
+        <v>1.98008109225057</v>
       </c>
       <c r="F28" t="n">
-        <v>1.98006844749146</v>
+        <v>1.98008109225057</v>
       </c>
     </row>
     <row r="29">
@@ -9258,16 +9258,16 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.665256493073788</v>
+        <v>0.665255427746133</v>
       </c>
       <c r="D29" t="n">
-        <v>0.68486105301279</v>
+        <v>0.68487238452605</v>
       </c>
       <c r="E29" t="n">
-        <v>0.656771344657242</v>
+        <v>0.656786895232684</v>
       </c>
       <c r="F29" t="n">
-        <v>0.678690174448942</v>
+        <v>0.678701506404972</v>
       </c>
     </row>
     <row r="30">
@@ -9278,16 +9278,16 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>1.73298749975304</v>
+        <v>1.73299626207766</v>
       </c>
       <c r="D30" t="n">
-        <v>2.38662505607962</v>
+        <v>2.38663429422671</v>
       </c>
       <c r="E30" t="n">
-        <v>3.8558212402371</v>
+        <v>3.8558373510897</v>
       </c>
       <c r="F30" t="n">
-        <v>3.72965990512573</v>
+        <v>3.72965508161141</v>
       </c>
     </row>
     <row r="31">
@@ -9299,13 +9299,13 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>2.13601355203676</v>
+        <v>2.13601069314493</v>
       </c>
       <c r="E31" t="n">
-        <v>5.87719163265628</v>
+        <v>5.87718877803048</v>
       </c>
       <c r="F31" t="n">
-        <v>9.02163465436475</v>
+        <v>9.02162892752985</v>
       </c>
     </row>
     <row r="32">
@@ -9316,16 +9316,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>6.74239547748065</v>
+        <v>6.74239630288476</v>
       </c>
       <c r="D32" t="n">
-        <v>4.9421693103843</v>
+        <v>4.94216634488887</v>
       </c>
       <c r="E32" t="n">
-        <v>8.09689800161055</v>
+        <v>8.09689209804396</v>
       </c>
       <c r="F32" t="n">
-        <v>8.45547432475943</v>
+        <v>8.4554568651784</v>
       </c>
     </row>
     <row r="33">
@@ -9336,16 +9336,16 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>1.17945335204089</v>
+        <v>1.17945626862311</v>
       </c>
       <c r="D33" t="n">
-        <v>5.17368387097575</v>
+        <v>5.17370366056003</v>
       </c>
       <c r="E33" t="n">
-        <v>4.36647114837433</v>
+        <v>4.3664883918015</v>
       </c>
       <c r="F33" t="n">
-        <v>4.51194995873333</v>
+        <v>4.51195121642948</v>
       </c>
     </row>
     <row r="34">
@@ -9356,16 +9356,16 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>1.46874037588434</v>
+        <v>1.4687406857825</v>
       </c>
       <c r="D34" t="n">
-        <v>0.753638692307368</v>
+        <v>0.753633665023405</v>
       </c>
       <c r="E34" t="n">
-        <v>2.24973002999776</v>
+        <v>2.24972793732116</v>
       </c>
       <c r="F34" t="n">
-        <v>2.46273083866886</v>
+        <v>2.46274598680459</v>
       </c>
     </row>
     <row r="35">
@@ -9376,16 +9376,16 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>2.59980321125995</v>
+        <v>2.59980183841057</v>
       </c>
       <c r="D35" t="n">
-        <v>5.63174293298929</v>
+        <v>5.63174954725349</v>
       </c>
       <c r="E35" t="n">
-        <v>3.73709932580007</v>
+        <v>3.73708156136489</v>
       </c>
       <c r="F35" t="n">
-        <v>3.88982765523285</v>
+        <v>3.88984053969013</v>
       </c>
     </row>
     <row r="36">
@@ -9396,16 +9396,16 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>19.9378927708887</v>
+        <v>19.9378987825684</v>
       </c>
       <c r="D36" t="n">
-        <v>18.207074943038</v>
+        <v>18.2070840449274</v>
       </c>
       <c r="E36" t="n">
-        <v>18.3831767594354</v>
+        <v>18.3831762678329</v>
       </c>
       <c r="F36" t="n">
-        <v>16.4235351002633</v>
+        <v>16.4235503142916</v>
       </c>
     </row>
     <row r="37">
@@ -9416,16 +9416,16 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>0.841127882767669</v>
+        <v>0.841136566016352</v>
       </c>
       <c r="D37" t="n">
-        <v>1.52365855505902</v>
+        <v>1.52367624372211</v>
       </c>
       <c r="E37" t="n">
-        <v>1.55795921644113</v>
+        <v>1.55795930138447</v>
       </c>
       <c r="F37" t="n">
-        <v>1.52039108514397</v>
+        <v>1.52037398291059</v>
       </c>
     </row>
     <row r="38">
@@ -9436,16 +9436,16 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>4.9797775463173</v>
+        <v>4.9797743409648</v>
       </c>
       <c r="D38" t="n">
-        <v>3.85716419491842</v>
+        <v>3.85716429325876</v>
       </c>
       <c r="E38" t="n">
-        <v>6.55506184713149</v>
+        <v>6.55507310181237</v>
       </c>
       <c r="F38" t="n">
-        <v>7.57696253421392</v>
+        <v>7.57696373705108</v>
       </c>
     </row>
     <row r="39">
@@ -9456,16 +9456,16 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>4.23113633858052</v>
+        <v>4.23114011722558</v>
       </c>
       <c r="D39" t="n">
-        <v>7.81015867646149</v>
+        <v>7.8101631791759</v>
       </c>
       <c r="E39" t="n">
-        <v>8.2347131099064</v>
+        <v>8.23471582162962</v>
       </c>
       <c r="F39" t="n">
-        <v>7.89944087621666</v>
+        <v>7.89947880042083</v>
       </c>
     </row>
     <row r="40">
@@ -9476,16 +9476,16 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23660605459784</v>
+        <v>1.23660579970196</v>
       </c>
       <c r="D40" t="n">
-        <v>2.75293863555503</v>
+        <v>2.75294214001274</v>
       </c>
       <c r="E40" t="n">
-        <v>2.63797703684649</v>
+        <v>2.63797852588771</v>
       </c>
       <c r="F40" t="n">
-        <v>2.7505020433896</v>
+        <v>2.75053102972414</v>
       </c>
     </row>
     <row r="41">
@@ -9496,16 +9496,16 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>3.57652465721935</v>
+        <v>3.57653225784671</v>
       </c>
       <c r="D41" t="n">
-        <v>3.74076441110242</v>
+        <v>3.74075767762387</v>
       </c>
       <c r="E41" t="n">
-        <v>4.40918649907737</v>
+        <v>4.40916324272846</v>
       </c>
       <c r="F41" t="n">
-        <v>4.22943709843114</v>
+        <v>4.22943418931836</v>
       </c>
     </row>
     <row r="42">
@@ -9516,16 +9516,16 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>2.52777215401522</v>
+        <v>2.52778757199674</v>
       </c>
       <c r="D42" t="n">
-        <v>2.17919308219984</v>
+        <v>2.17918955104015</v>
       </c>
       <c r="E42" t="n">
-        <v>1.6620301324399</v>
+        <v>1.66201192193614</v>
       </c>
       <c r="F42" t="n">
-        <v>1.64950592906515</v>
+        <v>1.64948132554547</v>
       </c>
     </row>
     <row r="43">
@@ -9536,16 +9536,16 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01587142697044</v>
+        <v>1.01587313747149</v>
       </c>
       <c r="D43" t="n">
-        <v>1.43228984481418</v>
+        <v>1.4322796287736</v>
       </c>
       <c r="E43" t="n">
-        <v>3.11095576926523</v>
+        <v>3.11096256105014</v>
       </c>
       <c r="F43" t="n">
-        <v>3.52540018246662</v>
+        <v>3.52543570679362</v>
       </c>
     </row>
     <row r="44">
@@ -9556,16 +9556,16 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>1.12523273431158</v>
+        <v>1.12523483126568</v>
       </c>
       <c r="D44" t="n">
-        <v>1.10901307645706</v>
+        <v>1.10901165398839</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4315431619383</v>
+        <v>3.43153319667647</v>
       </c>
       <c r="F44" t="n">
-        <v>3.51735671587357</v>
+        <v>3.51737676801882</v>
       </c>
     </row>
     <row r="45">
@@ -9577,13 +9577,13 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>2.52301395011005</v>
+        <v>2.52302899106254</v>
       </c>
       <c r="E45" t="n">
-        <v>2.3167218148839</v>
+        <v>2.31672327353265</v>
       </c>
       <c r="F45" t="n">
-        <v>2.69136742842538</v>
+        <v>2.69141453908348</v>
       </c>
     </row>
     <row r="46">
@@ -9594,16 +9594,16 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>3.76318366994105</v>
+        <v>3.76319619490032</v>
       </c>
       <c r="D46" t="n">
-        <v>3.56180321203345</v>
+        <v>3.5618048928175</v>
       </c>
       <c r="E46" t="n">
-        <v>3.38540538335453</v>
+        <v>3.38539847578133</v>
       </c>
       <c r="F46" t="n">
-        <v>2.76240274378116</v>
+        <v>2.76238988311454</v>
       </c>
     </row>
     <row r="47">
@@ -9614,16 +9614,16 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>3.19766820204771</v>
+        <v>3.19766920127068</v>
       </c>
       <c r="D47" t="n">
-        <v>2.29803950183886</v>
+        <v>2.29806886070733</v>
       </c>
       <c r="E47" t="n">
-        <v>1.72989052648807</v>
+        <v>1.72988389352117</v>
       </c>
       <c r="F47" t="n">
-        <v>1.60803088325809</v>
+        <v>1.60804946512096</v>
       </c>
     </row>
     <row r="48">
@@ -9634,16 +9634,16 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>2.61563727357829</v>
+        <v>2.61563435062145</v>
       </c>
       <c r="D48" t="n">
-        <v>8.26134970141652</v>
+        <v>8.26135827921442</v>
       </c>
       <c r="E48" t="n">
-        <v>8.08378883180853</v>
+        <v>8.08378554514719</v>
       </c>
       <c r="F48" t="n">
-        <v>7.35770095741131</v>
+        <v>7.35770652743574</v>
       </c>
     </row>
     <row r="49">
@@ -9654,16 +9654,16 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>3.71954661457138</v>
+        <v>3.71954949976892</v>
       </c>
       <c r="D49" t="n">
-        <v>3.78898112976351</v>
+        <v>3.78901606870482</v>
       </c>
       <c r="E49" t="n">
-        <v>3.49325403998594</v>
+        <v>3.49326121712175</v>
       </c>
       <c r="F49" t="n">
-        <v>4.98016896721336</v>
+        <v>4.98018107081247</v>
       </c>
     </row>
     <row r="50">
@@ -9674,16 +9674,16 @@
         <v>103</v>
       </c>
       <c r="C50" t="n">
-        <v>3.97634324263211</v>
+        <v>3.97633833251124</v>
       </c>
       <c r="D50" t="n">
-        <v>3.2082137955594</v>
+        <v>3.20824605777204</v>
       </c>
       <c r="E50" t="n">
-        <v>2.80141990952738</v>
+        <v>2.80139621052229</v>
       </c>
       <c r="F50" t="n">
-        <v>2.85772278827475</v>
+        <v>2.8577377235137</v>
       </c>
     </row>
     <row r="51">
@@ -9694,16 +9694,16 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>2.02749288886461</v>
+        <v>2.02749541563962</v>
       </c>
       <c r="D51" t="n">
-        <v>4.65519250622319</v>
+        <v>4.6552024663231</v>
       </c>
       <c r="E51" t="n">
-        <v>4.05553340827048</v>
+        <v>4.05552911989711</v>
       </c>
       <c r="F51" t="n">
-        <v>4.22110776549373</v>
+        <v>4.22112287862409</v>
       </c>
     </row>
     <row r="52">
@@ -9714,16 +9714,16 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>7.41285554765382</v>
+        <v>7.41282643416469</v>
       </c>
       <c r="D52" t="n">
-        <v>6.71000760678641</v>
+        <v>6.7099863038134</v>
       </c>
       <c r="E52" t="n">
-        <v>5.74616503870505</v>
+        <v>5.74620862403684</v>
       </c>
       <c r="F52" t="n">
-        <v>6.2008958934309</v>
+        <v>6.20083513279232</v>
       </c>
     </row>
     <row r="53">
@@ -9734,16 +9734,16 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.69948952799029</v>
+        <v>0.699480693396352</v>
       </c>
       <c r="D53" t="n">
-        <v>1.00508187464709</v>
+        <v>1.00507112603409</v>
       </c>
       <c r="E53" t="n">
-        <v>0.858607169900352</v>
+        <v>0.858611292053306</v>
       </c>
       <c r="F53" t="n">
-        <v>0.876822894270104</v>
+        <v>0.876832771442001</v>
       </c>
     </row>
     <row r="54">
@@ -9754,16 +9754,16 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>7.05577837290655</v>
+        <v>7.05578556266699</v>
       </c>
       <c r="D54" t="n">
-        <v>7.0550890086314</v>
+        <v>7.05508616104547</v>
       </c>
       <c r="E54" t="n">
-        <v>6.27901557598214</v>
+        <v>6.27901832179725</v>
       </c>
       <c r="F54" t="n">
-        <v>4.95357967030441</v>
+        <v>4.95356494359345</v>
       </c>
     </row>
     <row r="55">
@@ -9774,16 +9774,16 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>0.742429582868931</v>
+        <v>0.742421785344411</v>
       </c>
       <c r="D55" t="n">
-        <v>6.93413470145748</v>
+        <v>6.93412196259664</v>
       </c>
       <c r="E55" t="n">
-        <v>6.02804763753551</v>
+        <v>6.02803224769508</v>
       </c>
       <c r="F55" t="n">
-        <v>5.95394012545955</v>
+        <v>5.95396484908465</v>
       </c>
     </row>
     <row r="56">
@@ -9794,16 +9794,16 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>1.55891569548354</v>
+        <v>1.55891392593409</v>
       </c>
       <c r="D56" t="n">
-        <v>2.19982240721274</v>
+        <v>2.19979340907254</v>
       </c>
       <c r="E56" t="n">
-        <v>3.55292926918648</v>
+        <v>3.55293109387484</v>
       </c>
       <c r="F56" t="n">
-        <v>3.71848087993436</v>
+        <v>3.71846899022817</v>
       </c>
     </row>
     <row r="57">
@@ -9814,16 +9814,16 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>1.98111803170169</v>
+        <v>1.98112140123323</v>
       </c>
       <c r="D57" t="n">
-        <v>4.37119931349975</v>
+        <v>4.37119562487305</v>
       </c>
       <c r="E57" t="n">
-        <v>4.48366790334024</v>
+        <v>4.4836952643275</v>
       </c>
       <c r="F57" t="n">
-        <v>4.67596454502204</v>
+        <v>4.67596575653247</v>
       </c>
     </row>
     <row r="58">
@@ -9834,16 +9834,16 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>1.07457496103334</v>
+        <v>1.07457368973821</v>
       </c>
       <c r="D58" t="n">
-        <v>7.69863667696342</v>
+        <v>7.69863071357823</v>
       </c>
       <c r="E58" t="n">
-        <v>6.13398180053344</v>
+        <v>6.13398284037743</v>
       </c>
       <c r="F58" t="n">
-        <v>7.5746900308638</v>
+        <v>7.5746968973113</v>
       </c>
     </row>
     <row r="59">
@@ -9854,16 +9854,16 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>2.04310115112311</v>
+        <v>2.04310738189506</v>
       </c>
       <c r="D59" t="n">
-        <v>3.23648031465931</v>
+        <v>3.2364640011854</v>
       </c>
       <c r="E59" t="n">
-        <v>2.26944940915281</v>
+        <v>2.26945881537078</v>
       </c>
       <c r="F59" t="n">
-        <v>2.38495968434825</v>
+        <v>2.38497657703602</v>
       </c>
     </row>
     <row r="60">
@@ -9874,16 +9874,16 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>4.51820869687638</v>
+        <v>4.51819441873506</v>
       </c>
       <c r="D60" t="n">
-        <v>2.67954222765478</v>
+        <v>2.67956774635823</v>
       </c>
       <c r="E60" t="n">
-        <v>1.16009547722384</v>
+        <v>1.16006168061354</v>
       </c>
       <c r="F60" t="n">
-        <v>1.57751798399533</v>
+        <v>1.57750004485995</v>
       </c>
     </row>
     <row r="61">
@@ -9894,16 +9894,16 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>1.05191765386719</v>
+        <v>1.05192443698609</v>
       </c>
       <c r="D61" t="n">
-        <v>1.00990484158795</v>
+        <v>1.00991767263569</v>
       </c>
       <c r="E61" t="n">
-        <v>1.27745744999598</v>
+        <v>1.27746093792872</v>
       </c>
       <c r="F61" t="n">
-        <v>1.39203473008683</v>
+        <v>1.39202993645979</v>
       </c>
     </row>
     <row r="62">
@@ -9914,16 +9914,16 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>1.33668184912074</v>
+        <v>1.33667430184495</v>
       </c>
       <c r="D62" t="n">
-        <v>2.4079430916534</v>
+        <v>2.40795263818907</v>
       </c>
       <c r="E62" t="n">
-        <v>2.42077614418554</v>
+        <v>2.42074518389617</v>
       </c>
       <c r="F62" t="n">
-        <v>2.73545995951096</v>
+        <v>2.73544927106258</v>
       </c>
     </row>
     <row r="63">
@@ -9934,16 +9934,16 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>2.00738668068252</v>
+        <v>2.00738608004849</v>
       </c>
       <c r="D63" t="n">
-        <v>2.12121434463732</v>
+        <v>2.12122508298982</v>
       </c>
       <c r="E63" t="n">
-        <v>3.35449002505732</v>
+        <v>3.35446695809468</v>
       </c>
       <c r="F63" t="n">
-        <v>3.48200797639206</v>
+        <v>3.48199024646151</v>
       </c>
     </row>
     <row r="64">
@@ -9954,16 +9954,16 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>2.67013761533442</v>
+        <v>2.67013136434165</v>
       </c>
       <c r="D64" t="n">
-        <v>6.14518830150122</v>
+        <v>6.14521173238664</v>
       </c>
       <c r="E64" t="n">
-        <v>4.79389141169762</v>
+        <v>4.79386888752066</v>
       </c>
       <c r="F64" t="n">
-        <v>5.32030250915676</v>
+        <v>5.32025990115726</v>
       </c>
     </row>
     <row r="65">
@@ -9974,16 +9974,16 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>1.16054780710205</v>
+        <v>1.16054879286392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.93117149642681</v>
+        <v>0.93116801162313</v>
       </c>
       <c r="E65" t="n">
-        <v>3.75162420078464</v>
+        <v>3.75161249353571</v>
       </c>
       <c r="F65" t="n">
-        <v>5.04507793638614</v>
+        <v>5.0450754230459</v>
       </c>
     </row>
     <row r="66">
@@ -9994,16 +9994,16 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>0.875892440818316</v>
+        <v>0.875888105428788</v>
       </c>
       <c r="D66" t="n">
-        <v>1.288408900058</v>
+        <v>1.28841108363933</v>
       </c>
       <c r="E66" t="n">
-        <v>0.977813310450239</v>
+        <v>0.977798637482043</v>
       </c>
       <c r="F66" t="n">
-        <v>1.44006045780033</v>
+        <v>1.4400552143352</v>
       </c>
     </row>
     <row r="67">
@@ -10014,16 +10014,16 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>2.68461758065361</v>
+        <v>2.68461947432581</v>
       </c>
       <c r="D67" t="n">
-        <v>6.30104138457372</v>
+        <v>6.30105079926001</v>
       </c>
       <c r="E67" t="n">
-        <v>5.14966624526869</v>
+        <v>5.14965905892906</v>
       </c>
       <c r="F67" t="n">
-        <v>3.62854318817945</v>
+        <v>3.62854885305607</v>
       </c>
     </row>
     <row r="68">
@@ -10034,16 +10034,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.420649476313669</v>
+        <v>0.420649190369905</v>
       </c>
       <c r="D68" t="n">
-        <v>0.570125753486909</v>
+        <v>0.570147779582725</v>
       </c>
       <c r="E68" t="n">
-        <v>13.6717166624842</v>
+        <v>13.6717238241783</v>
       </c>
       <c r="F68" t="n">
-        <v>17.3051719101286</v>
+        <v>17.305157417963</v>
       </c>
     </row>
     <row r="69">
@@ -10054,16 +10054,16 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>1.09423475353312</v>
+        <v>1.09423505797314</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03691159186588</v>
+        <v>1.0369067896807</v>
       </c>
       <c r="E69" t="n">
-        <v>0.921081026726613</v>
+        <v>0.921092671814231</v>
       </c>
       <c r="F69" t="n">
-        <v>0.928811205875462</v>
+        <v>0.928820802716864</v>
       </c>
     </row>
     <row r="70">
@@ -10074,16 +10074,16 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>7.23948134427097</v>
+        <v>7.23947507557163</v>
       </c>
       <c r="D70" t="n">
-        <v>1.5523161329406</v>
+        <v>1.55231911114137</v>
       </c>
       <c r="E70" t="n">
-        <v>3.60555174988737</v>
+        <v>3.60554532790111</v>
       </c>
       <c r="F70" t="n">
-        <v>3.26638684509407</v>
+        <v>3.26643157124646</v>
       </c>
     </row>
     <row r="71">
@@ -10094,16 +10094,16 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>1.45967300750186</v>
+        <v>1.45968923918592</v>
       </c>
       <c r="D71" t="n">
-        <v>1.42208808999329</v>
+        <v>1.42210150921105</v>
       </c>
       <c r="E71" t="n">
-        <v>6.67160756544551</v>
+        <v>6.67156156041172</v>
       </c>
       <c r="F71" t="n">
-        <v>7.01450227583459</v>
+        <v>7.01452070185085</v>
       </c>
     </row>
     <row r="72">
@@ -10114,16 +10114,16 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>1.50669356351325</v>
+        <v>1.5066971430959</v>
       </c>
       <c r="D72" t="n">
-        <v>2.65736866817525</v>
+        <v>2.65734894866625</v>
       </c>
       <c r="E72" t="n">
-        <v>1.80550292866748</v>
+        <v>1.80549472268488</v>
       </c>
       <c r="F72" t="n">
-        <v>2.02273285613358</v>
+        <v>2.02271432981579</v>
       </c>
     </row>
     <row r="73">
@@ -10134,16 +10134,16 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>1.50513115445221</v>
+        <v>1.50513414274401</v>
       </c>
       <c r="D73" t="n">
-        <v>2.07643553696822</v>
+        <v>2.07641469758833</v>
       </c>
       <c r="E73" t="n">
-        <v>1.36075138531168</v>
+        <v>1.36073846969191</v>
       </c>
       <c r="F73" t="n">
-        <v>1.14904449243828</v>
+        <v>1.14908200553129</v>
       </c>
     </row>
     <row r="74">
@@ -10154,16 +10154,16 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>10.4544822470426</v>
+        <v>10.4545041821487</v>
       </c>
       <c r="D74" t="n">
-        <v>17.3269482370506</v>
+        <v>17.3269502258801</v>
       </c>
       <c r="E74" t="n">
-        <v>7.11299699501966</v>
+        <v>7.11299637242821</v>
       </c>
       <c r="F74" t="n">
-        <v>8.11195144485873</v>
+        <v>8.1119954211216</v>
       </c>
     </row>
     <row r="75">
@@ -10174,16 +10174,16 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>3.45792907694748</v>
+        <v>3.4579202363056</v>
       </c>
       <c r="D75" t="n">
-        <v>5.07147741605032</v>
+        <v>5.07147983105304</v>
       </c>
       <c r="E75" t="n">
-        <v>6.25487841645637</v>
+        <v>6.25487827216076</v>
       </c>
       <c r="F75" t="n">
-        <v>7.66637156104444</v>
+        <v>7.66636208262902</v>
       </c>
     </row>
     <row r="76">
@@ -10194,16 +10194,16 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>1.4980493788853</v>
+        <v>1.49804987249831</v>
       </c>
       <c r="D76" t="n">
-        <v>2.18913113913141</v>
+        <v>2.1891114335568</v>
       </c>
       <c r="E76" t="n">
-        <v>2.1739366219064</v>
+        <v>2.17392445637349</v>
       </c>
       <c r="F76" t="n">
-        <v>2.46707262756158</v>
+        <v>2.46706951104379</v>
       </c>
     </row>
     <row r="77">
@@ -10214,16 +10214,16 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>7.81659722082681</v>
+        <v>7.81659352724932</v>
       </c>
       <c r="D77" t="n">
-        <v>3.38455866082477</v>
+        <v>3.38454986288062</v>
       </c>
       <c r="E77" t="n">
-        <v>8.37024751685334</v>
+        <v>8.37023030890677</v>
       </c>
       <c r="F77" t="n">
-        <v>9.59502068538656</v>
+        <v>9.59501905159843</v>
       </c>
     </row>
     <row r="78">
@@ -10234,16 +10234,16 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>6.72901329130779</v>
+        <v>6.7290185091135</v>
       </c>
       <c r="D78" t="n">
-        <v>3.27195751120832</v>
+        <v>3.27195134316653</v>
       </c>
       <c r="E78" t="n">
-        <v>9.11687684441709</v>
+        <v>9.11688544644748</v>
       </c>
       <c r="F78" t="n">
-        <v>9.79110952384583</v>
+        <v>9.79110491839096</v>
       </c>
     </row>
     <row r="79">
@@ -10254,16 +10254,16 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>1.45874075370097</v>
+        <v>1.45874872809317</v>
       </c>
       <c r="D79" t="n">
-        <v>2.74609882009167</v>
+        <v>2.74611733846424</v>
       </c>
       <c r="E79" t="n">
-        <v>2.23534628017613</v>
+        <v>2.23535528554594</v>
       </c>
       <c r="F79" t="n">
-        <v>2.36778849651194</v>
+        <v>2.36779031879969</v>
       </c>
     </row>
     <row r="80">
@@ -10274,16 +10274,16 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>1.87547727058758</v>
+        <v>1.87547120936424</v>
       </c>
       <c r="D80" t="n">
-        <v>1.28286496876713</v>
+        <v>1.28287146209061</v>
       </c>
       <c r="E80" t="n">
-        <v>4.27286424632639</v>
+        <v>4.27283833008784</v>
       </c>
       <c r="F80" t="n">
-        <v>4.09374870071799</v>
+        <v>4.09374665024683</v>
       </c>
     </row>
     <row r="81">
@@ -10294,16 +10294,16 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>7.25603608879308</v>
+        <v>7.25601847450431</v>
       </c>
       <c r="D81" t="n">
-        <v>4.30024252552632</v>
+        <v>4.3002207909497</v>
       </c>
       <c r="E81" t="n">
-        <v>9.5995990123996</v>
+        <v>9.59958405122159</v>
       </c>
       <c r="F81" t="n">
-        <v>10.6733910826413</v>
+        <v>10.6734313928035</v>
       </c>
     </row>
     <row r="82">
@@ -10314,16 +10314,16 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>2.7289348774475</v>
+        <v>2.72893757859057</v>
       </c>
       <c r="D82" t="n">
-        <v>3.85577314792405</v>
+        <v>3.85578215546341</v>
       </c>
       <c r="E82" t="n">
-        <v>4.90866348709674</v>
+        <v>4.90867924277192</v>
       </c>
       <c r="F82" t="n">
-        <v>3.55936518036595</v>
+        <v>3.55938305419318</v>
       </c>
     </row>
     <row r="83">
@@ -10334,16 +10334,16 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>2.98048940853884</v>
+        <v>2.98049247432227</v>
       </c>
       <c r="D83" t="n">
-        <v>7.01680410863631</v>
+        <v>7.01680831042541</v>
       </c>
       <c r="E83" t="n">
-        <v>4.64911960191087</v>
+        <v>4.64910045939559</v>
       </c>
       <c r="F83" t="n">
-        <v>4.9153561690667</v>
+        <v>4.91535047113218</v>
       </c>
     </row>
     <row r="84">
@@ -10354,16 +10354,16 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64393798725778</v>
+        <v>1.64393557349299</v>
       </c>
       <c r="D84" t="n">
-        <v>4.65138309965896</v>
+        <v>4.65135874177613</v>
       </c>
       <c r="E84" t="n">
-        <v>4.18682890989807</v>
+        <v>4.18685209967334</v>
       </c>
       <c r="F84" t="n">
-        <v>4.31134208474788</v>
+        <v>4.31135615759698</v>
       </c>
     </row>
     <row r="85">
@@ -10374,16 +10374,16 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>9.96354091056281</v>
+        <v>9.96354387541893</v>
       </c>
       <c r="D85" t="n">
-        <v>10.3950501376166</v>
+        <v>10.3950619838545</v>
       </c>
       <c r="E85" t="n">
-        <v>8.74956950610844</v>
+        <v>8.74958521552525</v>
       </c>
       <c r="F85" t="n">
-        <v>9.45614409356016</v>
+        <v>9.45616415702485</v>
       </c>
     </row>
     <row r="86">
@@ -10394,16 +10394,16 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>1.29826712551485</v>
+        <v>1.29826067822886</v>
       </c>
       <c r="D86" t="n">
-        <v>2.62329584259305</v>
+        <v>2.62331725315686</v>
       </c>
       <c r="E86" t="n">
-        <v>2.53244209406818</v>
+        <v>2.5324269187771</v>
       </c>
       <c r="F86" t="n">
-        <v>2.61384744883705</v>
+        <v>2.61385286865884</v>
       </c>
     </row>
     <row r="87">
@@ -10414,16 +10414,16 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>2.68667753566545</v>
+        <v>2.68668143265248</v>
       </c>
       <c r="D87" t="n">
-        <v>5.98983944601232</v>
+        <v>5.98984273793014</v>
       </c>
       <c r="E87" t="n">
-        <v>7.13060912186231</v>
+        <v>7.13061609557099</v>
       </c>
       <c r="F87" t="n">
-        <v>7.78646786344859</v>
+        <v>7.7864782571486</v>
       </c>
     </row>
     <row r="88">
@@ -10436,10 +10436,10 @@
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" t="n">
-        <v>2.62713404556815</v>
+        <v>2.62710653611025</v>
       </c>
       <c r="F88" t="n">
-        <v>4.05362237918319</v>
+        <v>4.05358076951178</v>
       </c>
     </row>
     <row r="89">
@@ -10450,16 +10450,16 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>1.29327882350643</v>
+        <v>1.29327465938808</v>
       </c>
       <c r="D89" t="n">
-        <v>4.1248881504684</v>
+        <v>4.12491206748337</v>
       </c>
       <c r="E89" t="n">
-        <v>3.16161923858429</v>
+        <v>3.16162567957561</v>
       </c>
       <c r="F89" t="n">
-        <v>3.32263770008159</v>
+        <v>3.32260590804598</v>
       </c>
     </row>
     <row r="90">
@@ -10470,16 +10470,16 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.697086015426977</v>
+        <v>0.697081087876467</v>
       </c>
       <c r="D90" t="n">
-        <v>0.669257758311093</v>
+        <v>0.669253144245011</v>
       </c>
       <c r="E90" t="n">
-        <v>1.87840813631441</v>
+        <v>1.87838186757512</v>
       </c>
       <c r="F90" t="n">
-        <v>1.92820919489408</v>
+        <v>1.9282106640028</v>
       </c>
     </row>
     <row r="91">
@@ -10490,16 +10490,16 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>0.924035207346424</v>
+        <v>0.924028338945623</v>
       </c>
       <c r="D91" t="n">
-        <v>2.44312086536742</v>
+        <v>2.44310999883942</v>
       </c>
       <c r="E91" t="n">
-        <v>2.39745788114423</v>
+        <v>2.39743270914178</v>
       </c>
       <c r="F91" t="n">
-        <v>1.84812635208848</v>
+        <v>1.84811902263002</v>
       </c>
     </row>
     <row r="92">
@@ -10510,16 +10510,16 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>1.20899830956961</v>
+        <v>1.20899511016608</v>
       </c>
       <c r="D92" t="n">
-        <v>5.59757594133287</v>
+        <v>5.59757530721382</v>
       </c>
       <c r="E92" t="n">
-        <v>5.59755543208131</v>
+        <v>5.59757530721382</v>
       </c>
       <c r="F92" t="n">
-        <v>5.87496224628548</v>
+        <v>5.87496429839594</v>
       </c>
     </row>
     <row r="93">
@@ -10530,16 +10530,16 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>1.08698030542497</v>
+        <v>1.08698209955653</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392275631002</v>
+        <v>3.72392367864222</v>
       </c>
       <c r="E93" t="n">
-        <v>3.50477979393786</v>
+        <v>3.5047664410061</v>
       </c>
       <c r="F93" t="n">
-        <v>3.632828330244</v>
+        <v>3.63283135448559</v>
       </c>
     </row>
     <row r="94">
@@ -10550,16 +10550,16 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>1.44756698939918</v>
+        <v>1.44758191074188</v>
       </c>
       <c r="D94" t="n">
-        <v>3.26895806465715</v>
+        <v>3.26896744204312</v>
       </c>
       <c r="E94" t="n">
-        <v>3.35579659203354</v>
+        <v>3.35581179635331</v>
       </c>
       <c r="F94" t="n">
-        <v>3.47001142636836</v>
+        <v>3.47003310454601</v>
       </c>
     </row>
     <row r="95">
@@ -10570,16 +10570,16 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09750948416232</v>
+        <v>1.09751015687993</v>
       </c>
       <c r="D95" t="n">
-        <v>5.72055542293549</v>
+        <v>5.72056961723275</v>
       </c>
       <c r="E95" t="n">
-        <v>4.99296948075287</v>
+        <v>4.99299026183473</v>
       </c>
       <c r="F95" t="n">
-        <v>4.98655663245962</v>
+        <v>4.98654369296448</v>
       </c>
     </row>
     <row r="96">
@@ -10590,16 +10590,16 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>0.643563639378603</v>
+        <v>0.643560464339031</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03031686769208</v>
+        <v>2.03031536730488</v>
       </c>
       <c r="E96" t="n">
-        <v>3.39861301898702</v>
+        <v>3.39859326786538</v>
       </c>
       <c r="F96" t="n">
-        <v>5.57685234098639</v>
+        <v>5.57687646186236</v>
       </c>
     </row>
     <row r="97">
@@ -10610,16 +10610,16 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>0.916222266412417</v>
+        <v>0.916230221275216</v>
       </c>
       <c r="D97" t="n">
-        <v>0.894705076298605</v>
+        <v>0.89471255628149</v>
       </c>
       <c r="E97" t="n">
-        <v>0.982918169290372</v>
+        <v>0.982883260164094</v>
       </c>
       <c r="F97" t="n">
-        <v>0.990051339906962</v>
+        <v>0.990125622655605</v>
       </c>
     </row>
     <row r="98">
@@ -10630,16 +10630,16 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>3.79645246960889</v>
+        <v>3.79645149070949</v>
       </c>
       <c r="D98" t="n">
-        <v>2.79798096960828</v>
+        <v>2.79798732515554</v>
       </c>
       <c r="E98" t="n">
-        <v>3.91117847794096</v>
+        <v>3.91117065785579</v>
       </c>
       <c r="F98" t="n">
-        <v>3.75008311448886</v>
+        <v>3.75009311841201</v>
       </c>
     </row>
     <row r="99">
@@ -10650,16 +10650,16 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>1.83030181844392</v>
+        <v>1.8303038832268</v>
       </c>
       <c r="D99" t="n">
-        <v>2.46912353918094</v>
+        <v>2.46911930384882</v>
       </c>
       <c r="E99" t="n">
-        <v>2.85903114637794</v>
+        <v>2.85904075775747</v>
       </c>
       <c r="F99" t="n">
-        <v>3.2270283291093</v>
+        <v>3.22706886084531</v>
       </c>
     </row>
     <row r="100">
@@ -10670,16 +10670,16 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>1.40396542943579</v>
+        <v>1.4039649565539</v>
       </c>
       <c r="D100" t="n">
-        <v>1.23274310429214</v>
+        <v>1.23274757912762</v>
       </c>
       <c r="E100" t="n">
-        <v>2.4730893992272</v>
+        <v>2.47308774565781</v>
       </c>
       <c r="F100" t="n">
-        <v>2.61054762398881</v>
+        <v>2.6105554884783</v>
       </c>
     </row>
     <row r="101">
@@ -10690,16 +10690,16 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>3.50069864463564</v>
+        <v>3.5006983291044</v>
       </c>
       <c r="D101" t="n">
-        <v>5.71436681563094</v>
+        <v>5.71435531469133</v>
       </c>
       <c r="E101" t="n">
-        <v>4.0307794260807</v>
+        <v>4.03077026540326</v>
       </c>
       <c r="F101" t="n">
-        <v>4.13280173519531</v>
+        <v>4.13281888231894</v>
       </c>
     </row>
     <row r="102">
@@ -10710,16 +10710,16 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>0.800284845201564</v>
+        <v>0.800269110336781</v>
       </c>
       <c r="D102" t="n">
-        <v>2.93603821605808</v>
+        <v>2.9360713119936</v>
       </c>
       <c r="E102" t="n">
-        <v>2.40984249305371</v>
+        <v>2.40977535465554</v>
       </c>
       <c r="F102" t="n">
-        <v>2.55645818584202</v>
+        <v>2.55643730447459</v>
       </c>
     </row>
     <row r="103">
@@ -10730,16 +10730,16 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>2.64051341746314</v>
+        <v>2.64051776762427</v>
       </c>
       <c r="D103" t="n">
-        <v>14.4181227705788</v>
+        <v>14.4180086073137</v>
       </c>
       <c r="E103" t="n">
-        <v>3.54172005771188</v>
+        <v>3.54172275359374</v>
       </c>
       <c r="F103" t="n">
-        <v>3.37788762107826</v>
+        <v>3.37787901650078</v>
       </c>
     </row>
     <row r="104">
@@ -10750,16 +10750,16 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>2.10259801385409</v>
+        <v>2.10260323653912</v>
       </c>
       <c r="D104" t="n">
-        <v>4.64274508793306</v>
+        <v>4.64274129193077</v>
       </c>
       <c r="E104" t="n">
-        <v>3.70037061396363</v>
+        <v>3.70032771817466</v>
       </c>
       <c r="F104" t="n">
-        <v>3.77614501441534</v>
+        <v>3.77615265600204</v>
       </c>
     </row>
     <row r="105">
@@ -10770,16 +10770,16 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>1.57969480661841</v>
+        <v>1.57969870353553</v>
       </c>
       <c r="D105" t="n">
-        <v>2.44623781089894</v>
+        <v>2.44622965880324</v>
       </c>
       <c r="E105" t="n">
-        <v>2.14107656404696</v>
+        <v>2.14109823798706</v>
       </c>
       <c r="F105" t="n">
-        <v>2.1472505616736</v>
+        <v>2.14728269152586</v>
       </c>
     </row>
     <row r="106">
@@ -10790,16 +10790,16 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>1.50963084148063</v>
+        <v>1.50963967547024</v>
       </c>
       <c r="D106" t="n">
-        <v>2.00636647318116</v>
+        <v>2.0063721847498</v>
       </c>
       <c r="E106" t="n">
-        <v>3.80762320947391</v>
+        <v>3.80763729074887</v>
       </c>
       <c r="F106" t="n">
-        <v>3.79370541147813</v>
+        <v>3.79372320192342</v>
       </c>
     </row>
     <row r="107">
@@ -10810,16 +10810,16 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>2.37152459399476</v>
+        <v>2.37152964949676</v>
       </c>
       <c r="D107" t="n">
-        <v>4.19230766897408</v>
+        <v>4.1923432759618</v>
       </c>
       <c r="E107" t="n">
-        <v>2.61124408285335</v>
+        <v>2.6112534577382</v>
       </c>
       <c r="F107" t="n">
-        <v>2.97524680697036</v>
+        <v>2.97523529524625</v>
       </c>
     </row>
     <row r="108">
@@ -10830,16 +10830,16 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0343019171596</v>
+        <v>1.03430064146033</v>
       </c>
       <c r="D108" t="n">
-        <v>1.2154528089862</v>
+        <v>1.21545796628587</v>
       </c>
       <c r="E108" t="n">
-        <v>2.40980327931525</v>
+        <v>2.40980334771376</v>
       </c>
       <c r="F108" t="n">
-        <v>2.07122138214326</v>
+        <v>2.07123083939738</v>
       </c>
     </row>
     <row r="109">
@@ -10850,16 +10850,16 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>2.35815482546733</v>
+        <v>2.35815824922168</v>
       </c>
       <c r="D109" t="n">
-        <v>4.72306507912688</v>
+        <v>4.7230689386606</v>
       </c>
       <c r="E109" t="n">
-        <v>6.04081604300908</v>
+        <v>6.04081303700048</v>
       </c>
       <c r="F109" t="n">
-        <v>6.80982528893863</v>
+        <v>6.80982220540215</v>
       </c>
     </row>
     <row r="110">
@@ -10870,16 +10870,16 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>12.1755785234644</v>
+        <v>12.1755745751231</v>
       </c>
       <c r="D110" t="n">
-        <v>15.5405255858804</v>
+        <v>15.5405132568804</v>
       </c>
       <c r="E110" t="n">
-        <v>16.6159978226301</v>
+        <v>16.6159991033387</v>
       </c>
       <c r="F110" t="n">
-        <v>17.2222874160051</v>
+        <v>17.2222915674363</v>
       </c>
     </row>
     <row r="111">
@@ -10890,16 +10890,16 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>0.400369965387046</v>
+        <v>0.400370414329098</v>
       </c>
       <c r="D111" t="n">
-        <v>1.61606190409687</v>
+        <v>1.61606856129436</v>
       </c>
       <c r="E111" t="n">
-        <v>1.59405964388374</v>
+        <v>1.59404714101017</v>
       </c>
       <c r="F111" t="n">
-        <v>1.65100138346854</v>
+        <v>1.65101867753955</v>
       </c>
     </row>
     <row r="112">
@@ -10910,16 +10910,16 @@
         <v>227</v>
       </c>
       <c r="C112" t="n">
-        <v>1.47084895398617</v>
+        <v>1.47084318735043</v>
       </c>
       <c r="D112" t="n">
-        <v>1.5654098558706</v>
+        <v>1.56540170882569</v>
       </c>
       <c r="E112" t="n">
-        <v>4.24994451209268</v>
+        <v>4.24995127853766</v>
       </c>
       <c r="F112" t="n">
-        <v>4.73255153804779</v>
+        <v>4.73256551473885</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -721,7 +721,7 @@
     <t>Units of measure: percent</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -1210,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>1.23520522151401</v>
+        <v>1.2352052215</v>
       </c>
     </row>
     <row r="3">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2.50229695382235</v>
+        <v>2.5022969538</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>2.05799818762834</v>
+        <v>2.0579981876</v>
       </c>
     </row>
     <row r="5">
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2.34788572255323</v>
+        <v>2.3478857226</v>
       </c>
     </row>
     <row r="6">
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>1.19393412426776</v>
+        <v>1.1939341243</v>
       </c>
     </row>
     <row r="7">
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4112176836144</v>
+        <v>1.4112176836</v>
       </c>
     </row>
     <row r="8">
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>1.5806233448202</v>
+        <v>1.5806233448</v>
       </c>
     </row>
     <row r="9">
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1.67378768800091</v>
+        <v>1.673787688</v>
       </c>
     </row>
     <row r="10">
@@ -1346,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>1.13735409230288</v>
+        <v>1.1373540923</v>
       </c>
     </row>
     <row r="11">
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>2.2393838445227</v>
+        <v>2.2393838445</v>
       </c>
     </row>
     <row r="12">
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>1.99088546390738</v>
+        <v>1.9908854639</v>
       </c>
     </row>
     <row r="13">
@@ -1397,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.49272798787136</v>
+        <v>1.4927279879</v>
       </c>
     </row>
     <row r="14">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>2.07773148356783</v>
+        <v>2.0777314836</v>
       </c>
     </row>
     <row r="15">
@@ -1431,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>4.8154788087238</v>
+        <v>4.8154788087</v>
       </c>
     </row>
     <row r="16">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>2.99445662099563</v>
+        <v>2.994456621</v>
       </c>
     </row>
     <row r="17">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>3.70673082347425</v>
+        <v>3.7067308235</v>
       </c>
     </row>
     <row r="18">
@@ -1482,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.998636371812413</v>
+        <v>0.9986363718</v>
       </c>
     </row>
     <row r="19">
@@ -1499,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>2.65202737092728</v>
+        <v>2.6520273709</v>
       </c>
     </row>
     <row r="20">
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>2.76301965264553</v>
+        <v>2.7630196526</v>
       </c>
     </row>
     <row r="21">
@@ -1533,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8226573274246</v>
+        <v>2.8226573274</v>
       </c>
     </row>
     <row r="22">
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.306228092876365</v>
+        <v>0.3062280929</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>2.48550176945518</v>
+        <v>2.4855017695</v>
       </c>
     </row>
     <row r="24">
@@ -1584,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>1.66554647431633</v>
+        <v>1.6655464743</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>1.85760388958103</v>
+        <v>1.8576038896</v>
       </c>
     </row>
     <row r="26">
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.987707239084757</v>
+        <v>0.9877072391</v>
       </c>
     </row>
     <row r="27">
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>2.50410833410508</v>
+        <v>2.5041083341</v>
       </c>
     </row>
     <row r="28">
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>2.70257467847858</v>
+        <v>2.7025746785</v>
       </c>
     </row>
     <row r="29">
@@ -1669,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>2.84932657120515</v>
+        <v>2.8493265712</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>1.41922261572269</v>
+        <v>1.4192226157</v>
       </c>
     </row>
     <row r="31">
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>2.73824656709592</v>
+        <v>2.7382465671</v>
       </c>
     </row>
     <row r="32">
@@ -1720,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>2.13127732002008</v>
+        <v>2.13127732</v>
       </c>
     </row>
     <row r="33">
@@ -1737,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>2.48423504497327</v>
+        <v>2.484235045</v>
       </c>
     </row>
     <row r="34">
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>0.750350476201593</v>
+        <v>0.7503504762</v>
       </c>
     </row>
     <row r="35">
@@ -1771,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>1.24988820040719</v>
+        <v>1.2498882004</v>
       </c>
     </row>
     <row r="36">
@@ -1788,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>1.24668027987538</v>
+        <v>1.2466802799</v>
       </c>
     </row>
     <row r="37">
@@ -1805,7 +1805,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>1.31830127517936</v>
+        <v>1.3183012752</v>
       </c>
     </row>
     <row r="38">
@@ -1822,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>2.82847758831485</v>
+        <v>2.8284775883</v>
       </c>
     </row>
     <row r="39">
@@ -1839,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>3.86638916660163</v>
+        <v>3.8663891666</v>
       </c>
     </row>
     <row r="40">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>4.02523389618896</v>
+        <v>4.0252338962</v>
       </c>
     </row>
     <row r="41">
@@ -1873,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>4.130716813547</v>
+        <v>4.1307168135</v>
       </c>
     </row>
     <row r="42">
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>1.8661763297873</v>
+        <v>1.8661763298</v>
       </c>
     </row>
     <row r="43">
@@ -1907,7 +1907,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>2.95739191619107</v>
+        <v>2.9573919162</v>
       </c>
     </row>
     <row r="44">
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.66513172301437</v>
+        <v>1.665131723</v>
       </c>
     </row>
     <row r="45">
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>1.73879502490809</v>
+        <v>1.7387950249</v>
       </c>
     </row>
     <row r="46">
@@ -1958,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>1.40493190239974</v>
+        <v>1.4049319024</v>
       </c>
     </row>
     <row r="47">
@@ -1975,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>2.05398916201409</v>
+        <v>2.053989162</v>
       </c>
     </row>
     <row r="48">
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>2.01912155551953</v>
+        <v>2.0191215555</v>
       </c>
     </row>
     <row r="49">
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>2.14089436498047</v>
+        <v>2.140894365</v>
       </c>
     </row>
     <row r="50">
@@ -2026,7 +2026,7 @@
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>2.2804301747882</v>
+        <v>2.2804301748</v>
       </c>
     </row>
     <row r="51">
@@ -2043,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>2.0153547673843</v>
+        <v>2.0153547674</v>
       </c>
     </row>
     <row r="52">
@@ -2060,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>1.92799450493921</v>
+        <v>1.9279945049</v>
       </c>
     </row>
     <row r="53">
@@ -2077,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>1.92799450493921</v>
+        <v>1.9279945049</v>
       </c>
     </row>
     <row r="54">
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>0.854197729391157</v>
+        <v>0.8541977294</v>
       </c>
     </row>
     <row r="55">
@@ -2111,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>1.74073779184454</v>
+        <v>1.7407377918</v>
       </c>
     </row>
     <row r="56">
@@ -2128,7 +2128,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>2.17532956812214</v>
+        <v>2.1753295681</v>
       </c>
     </row>
     <row r="57">
@@ -2145,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>2.31273904192639</v>
+        <v>2.3127390419</v>
       </c>
     </row>
     <row r="58">
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>3.04352143990596</v>
+        <v>3.0435214399</v>
       </c>
     </row>
     <row r="59">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>15.5160175507939</v>
+        <v>15.5160175508</v>
       </c>
     </row>
     <row r="60">
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>14.783484673616</v>
+        <v>14.7834846736</v>
       </c>
     </row>
     <row r="61">
@@ -2213,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>15.0882574834054</v>
+        <v>15.0882574834</v>
       </c>
     </row>
     <row r="62">
@@ -2230,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>1.35905378423995</v>
+        <v>1.3590537842</v>
       </c>
     </row>
     <row r="63">
@@ -2247,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>4.67181063198098</v>
+        <v>4.671810632</v>
       </c>
     </row>
     <row r="64">
@@ -2264,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>4.48022929448089</v>
+        <v>4.4802292945</v>
       </c>
     </row>
     <row r="65">
@@ -2281,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>3.51751896150463</v>
+        <v>3.5175189615</v>
       </c>
     </row>
     <row r="66">
@@ -2298,7 +2298,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>0.842221576243996</v>
+        <v>0.8422215762</v>
       </c>
     </row>
     <row r="67">
@@ -2315,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>1.27637191658556</v>
+        <v>1.2763719166</v>
       </c>
     </row>
     <row r="68">
@@ -2332,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>0.892807355223368</v>
+        <v>0.8928073552</v>
       </c>
     </row>
     <row r="69">
@@ -2349,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>1.03453290890504</v>
+        <v>1.0345329089</v>
       </c>
     </row>
     <row r="70">
@@ -2366,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>0.559023786203937</v>
+        <v>0.5590237862</v>
       </c>
     </row>
     <row r="71">
@@ -2383,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>1.84236051307619</v>
+        <v>1.8423605131</v>
       </c>
     </row>
     <row r="72">
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>1.47476585475212</v>
+        <v>1.4747658548</v>
       </c>
     </row>
     <row r="73">
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>1.07657700157415</v>
+        <v>1.0765770016</v>
       </c>
     </row>
     <row r="74">
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>1.10171320339071</v>
+        <v>1.1017132034</v>
       </c>
     </row>
     <row r="75">
@@ -2451,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>1.66331937058669</v>
+        <v>1.6633193706</v>
       </c>
     </row>
     <row r="76">
@@ -2468,7 +2468,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>1.06111388008496</v>
+        <v>1.0611138801</v>
       </c>
     </row>
     <row r="77">
@@ -2485,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>1.43255727669939</v>
+        <v>1.4325572767</v>
       </c>
     </row>
     <row r="78">
@@ -2502,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>2.97237372697621</v>
+        <v>2.972373727</v>
       </c>
     </row>
     <row r="79">
@@ -2519,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>4.30196632367885</v>
+        <v>4.3019663237</v>
       </c>
     </row>
     <row r="80">
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>3.76255371463547</v>
+        <v>3.7625537146</v>
       </c>
     </row>
     <row r="81">
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>4.88421180097899</v>
+        <v>4.884211801</v>
       </c>
     </row>
     <row r="82">
@@ -2570,7 +2570,7 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>0.883312292900098</v>
+        <v>0.8833122929</v>
       </c>
     </row>
     <row r="83">
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>2.98355721958295</v>
+        <v>2.9835572196</v>
       </c>
     </row>
     <row r="84">
@@ -2604,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>0.795269755485696</v>
+        <v>0.7952697555</v>
       </c>
     </row>
     <row r="85">
@@ -2621,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>0.876092317852442</v>
+        <v>0.8760923179</v>
       </c>
     </row>
     <row r="86">
@@ -2638,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>3.30300155982826</v>
+        <v>3.3030015598</v>
       </c>
     </row>
     <row r="87">
@@ -2655,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>5.60062359710557</v>
+        <v>5.6006235971</v>
       </c>
     </row>
     <row r="88">
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>4.65146756558836</v>
+        <v>4.6514675656</v>
       </c>
     </row>
     <row r="89">
@@ -2689,7 +2689,7 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>4.79368314486366</v>
+        <v>4.7936831449</v>
       </c>
     </row>
     <row r="90">
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>4.01628694657159</v>
+        <v>4.0162869466</v>
       </c>
     </row>
     <row r="91">
@@ -2723,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>4.97383825123719</v>
+        <v>4.9738382512</v>
       </c>
     </row>
     <row r="92">
@@ -2740,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>5.55611869024556</v>
+        <v>5.5561186902</v>
       </c>
     </row>
     <row r="93">
@@ -2757,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>6.77885582195648</v>
+        <v>6.778855822</v>
       </c>
     </row>
     <row r="94">
@@ -2774,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>1.47219290901349</v>
+        <v>1.472192909</v>
       </c>
     </row>
     <row r="95">
@@ -2791,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>2.25468892291113</v>
+        <v>2.2546889229</v>
       </c>
     </row>
     <row r="96">
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>1.78668758647188</v>
+        <v>1.7866875865</v>
       </c>
     </row>
     <row r="97">
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>1.79454391848008</v>
+        <v>1.7945439185</v>
       </c>
     </row>
     <row r="98">
@@ -2842,7 +2842,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>0.752870769660412</v>
+        <v>0.7528707697</v>
       </c>
     </row>
     <row r="99">
@@ -2859,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>0.906352977226927</v>
+        <v>0.9063529772</v>
       </c>
     </row>
     <row r="100">
@@ -2876,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>1.06995526942153</v>
+        <v>1.0699552694</v>
       </c>
     </row>
     <row r="101">
@@ -2893,7 +2893,7 @@
         <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>1.11002737275953</v>
+        <v>1.1100273728</v>
       </c>
     </row>
     <row r="102">
@@ -2910,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>1.94285864979482</v>
+        <v>1.9428586498</v>
       </c>
     </row>
     <row r="103">
@@ -2927,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>4.15545678491754</v>
+        <v>4.1554567849</v>
       </c>
     </row>
     <row r="104">
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>4.54144626375261</v>
+        <v>4.5414462638</v>
       </c>
     </row>
     <row r="105">
@@ -2961,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>4.32054326362583</v>
+        <v>4.3205432636</v>
       </c>
     </row>
     <row r="106">
@@ -2978,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>0.400493282924849</v>
+        <v>0.4004932829</v>
       </c>
     </row>
     <row r="107">
@@ -2995,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>1.04241358370963</v>
+        <v>1.0424135837</v>
       </c>
     </row>
     <row r="108">
@@ -3012,7 +3012,7 @@
         <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>1.98008109225057</v>
+        <v>1.9800810923</v>
       </c>
     </row>
     <row r="109">
@@ -3029,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>1.98008109225057</v>
+        <v>1.9800810923</v>
       </c>
     </row>
     <row r="110">
@@ -3046,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0.665255427746133</v>
+        <v>0.6652554277</v>
       </c>
     </row>
     <row r="111">
@@ -3063,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>0.68487238452605</v>
+        <v>0.6848723845</v>
       </c>
     </row>
     <row r="112">
@@ -3080,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>0.656786895232684</v>
+        <v>0.6567868952</v>
       </c>
     </row>
     <row r="113">
@@ -3097,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>0.678701506404972</v>
+        <v>0.6787015064</v>
       </c>
     </row>
     <row r="114">
@@ -3114,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>1.73299626207766</v>
+        <v>1.7329962621</v>
       </c>
     </row>
     <row r="115">
@@ -3131,7 +3131,7 @@
         <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>2.38663429422671</v>
+        <v>2.3866342942</v>
       </c>
     </row>
     <row r="116">
@@ -3148,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>3.8558373510897</v>
+        <v>3.8558373511</v>
       </c>
     </row>
     <row r="117">
@@ -3165,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>3.72965508161141</v>
+        <v>3.7296550816</v>
       </c>
     </row>
     <row r="118">
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>2.13601069314493</v>
+        <v>2.1360106931</v>
       </c>
     </row>
     <row r="119">
@@ -3199,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="E119" t="n">
-        <v>5.87718877803048</v>
+        <v>5.877188778</v>
       </c>
     </row>
     <row r="120">
@@ -3216,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>9.02162892752985</v>
+        <v>9.0216289275</v>
       </c>
     </row>
     <row r="121">
@@ -3233,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>6.74239630288476</v>
+        <v>6.7423963029</v>
       </c>
     </row>
     <row r="122">
@@ -3250,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>4.94216634488887</v>
+        <v>4.9421663449</v>
       </c>
     </row>
     <row r="123">
@@ -3267,7 +3267,7 @@
         <v>7</v>
       </c>
       <c r="E123" t="n">
-        <v>8.09689209804396</v>
+        <v>8.096892098</v>
       </c>
     </row>
     <row r="124">
@@ -3284,7 +3284,7 @@
         <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>8.4554568651784</v>
+        <v>8.4554568652</v>
       </c>
     </row>
     <row r="125">
@@ -3301,7 +3301,7 @@
         <v>7</v>
       </c>
       <c r="E125" t="n">
-        <v>1.17945626862311</v>
+        <v>1.1794562686</v>
       </c>
     </row>
     <row r="126">
@@ -3318,7 +3318,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>5.17370366056003</v>
+        <v>5.1737036606</v>
       </c>
     </row>
     <row r="127">
@@ -3335,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>4.3664883918015</v>
+        <v>4.3664883918</v>
       </c>
     </row>
     <row r="128">
@@ -3352,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>4.51195121642948</v>
+        <v>4.5119512164</v>
       </c>
     </row>
     <row r="129">
@@ -3369,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>1.4687406857825</v>
+        <v>1.4687406858</v>
       </c>
     </row>
     <row r="130">
@@ -3386,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>0.753633665023405</v>
+        <v>0.753633665</v>
       </c>
     </row>
     <row r="131">
@@ -3403,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="E131" t="n">
-        <v>2.24972793732116</v>
+        <v>2.2497279373</v>
       </c>
     </row>
     <row r="132">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="E132" t="n">
-        <v>2.46274598680459</v>
+        <v>2.4627459868</v>
       </c>
     </row>
     <row r="133">
@@ -3437,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="E133" t="n">
-        <v>2.59980183841057</v>
+        <v>2.5998018384</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="E134" t="n">
-        <v>5.63174954725349</v>
+        <v>5.6317495473</v>
       </c>
     </row>
     <row r="135">
@@ -3471,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>3.73708156136489</v>
+        <v>3.7370815614</v>
       </c>
     </row>
     <row r="136">
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>3.88984053969013</v>
+        <v>3.8898405397</v>
       </c>
     </row>
     <row r="137">
@@ -3505,7 +3505,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>19.9378987825684</v>
+        <v>19.9378987826</v>
       </c>
     </row>
     <row r="138">
@@ -3522,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>18.2070840449274</v>
+        <v>18.2070840449</v>
       </c>
     </row>
     <row r="139">
@@ -3539,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="n">
-        <v>18.3831762678329</v>
+        <v>18.3831762678</v>
       </c>
     </row>
     <row r="140">
@@ -3556,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>16.4235503142916</v>
+        <v>16.4235503143</v>
       </c>
     </row>
     <row r="141">
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>0.841136566016352</v>
+        <v>0.841136566</v>
       </c>
     </row>
     <row r="142">
@@ -3590,7 +3590,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>1.52367624372211</v>
+        <v>1.5236762437</v>
       </c>
     </row>
     <row r="143">
@@ -3607,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="E143" t="n">
-        <v>1.55795930138447</v>
+        <v>1.5579593014</v>
       </c>
     </row>
     <row r="144">
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>1.52037398291059</v>
+        <v>1.5203739829</v>
       </c>
     </row>
     <row r="145">
@@ -3641,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4.9797743409648</v>
+        <v>4.979774341</v>
       </c>
     </row>
     <row r="146">
@@ -3658,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="E146" t="n">
-        <v>3.85716429325876</v>
+        <v>3.8571642933</v>
       </c>
     </row>
     <row r="147">
@@ -3675,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="E147" t="n">
-        <v>6.55507310181237</v>
+        <v>6.5550731018</v>
       </c>
     </row>
     <row r="148">
@@ -3692,7 +3692,7 @@
         <v>7</v>
       </c>
       <c r="E148" t="n">
-        <v>7.57696373705108</v>
+        <v>7.5769637371</v>
       </c>
     </row>
     <row r="149">
@@ -3709,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>4.23114011722558</v>
+        <v>4.2311401172</v>
       </c>
     </row>
     <row r="150">
@@ -3726,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>7.8101631791759</v>
+        <v>7.8101631792</v>
       </c>
     </row>
     <row r="151">
@@ -3743,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="n">
-        <v>8.23471582162962</v>
+        <v>8.2347158216</v>
       </c>
     </row>
     <row r="152">
@@ -3760,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="E152" t="n">
-        <v>7.89947880042083</v>
+        <v>7.8994788004</v>
       </c>
     </row>
     <row r="153">
@@ -3777,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="E153" t="n">
-        <v>1.23660579970196</v>
+        <v>1.2366057997</v>
       </c>
     </row>
     <row r="154">
@@ -3794,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="E154" t="n">
-        <v>2.75294214001274</v>
+        <v>2.75294214</v>
       </c>
     </row>
     <row r="155">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>2.63797852588771</v>
+        <v>2.6379785259</v>
       </c>
     </row>
     <row r="156">
@@ -3828,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="n">
-        <v>2.75053102972414</v>
+        <v>2.7505310297</v>
       </c>
     </row>
     <row r="157">
@@ -3845,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>3.57653225784671</v>
+        <v>3.5765322578</v>
       </c>
     </row>
     <row r="158">
@@ -3862,7 +3862,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>3.74075767762387</v>
+        <v>3.7407576776</v>
       </c>
     </row>
     <row r="159">
@@ -3879,7 +3879,7 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>4.40916324272846</v>
+        <v>4.4091632427</v>
       </c>
     </row>
     <row r="160">
@@ -3896,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>4.22943418931836</v>
+        <v>4.2294341893</v>
       </c>
     </row>
     <row r="161">
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E161" t="n">
-        <v>2.52778757199674</v>
+        <v>2.527787572</v>
       </c>
     </row>
     <row r="162">
@@ -3930,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>2.17918955104015</v>
+        <v>2.179189551</v>
       </c>
     </row>
     <row r="163">
@@ -3947,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="n">
-        <v>1.66201192193614</v>
+        <v>1.6620119219</v>
       </c>
     </row>
     <row r="164">
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="E164" t="n">
-        <v>1.64948132554547</v>
+        <v>1.6494813255</v>
       </c>
     </row>
     <row r="165">
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="n">
-        <v>1.01587313747149</v>
+        <v>1.0158731375</v>
       </c>
     </row>
     <row r="166">
@@ -3998,7 +3998,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="n">
-        <v>1.4322796287736</v>
+        <v>1.4322796288</v>
       </c>
     </row>
     <row r="167">
@@ -4015,7 +4015,7 @@
         <v>7</v>
       </c>
       <c r="E167" t="n">
-        <v>3.11096256105014</v>
+        <v>3.1109625611</v>
       </c>
     </row>
     <row r="168">
@@ -4032,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="E168" t="n">
-        <v>3.52543570679362</v>
+        <v>3.5254357068</v>
       </c>
     </row>
     <row r="169">
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>1.12523483126568</v>
+        <v>1.1252348313</v>
       </c>
     </row>
     <row r="170">
@@ -4066,7 +4066,7 @@
         <v>7</v>
       </c>
       <c r="E170" t="n">
-        <v>1.10901165398839</v>
+        <v>1.109011654</v>
       </c>
     </row>
     <row r="171">
@@ -4083,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>3.43153319667647</v>
+        <v>3.4315331967</v>
       </c>
     </row>
     <row r="172">
@@ -4100,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="E172" t="n">
-        <v>3.51737676801882</v>
+        <v>3.517376768</v>
       </c>
     </row>
     <row r="173">
@@ -4117,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="E173" t="n">
-        <v>2.52302899106254</v>
+        <v>2.5230289911</v>
       </c>
     </row>
     <row r="174">
@@ -4134,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="E174" t="n">
-        <v>2.31672327353265</v>
+        <v>2.3167232735</v>
       </c>
     </row>
     <row r="175">
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>2.69141453908348</v>
+        <v>2.6914145391</v>
       </c>
     </row>
     <row r="176">
@@ -4168,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>3.76319619490032</v>
+        <v>3.7631961949</v>
       </c>
     </row>
     <row r="177">
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>3.5618048928175</v>
+        <v>3.5618048928</v>
       </c>
     </row>
     <row r="178">
@@ -4202,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="E178" t="n">
-        <v>3.38539847578133</v>
+        <v>3.3853984758</v>
       </c>
     </row>
     <row r="179">
@@ -4219,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>2.76238988311454</v>
+        <v>2.7623898831</v>
       </c>
     </row>
     <row r="180">
@@ -4236,7 +4236,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>3.19766920127068</v>
+        <v>3.1976692013</v>
       </c>
     </row>
     <row r="181">
@@ -4253,7 +4253,7 @@
         <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>2.29806886070733</v>
+        <v>2.2980688607</v>
       </c>
     </row>
     <row r="182">
@@ -4270,7 +4270,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>1.72988389352117</v>
+        <v>1.7298838935</v>
       </c>
     </row>
     <row r="183">
@@ -4287,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="n">
-        <v>1.60804946512096</v>
+        <v>1.6080494651</v>
       </c>
     </row>
     <row r="184">
@@ -4304,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>2.61563435062145</v>
+        <v>2.6156343506</v>
       </c>
     </row>
     <row r="185">
@@ -4321,7 +4321,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>8.26135827921442</v>
+        <v>8.2613582792</v>
       </c>
     </row>
     <row r="186">
@@ -4338,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="E186" t="n">
-        <v>8.08378554514719</v>
+        <v>8.0837855451</v>
       </c>
     </row>
     <row r="187">
@@ -4355,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>7.35770652743574</v>
+        <v>7.3577065274</v>
       </c>
     </row>
     <row r="188">
@@ -4372,7 +4372,7 @@
         <v>7</v>
       </c>
       <c r="E188" t="n">
-        <v>3.71954949976892</v>
+        <v>3.7195494998</v>
       </c>
     </row>
     <row r="189">
@@ -4389,7 +4389,7 @@
         <v>7</v>
       </c>
       <c r="E189" t="n">
-        <v>3.78901606870482</v>
+        <v>3.7890160687</v>
       </c>
     </row>
     <row r="190">
@@ -4406,7 +4406,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>3.49326121712175</v>
+        <v>3.4932612171</v>
       </c>
     </row>
     <row r="191">
@@ -4423,7 +4423,7 @@
         <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>4.98018107081247</v>
+        <v>4.9801810708</v>
       </c>
     </row>
     <row r="192">
@@ -4440,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>3.97633833251124</v>
+        <v>3.9763383325</v>
       </c>
     </row>
     <row r="193">
@@ -4457,7 +4457,7 @@
         <v>7</v>
       </c>
       <c r="E193" t="n">
-        <v>3.20824605777204</v>
+        <v>3.2082460578</v>
       </c>
     </row>
     <row r="194">
@@ -4474,7 +4474,7 @@
         <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>2.80139621052229</v>
+        <v>2.8013962105</v>
       </c>
     </row>
     <row r="195">
@@ -4491,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>2.8577377235137</v>
+        <v>2.8577377235</v>
       </c>
     </row>
     <row r="196">
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>2.02749541563962</v>
+        <v>2.0274954156</v>
       </c>
     </row>
     <row r="197">
@@ -4525,7 +4525,7 @@
         <v>7</v>
       </c>
       <c r="E197" t="n">
-        <v>4.6552024663231</v>
+        <v>4.6552024663</v>
       </c>
     </row>
     <row r="198">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="E198" t="n">
-        <v>4.05552911989711</v>
+        <v>4.0555291199</v>
       </c>
     </row>
     <row r="199">
@@ -4559,7 +4559,7 @@
         <v>7</v>
       </c>
       <c r="E199" t="n">
-        <v>4.22112287862409</v>
+        <v>4.2211228786</v>
       </c>
     </row>
     <row r="200">
@@ -4576,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>7.41282643416469</v>
+        <v>7.4128264342</v>
       </c>
     </row>
     <row r="201">
@@ -4593,7 +4593,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="n">
-        <v>6.7099863038134</v>
+        <v>6.7099863038</v>
       </c>
     </row>
     <row r="202">
@@ -4610,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="E202" t="n">
-        <v>5.74620862403684</v>
+        <v>5.746208624</v>
       </c>
     </row>
     <row r="203">
@@ -4627,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>6.20083513279232</v>
+        <v>6.2008351328</v>
       </c>
     </row>
     <row r="204">
@@ -4644,7 +4644,7 @@
         <v>7</v>
       </c>
       <c r="E204" t="n">
-        <v>0.699480693396352</v>
+        <v>0.6994806934</v>
       </c>
     </row>
     <row r="205">
@@ -4661,7 +4661,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>1.00507112603409</v>
+        <v>1.005071126</v>
       </c>
     </row>
     <row r="206">
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>0.858611292053306</v>
+        <v>0.8586112921</v>
       </c>
     </row>
     <row r="207">
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="E207" t="n">
-        <v>0.876832771442001</v>
+        <v>0.8768327714</v>
       </c>
     </row>
     <row r="208">
@@ -4712,7 +4712,7 @@
         <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>7.05578556266699</v>
+        <v>7.0557855627</v>
       </c>
     </row>
     <row r="209">
@@ -4729,7 +4729,7 @@
         <v>7</v>
       </c>
       <c r="E209" t="n">
-        <v>7.05508616104547</v>
+        <v>7.055086161</v>
       </c>
     </row>
     <row r="210">
@@ -4746,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="n">
-        <v>6.27901832179725</v>
+        <v>6.2790183218</v>
       </c>
     </row>
     <row r="211">
@@ -4763,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="E211" t="n">
-        <v>4.95356494359345</v>
+        <v>4.9535649436</v>
       </c>
     </row>
     <row r="212">
@@ -4780,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>0.742421785344411</v>
+        <v>0.7424217853</v>
       </c>
     </row>
     <row r="213">
@@ -4797,7 +4797,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>6.93412196259664</v>
+        <v>6.9341219626</v>
       </c>
     </row>
     <row r="214">
@@ -4814,7 +4814,7 @@
         <v>7</v>
       </c>
       <c r="E214" t="n">
-        <v>6.02803224769508</v>
+        <v>6.0280322477</v>
       </c>
     </row>
     <row r="215">
@@ -4831,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="E215" t="n">
-        <v>5.95396484908465</v>
+        <v>5.9539648491</v>
       </c>
     </row>
     <row r="216">
@@ -4848,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="E216" t="n">
-        <v>1.55891392593409</v>
+        <v>1.5589139259</v>
       </c>
     </row>
     <row r="217">
@@ -4865,7 +4865,7 @@
         <v>7</v>
       </c>
       <c r="E217" t="n">
-        <v>2.19979340907254</v>
+        <v>2.1997934091</v>
       </c>
     </row>
     <row r="218">
@@ -4882,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="n">
-        <v>3.55293109387484</v>
+        <v>3.5529310939</v>
       </c>
     </row>
     <row r="219">
@@ -4899,7 +4899,7 @@
         <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>3.71846899022817</v>
+        <v>3.7184689902</v>
       </c>
     </row>
     <row r="220">
@@ -4916,7 +4916,7 @@
         <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>1.98112140123323</v>
+        <v>1.9811214012</v>
       </c>
     </row>
     <row r="221">
@@ -4933,7 +4933,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>4.37119562487305</v>
+        <v>4.3711956249</v>
       </c>
     </row>
     <row r="222">
@@ -4950,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>4.4836952643275</v>
+        <v>4.4836952643</v>
       </c>
     </row>
     <row r="223">
@@ -4967,7 +4967,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4.67596575653247</v>
+        <v>4.6759657565</v>
       </c>
     </row>
     <row r="224">
@@ -4984,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="n">
-        <v>1.07457368973821</v>
+        <v>1.0745736897</v>
       </c>
     </row>
     <row r="225">
@@ -5001,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="E225" t="n">
-        <v>7.69863071357823</v>
+        <v>7.6986307136</v>
       </c>
     </row>
     <row r="226">
@@ -5018,7 +5018,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="n">
-        <v>6.13398284037743</v>
+        <v>6.1339828404</v>
       </c>
     </row>
     <row r="227">
@@ -5035,7 +5035,7 @@
         <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>7.5746968973113</v>
+        <v>7.5746968973</v>
       </c>
     </row>
     <row r="228">
@@ -5052,7 +5052,7 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>2.04310738189506</v>
+        <v>2.0431073819</v>
       </c>
     </row>
     <row r="229">
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="E229" t="n">
-        <v>3.2364640011854</v>
+        <v>3.2364640012</v>
       </c>
     </row>
     <row r="230">
@@ -5086,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="E230" t="n">
-        <v>2.26945881537078</v>
+        <v>2.2694588154</v>
       </c>
     </row>
     <row r="231">
@@ -5103,7 +5103,7 @@
         <v>7</v>
       </c>
       <c r="E231" t="n">
-        <v>2.38497657703602</v>
+        <v>2.384976577</v>
       </c>
     </row>
     <row r="232">
@@ -5120,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>4.51819441873506</v>
+        <v>4.5181944187</v>
       </c>
     </row>
     <row r="233">
@@ -5137,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="n">
-        <v>2.67956774635823</v>
+        <v>2.6795677464</v>
       </c>
     </row>
     <row r="234">
@@ -5154,7 +5154,7 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
-        <v>1.16006168061354</v>
+        <v>1.1600616806</v>
       </c>
     </row>
     <row r="235">
@@ -5171,7 +5171,7 @@
         <v>7</v>
       </c>
       <c r="E235" t="n">
-        <v>1.57750004485995</v>
+        <v>1.5775000449</v>
       </c>
     </row>
     <row r="236">
@@ -5188,7 +5188,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>1.05192443698609</v>
+        <v>1.051924437</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>1.00991767263569</v>
+        <v>1.0099176726</v>
       </c>
     </row>
     <row r="238">
@@ -5222,7 +5222,7 @@
         <v>7</v>
       </c>
       <c r="E238" t="n">
-        <v>1.27746093792872</v>
+        <v>1.2774609379</v>
       </c>
     </row>
     <row r="239">
@@ -5239,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="E239" t="n">
-        <v>1.39202993645979</v>
+        <v>1.3920299365</v>
       </c>
     </row>
     <row r="240">
@@ -5256,7 +5256,7 @@
         <v>7</v>
       </c>
       <c r="E240" t="n">
-        <v>1.33667430184495</v>
+        <v>1.3366743018</v>
       </c>
     </row>
     <row r="241">
@@ -5273,7 +5273,7 @@
         <v>7</v>
       </c>
       <c r="E241" t="n">
-        <v>2.40795263818907</v>
+        <v>2.4079526382</v>
       </c>
     </row>
     <row r="242">
@@ -5290,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="E242" t="n">
-        <v>2.42074518389617</v>
+        <v>2.4207451839</v>
       </c>
     </row>
     <row r="243">
@@ -5307,7 +5307,7 @@
         <v>7</v>
       </c>
       <c r="E243" t="n">
-        <v>2.73544927106258</v>
+        <v>2.7354492711</v>
       </c>
     </row>
     <row r="244">
@@ -5324,7 +5324,7 @@
         <v>7</v>
       </c>
       <c r="E244" t="n">
-        <v>2.00738608004849</v>
+        <v>2.00738608</v>
       </c>
     </row>
     <row r="245">
@@ -5341,7 +5341,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="n">
-        <v>2.12122508298982</v>
+        <v>2.121225083</v>
       </c>
     </row>
     <row r="246">
@@ -5358,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="E246" t="n">
-        <v>3.35446695809468</v>
+        <v>3.3544669581</v>
       </c>
     </row>
     <row r="247">
@@ -5375,7 +5375,7 @@
         <v>7</v>
       </c>
       <c r="E247" t="n">
-        <v>3.48199024646151</v>
+        <v>3.4819902465</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="E248" t="n">
-        <v>2.67013136434165</v>
+        <v>2.6701313643</v>
       </c>
     </row>
     <row r="249">
@@ -5409,7 +5409,7 @@
         <v>7</v>
       </c>
       <c r="E249" t="n">
-        <v>6.14521173238664</v>
+        <v>6.1452117324</v>
       </c>
     </row>
     <row r="250">
@@ -5426,7 +5426,7 @@
         <v>7</v>
       </c>
       <c r="E250" t="n">
-        <v>4.79386888752066</v>
+        <v>4.7938688875</v>
       </c>
     </row>
     <row r="251">
@@ -5443,7 +5443,7 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>5.32025990115726</v>
+        <v>5.3202599012</v>
       </c>
     </row>
     <row r="252">
@@ -5460,7 +5460,7 @@
         <v>7</v>
       </c>
       <c r="E252" t="n">
-        <v>1.16054879286392</v>
+        <v>1.1605487929</v>
       </c>
     </row>
     <row r="253">
@@ -5477,7 +5477,7 @@
         <v>7</v>
       </c>
       <c r="E253" t="n">
-        <v>0.93116801162313</v>
+        <v>0.9311680116</v>
       </c>
     </row>
     <row r="254">
@@ -5494,7 +5494,7 @@
         <v>7</v>
       </c>
       <c r="E254" t="n">
-        <v>3.75161249353571</v>
+        <v>3.7516124935</v>
       </c>
     </row>
     <row r="255">
@@ -5511,7 +5511,7 @@
         <v>7</v>
       </c>
       <c r="E255" t="n">
-        <v>5.0450754230459</v>
+        <v>5.045075423</v>
       </c>
     </row>
     <row r="256">
@@ -5528,7 +5528,7 @@
         <v>7</v>
       </c>
       <c r="E256" t="n">
-        <v>0.875888105428788</v>
+        <v>0.8758881054</v>
       </c>
     </row>
     <row r="257">
@@ -5545,7 +5545,7 @@
         <v>7</v>
       </c>
       <c r="E257" t="n">
-        <v>1.28841108363933</v>
+        <v>1.2884110836</v>
       </c>
     </row>
     <row r="258">
@@ -5562,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="E258" t="n">
-        <v>0.977798637482043</v>
+        <v>0.9777986375</v>
       </c>
     </row>
     <row r="259">
@@ -5579,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="E259" t="n">
-        <v>1.4400552143352</v>
+        <v>1.4400552143</v>
       </c>
     </row>
     <row r="260">
@@ -5596,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="E260" t="n">
-        <v>2.68461947432581</v>
+        <v>2.6846194743</v>
       </c>
     </row>
     <row r="261">
@@ -5613,7 +5613,7 @@
         <v>7</v>
       </c>
       <c r="E261" t="n">
-        <v>6.30105079926001</v>
+        <v>6.3010507993</v>
       </c>
     </row>
     <row r="262">
@@ -5630,7 +5630,7 @@
         <v>7</v>
       </c>
       <c r="E262" t="n">
-        <v>5.14965905892906</v>
+        <v>5.1496590589</v>
       </c>
     </row>
     <row r="263">
@@ -5647,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>3.62854885305607</v>
+        <v>3.6285488531</v>
       </c>
     </row>
     <row r="264">
@@ -5664,7 +5664,7 @@
         <v>7</v>
       </c>
       <c r="E264" t="n">
-        <v>0.420649190369905</v>
+        <v>0.4206491904</v>
       </c>
     </row>
     <row r="265">
@@ -5681,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="E265" t="n">
-        <v>0.570147779582725</v>
+        <v>0.5701477796</v>
       </c>
     </row>
     <row r="266">
@@ -5698,7 +5698,7 @@
         <v>7</v>
       </c>
       <c r="E266" t="n">
-        <v>13.6717238241783</v>
+        <v>13.6717238242</v>
       </c>
     </row>
     <row r="267">
@@ -5715,7 +5715,7 @@
         <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>17.305157417963</v>
+        <v>17.305157418</v>
       </c>
     </row>
     <row r="268">
@@ -5732,7 +5732,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="n">
-        <v>1.09423505797314</v>
+        <v>1.094235058</v>
       </c>
     </row>
     <row r="269">
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="E269" t="n">
-        <v>1.0369067896807</v>
+        <v>1.0369067897</v>
       </c>
     </row>
     <row r="270">
@@ -5766,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="E270" t="n">
-        <v>0.921092671814231</v>
+        <v>0.9210926718</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>7</v>
       </c>
       <c r="E271" t="n">
-        <v>0.928820802716864</v>
+        <v>0.9288208027</v>
       </c>
     </row>
     <row r="272">
@@ -5800,7 +5800,7 @@
         <v>7</v>
       </c>
       <c r="E272" t="n">
-        <v>7.23947507557163</v>
+        <v>7.2394750756</v>
       </c>
     </row>
     <row r="273">
@@ -5817,7 +5817,7 @@
         <v>7</v>
       </c>
       <c r="E273" t="n">
-        <v>1.55231911114137</v>
+        <v>1.5523191111</v>
       </c>
     </row>
     <row r="274">
@@ -5834,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="E274" t="n">
-        <v>3.60554532790111</v>
+        <v>3.6055453279</v>
       </c>
     </row>
     <row r="275">
@@ -5851,7 +5851,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="n">
-        <v>3.26643157124646</v>
+        <v>3.2664315712</v>
       </c>
     </row>
     <row r="276">
@@ -5868,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="E276" t="n">
-        <v>1.45968923918592</v>
+        <v>1.4596892392</v>
       </c>
     </row>
     <row r="277">
@@ -5885,7 +5885,7 @@
         <v>7</v>
       </c>
       <c r="E277" t="n">
-        <v>1.42210150921105</v>
+        <v>1.4221015092</v>
       </c>
     </row>
     <row r="278">
@@ -5902,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="E278" t="n">
-        <v>6.67156156041172</v>
+        <v>6.6715615604</v>
       </c>
     </row>
     <row r="279">
@@ -5919,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>7.01452070185085</v>
+        <v>7.0145207019</v>
       </c>
     </row>
     <row r="280">
@@ -5936,7 +5936,7 @@
         <v>7</v>
       </c>
       <c r="E280" t="n">
-        <v>1.5066971430959</v>
+        <v>1.5066971431</v>
       </c>
     </row>
     <row r="281">
@@ -5953,7 +5953,7 @@
         <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>2.65734894866625</v>
+        <v>2.6573489487</v>
       </c>
     </row>
     <row r="282">
@@ -5970,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="E282" t="n">
-        <v>1.80549472268488</v>
+        <v>1.8054947227</v>
       </c>
     </row>
     <row r="283">
@@ -5987,7 +5987,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="n">
-        <v>2.02271432981579</v>
+        <v>2.0227143298</v>
       </c>
     </row>
     <row r="284">
@@ -6004,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="E284" t="n">
-        <v>1.50513414274401</v>
+        <v>1.5051341427</v>
       </c>
     </row>
     <row r="285">
@@ -6021,7 +6021,7 @@
         <v>7</v>
       </c>
       <c r="E285" t="n">
-        <v>2.07641469758833</v>
+        <v>2.0764146976</v>
       </c>
     </row>
     <row r="286">
@@ -6038,7 +6038,7 @@
         <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>1.36073846969191</v>
+        <v>1.3607384697</v>
       </c>
     </row>
     <row r="287">
@@ -6055,7 +6055,7 @@
         <v>7</v>
       </c>
       <c r="E287" t="n">
-        <v>1.14908200553129</v>
+        <v>1.1490820055</v>
       </c>
     </row>
     <row r="288">
@@ -6072,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="E288" t="n">
-        <v>10.4545041821487</v>
+        <v>10.4545041821</v>
       </c>
     </row>
     <row r="289">
@@ -6089,7 +6089,7 @@
         <v>7</v>
       </c>
       <c r="E289" t="n">
-        <v>17.3269502258801</v>
+        <v>17.3269502259</v>
       </c>
     </row>
     <row r="290">
@@ -6106,7 +6106,7 @@
         <v>7</v>
       </c>
       <c r="E290" t="n">
-        <v>7.11299637242821</v>
+        <v>7.1129963724</v>
       </c>
     </row>
     <row r="291">
@@ -6123,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="E291" t="n">
-        <v>8.1119954211216</v>
+        <v>8.1119954211</v>
       </c>
     </row>
     <row r="292">
@@ -6140,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="E292" t="n">
-        <v>3.4579202363056</v>
+        <v>3.4579202363</v>
       </c>
     </row>
     <row r="293">
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
       <c r="E293" t="n">
-        <v>5.07147983105304</v>
+        <v>5.0714798311</v>
       </c>
     </row>
     <row r="294">
@@ -6174,7 +6174,7 @@
         <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>6.25487827216076</v>
+        <v>6.2548782722</v>
       </c>
     </row>
     <row r="295">
@@ -6191,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="E295" t="n">
-        <v>7.66636208262902</v>
+        <v>7.6663620826</v>
       </c>
     </row>
     <row r="296">
@@ -6208,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="E296" t="n">
-        <v>1.49804987249831</v>
+        <v>1.4980498725</v>
       </c>
     </row>
     <row r="297">
@@ -6225,7 +6225,7 @@
         <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>2.1891114335568</v>
+        <v>2.1891114336</v>
       </c>
     </row>
     <row r="298">
@@ -6242,7 +6242,7 @@
         <v>7</v>
       </c>
       <c r="E298" t="n">
-        <v>2.17392445637349</v>
+        <v>2.1739244564</v>
       </c>
     </row>
     <row r="299">
@@ -6259,7 +6259,7 @@
         <v>7</v>
       </c>
       <c r="E299" t="n">
-        <v>2.46706951104379</v>
+        <v>2.467069511</v>
       </c>
     </row>
     <row r="300">
@@ -6276,7 +6276,7 @@
         <v>7</v>
       </c>
       <c r="E300" t="n">
-        <v>7.81659352724932</v>
+        <v>7.8165935272</v>
       </c>
     </row>
     <row r="301">
@@ -6293,7 +6293,7 @@
         <v>7</v>
       </c>
       <c r="E301" t="n">
-        <v>3.38454986288062</v>
+        <v>3.3845498629</v>
       </c>
     </row>
     <row r="302">
@@ -6310,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="E302" t="n">
-        <v>8.37023030890677</v>
+        <v>8.3702303089</v>
       </c>
     </row>
     <row r="303">
@@ -6327,7 +6327,7 @@
         <v>7</v>
       </c>
       <c r="E303" t="n">
-        <v>9.59501905159843</v>
+        <v>9.5950190516</v>
       </c>
     </row>
     <row r="304">
@@ -6344,7 +6344,7 @@
         <v>7</v>
       </c>
       <c r="E304" t="n">
-        <v>6.7290185091135</v>
+        <v>6.7290185091</v>
       </c>
     </row>
     <row r="305">
@@ -6361,7 +6361,7 @@
         <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>3.27195134316653</v>
+        <v>3.2719513432</v>
       </c>
     </row>
     <row r="306">
@@ -6378,7 +6378,7 @@
         <v>7</v>
       </c>
       <c r="E306" t="n">
-        <v>9.11688544644748</v>
+        <v>9.1168854464</v>
       </c>
     </row>
     <row r="307">
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>9.79110491839096</v>
+        <v>9.7911049184</v>
       </c>
     </row>
     <row r="308">
@@ -6412,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="E308" t="n">
-        <v>1.45874872809317</v>
+        <v>1.4587487281</v>
       </c>
     </row>
     <row r="309">
@@ -6429,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="E309" t="n">
-        <v>2.74611733846424</v>
+        <v>2.7461173385</v>
       </c>
     </row>
     <row r="310">
@@ -6446,7 +6446,7 @@
         <v>7</v>
       </c>
       <c r="E310" t="n">
-        <v>2.23535528554594</v>
+        <v>2.2353552855</v>
       </c>
     </row>
     <row r="311">
@@ -6463,7 +6463,7 @@
         <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>2.36779031879969</v>
+        <v>2.3677903188</v>
       </c>
     </row>
     <row r="312">
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>1.87547120936424</v>
+        <v>1.8754712094</v>
       </c>
     </row>
     <row r="313">
@@ -6497,7 +6497,7 @@
         <v>7</v>
       </c>
       <c r="E313" t="n">
-        <v>1.28287146209061</v>
+        <v>1.2828714621</v>
       </c>
     </row>
     <row r="314">
@@ -6514,7 +6514,7 @@
         <v>7</v>
       </c>
       <c r="E314" t="n">
-        <v>4.27283833008784</v>
+        <v>4.2728383301</v>
       </c>
     </row>
     <row r="315">
@@ -6531,7 +6531,7 @@
         <v>7</v>
       </c>
       <c r="E315" t="n">
-        <v>4.09374665024683</v>
+        <v>4.0937466502</v>
       </c>
     </row>
     <row r="316">
@@ -6548,7 +6548,7 @@
         <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>7.25601847450431</v>
+        <v>7.2560184745</v>
       </c>
     </row>
     <row r="317">
@@ -6565,7 +6565,7 @@
         <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>4.3002207909497</v>
+        <v>4.3002207909</v>
       </c>
     </row>
     <row r="318">
@@ -6582,7 +6582,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>9.59958405122159</v>
+        <v>9.5995840512</v>
       </c>
     </row>
     <row r="319">
@@ -6599,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>10.6734313928035</v>
+        <v>10.6734313928</v>
       </c>
     </row>
     <row r="320">
@@ -6616,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="E320" t="n">
-        <v>2.72893757859057</v>
+        <v>2.7289375786</v>
       </c>
     </row>
     <row r="321">
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>3.85578215546341</v>
+        <v>3.8557821555</v>
       </c>
     </row>
     <row r="322">
@@ -6650,7 +6650,7 @@
         <v>7</v>
       </c>
       <c r="E322" t="n">
-        <v>4.90867924277192</v>
+        <v>4.9086792428</v>
       </c>
     </row>
     <row r="323">
@@ -6667,7 +6667,7 @@
         <v>7</v>
       </c>
       <c r="E323" t="n">
-        <v>3.55938305419318</v>
+        <v>3.5593830542</v>
       </c>
     </row>
     <row r="324">
@@ -6684,7 +6684,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>2.98049247432227</v>
+        <v>2.9804924743</v>
       </c>
     </row>
     <row r="325">
@@ -6701,7 +6701,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>7.01680831042541</v>
+        <v>7.0168083104</v>
       </c>
     </row>
     <row r="326">
@@ -6718,7 +6718,7 @@
         <v>7</v>
       </c>
       <c r="E326" t="n">
-        <v>4.64910045939559</v>
+        <v>4.6491004594</v>
       </c>
     </row>
     <row r="327">
@@ -6735,7 +6735,7 @@
         <v>7</v>
       </c>
       <c r="E327" t="n">
-        <v>4.91535047113218</v>
+        <v>4.9153504711</v>
       </c>
     </row>
     <row r="328">
@@ -6752,7 +6752,7 @@
         <v>7</v>
       </c>
       <c r="E328" t="n">
-        <v>1.64393557349299</v>
+        <v>1.6439355735</v>
       </c>
     </row>
     <row r="329">
@@ -6769,7 +6769,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>4.65135874177613</v>
+        <v>4.6513587418</v>
       </c>
     </row>
     <row r="330">
@@ -6786,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="n">
-        <v>4.18685209967334</v>
+        <v>4.1868520997</v>
       </c>
     </row>
     <row r="331">
@@ -6803,7 +6803,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>4.31135615759698</v>
+        <v>4.3113561576</v>
       </c>
     </row>
     <row r="332">
@@ -6820,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>9.96354387541893</v>
+        <v>9.9635438754</v>
       </c>
     </row>
     <row r="333">
@@ -6837,7 +6837,7 @@
         <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>10.3950619838545</v>
+        <v>10.3950619839</v>
       </c>
     </row>
     <row r="334">
@@ -6854,7 +6854,7 @@
         <v>7</v>
       </c>
       <c r="E334" t="n">
-        <v>8.74958521552525</v>
+        <v>8.7495852155</v>
       </c>
     </row>
     <row r="335">
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>9.45616415702485</v>
+        <v>9.456164157</v>
       </c>
     </row>
     <row r="336">
@@ -6888,7 +6888,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>1.29826067822886</v>
+        <v>1.2982606782</v>
       </c>
     </row>
     <row r="337">
@@ -6905,7 +6905,7 @@
         <v>7</v>
       </c>
       <c r="E337" t="n">
-        <v>2.62331725315686</v>
+        <v>2.6233172532</v>
       </c>
     </row>
     <row r="338">
@@ -6922,7 +6922,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>2.5324269187771</v>
+        <v>2.5324269188</v>
       </c>
     </row>
     <row r="339">
@@ -6939,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="E339" t="n">
-        <v>2.61385286865884</v>
+        <v>2.6138528687</v>
       </c>
     </row>
     <row r="340">
@@ -6956,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>2.68668143265248</v>
+        <v>2.6866814327</v>
       </c>
     </row>
     <row r="341">
@@ -6973,7 +6973,7 @@
         <v>7</v>
       </c>
       <c r="E341" t="n">
-        <v>5.98984273793014</v>
+        <v>5.9898427379</v>
       </c>
     </row>
     <row r="342">
@@ -6990,7 +6990,7 @@
         <v>7</v>
       </c>
       <c r="E342" t="n">
-        <v>7.13061609557099</v>
+        <v>7.1306160956</v>
       </c>
     </row>
     <row r="343">
@@ -7007,7 +7007,7 @@
         <v>7</v>
       </c>
       <c r="E343" t="n">
-        <v>7.7864782571486</v>
+        <v>7.7864782571</v>
       </c>
     </row>
     <row r="344">
@@ -7024,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="E344" t="n">
-        <v>2.62710653611025</v>
+        <v>2.6271065361</v>
       </c>
     </row>
     <row r="345">
@@ -7041,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="E345" t="n">
-        <v>4.05358076951178</v>
+        <v>4.0535807695</v>
       </c>
     </row>
     <row r="346">
@@ -7058,7 +7058,7 @@
         <v>7</v>
       </c>
       <c r="E346" t="n">
-        <v>1.29327465938808</v>
+        <v>1.2932746594</v>
       </c>
     </row>
     <row r="347">
@@ -7075,7 +7075,7 @@
         <v>7</v>
       </c>
       <c r="E347" t="n">
-        <v>4.12491206748337</v>
+        <v>4.1249120675</v>
       </c>
     </row>
     <row r="348">
@@ -7092,7 +7092,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="n">
-        <v>3.16162567957561</v>
+        <v>3.1616256796</v>
       </c>
     </row>
     <row r="349">
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>3.32260590804598</v>
+        <v>3.322605908</v>
       </c>
     </row>
     <row r="350">
@@ -7126,7 +7126,7 @@
         <v>7</v>
       </c>
       <c r="E350" t="n">
-        <v>0.697081087876467</v>
+        <v>0.6970810879</v>
       </c>
     </row>
     <row r="351">
@@ -7143,7 +7143,7 @@
         <v>7</v>
       </c>
       <c r="E351" t="n">
-        <v>0.669253144245011</v>
+        <v>0.6692531442</v>
       </c>
     </row>
     <row r="352">
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="E352" t="n">
-        <v>1.87838186757512</v>
+        <v>1.8783818676</v>
       </c>
     </row>
     <row r="353">
@@ -7177,7 +7177,7 @@
         <v>7</v>
       </c>
       <c r="E353" t="n">
-        <v>1.9282106640028</v>
+        <v>1.928210664</v>
       </c>
     </row>
     <row r="354">
@@ -7194,7 +7194,7 @@
         <v>7</v>
       </c>
       <c r="E354" t="n">
-        <v>0.924028338945623</v>
+        <v>0.9240283389</v>
       </c>
     </row>
     <row r="355">
@@ -7211,7 +7211,7 @@
         <v>7</v>
       </c>
       <c r="E355" t="n">
-        <v>2.44310999883942</v>
+        <v>2.4431099988</v>
       </c>
     </row>
     <row r="356">
@@ -7228,7 +7228,7 @@
         <v>7</v>
       </c>
       <c r="E356" t="n">
-        <v>2.39743270914178</v>
+        <v>2.3974327091</v>
       </c>
     </row>
     <row r="357">
@@ -7245,7 +7245,7 @@
         <v>7</v>
       </c>
       <c r="E357" t="n">
-        <v>1.84811902263002</v>
+        <v>1.8481190226</v>
       </c>
     </row>
     <row r="358">
@@ -7262,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="E358" t="n">
-        <v>1.20899511016608</v>
+        <v>1.2089951102</v>
       </c>
     </row>
     <row r="359">
@@ -7279,7 +7279,7 @@
         <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>5.59757530721382</v>
+        <v>5.5975753072</v>
       </c>
     </row>
     <row r="360">
@@ -7296,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="E360" t="n">
-        <v>5.59757530721382</v>
+        <v>5.5975753072</v>
       </c>
     </row>
     <row r="361">
@@ -7313,7 +7313,7 @@
         <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>5.87496429839594</v>
+        <v>5.8749642984</v>
       </c>
     </row>
     <row r="362">
@@ -7330,7 +7330,7 @@
         <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>1.08698209955653</v>
+        <v>1.0869820996</v>
       </c>
     </row>
     <row r="363">
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
       <c r="E363" t="n">
-        <v>3.72392367864222</v>
+        <v>3.7239236786</v>
       </c>
     </row>
     <row r="364">
@@ -7364,7 +7364,7 @@
         <v>7</v>
       </c>
       <c r="E364" t="n">
-        <v>3.5047664410061</v>
+        <v>3.504766441</v>
       </c>
     </row>
     <row r="365">
@@ -7381,7 +7381,7 @@
         <v>7</v>
       </c>
       <c r="E365" t="n">
-        <v>3.63283135448559</v>
+        <v>3.6328313545</v>
       </c>
     </row>
     <row r="366">
@@ -7398,7 +7398,7 @@
         <v>7</v>
       </c>
       <c r="E366" t="n">
-        <v>1.44758191074188</v>
+        <v>1.4475819107</v>
       </c>
     </row>
     <row r="367">
@@ -7415,7 +7415,7 @@
         <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>3.26896744204312</v>
+        <v>3.268967442</v>
       </c>
     </row>
     <row r="368">
@@ -7432,7 +7432,7 @@
         <v>7</v>
       </c>
       <c r="E368" t="n">
-        <v>3.35581179635331</v>
+        <v>3.3558117964</v>
       </c>
     </row>
     <row r="369">
@@ -7449,7 +7449,7 @@
         <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>3.47003310454601</v>
+        <v>3.4700331045</v>
       </c>
     </row>
     <row r="370">
@@ -7466,7 +7466,7 @@
         <v>7</v>
       </c>
       <c r="E370" t="n">
-        <v>1.09751015687993</v>
+        <v>1.0975101569</v>
       </c>
     </row>
     <row r="371">
@@ -7483,7 +7483,7 @@
         <v>7</v>
       </c>
       <c r="E371" t="n">
-        <v>5.72056961723275</v>
+        <v>5.7205696172</v>
       </c>
     </row>
     <row r="372">
@@ -7500,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="E372" t="n">
-        <v>4.99299026183473</v>
+        <v>4.9929902618</v>
       </c>
     </row>
     <row r="373">
@@ -7517,7 +7517,7 @@
         <v>7</v>
       </c>
       <c r="E373" t="n">
-        <v>4.98654369296448</v>
+        <v>4.986543693</v>
       </c>
     </row>
     <row r="374">
@@ -7534,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="E374" t="n">
-        <v>0.643560464339031</v>
+        <v>0.6435604643</v>
       </c>
     </row>
     <row r="375">
@@ -7551,7 +7551,7 @@
         <v>7</v>
       </c>
       <c r="E375" t="n">
-        <v>2.03031536730488</v>
+        <v>2.0303153673</v>
       </c>
     </row>
     <row r="376">
@@ -7568,7 +7568,7 @@
         <v>7</v>
       </c>
       <c r="E376" t="n">
-        <v>3.39859326786538</v>
+        <v>3.3985932679</v>
       </c>
     </row>
     <row r="377">
@@ -7585,7 +7585,7 @@
         <v>7</v>
       </c>
       <c r="E377" t="n">
-        <v>5.57687646186236</v>
+        <v>5.5768764619</v>
       </c>
     </row>
     <row r="378">
@@ -7602,7 +7602,7 @@
         <v>7</v>
       </c>
       <c r="E378" t="n">
-        <v>0.916230221275216</v>
+        <v>0.9162302213</v>
       </c>
     </row>
     <row r="379">
@@ -7619,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="E379" t="n">
-        <v>0.89471255628149</v>
+        <v>0.8947125563</v>
       </c>
     </row>
     <row r="380">
@@ -7636,7 +7636,7 @@
         <v>7</v>
       </c>
       <c r="E380" t="n">
-        <v>0.982883260164094</v>
+        <v>0.9828832602</v>
       </c>
     </row>
     <row r="381">
@@ -7653,7 +7653,7 @@
         <v>7</v>
       </c>
       <c r="E381" t="n">
-        <v>0.990125622655605</v>
+        <v>0.9901256227</v>
       </c>
     </row>
     <row r="382">
@@ -7670,7 +7670,7 @@
         <v>7</v>
       </c>
       <c r="E382" t="n">
-        <v>3.79645149070949</v>
+        <v>3.7964514907</v>
       </c>
     </row>
     <row r="383">
@@ -7687,7 +7687,7 @@
         <v>7</v>
       </c>
       <c r="E383" t="n">
-        <v>2.79798732515554</v>
+        <v>2.7979873252</v>
       </c>
     </row>
     <row r="384">
@@ -7704,7 +7704,7 @@
         <v>7</v>
       </c>
       <c r="E384" t="n">
-        <v>3.91117065785579</v>
+        <v>3.9111706579</v>
       </c>
     </row>
     <row r="385">
@@ -7721,7 +7721,7 @@
         <v>7</v>
       </c>
       <c r="E385" t="n">
-        <v>3.75009311841201</v>
+        <v>3.7500931184</v>
       </c>
     </row>
     <row r="386">
@@ -7738,7 +7738,7 @@
         <v>7</v>
       </c>
       <c r="E386" t="n">
-        <v>1.8303038832268</v>
+        <v>1.8303038832</v>
       </c>
     </row>
     <row r="387">
@@ -7755,7 +7755,7 @@
         <v>7</v>
       </c>
       <c r="E387" t="n">
-        <v>2.46911930384882</v>
+        <v>2.4691193038</v>
       </c>
     </row>
     <row r="388">
@@ -7772,7 +7772,7 @@
         <v>7</v>
       </c>
       <c r="E388" t="n">
-        <v>2.85904075775747</v>
+        <v>2.8590407578</v>
       </c>
     </row>
     <row r="389">
@@ -7789,7 +7789,7 @@
         <v>7</v>
       </c>
       <c r="E389" t="n">
-        <v>3.22706886084531</v>
+        <v>3.2270688608</v>
       </c>
     </row>
     <row r="390">
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="E390" t="n">
-        <v>1.4039649565539</v>
+        <v>1.4039649566</v>
       </c>
     </row>
     <row r="391">
@@ -7823,7 +7823,7 @@
         <v>7</v>
       </c>
       <c r="E391" t="n">
-        <v>1.23274757912762</v>
+        <v>1.2327475791</v>
       </c>
     </row>
     <row r="392">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>2.47308774565781</v>
+        <v>2.4730877457</v>
       </c>
     </row>
     <row r="393">
@@ -7857,7 +7857,7 @@
         <v>7</v>
       </c>
       <c r="E393" t="n">
-        <v>2.6105554884783</v>
+        <v>2.6105554885</v>
       </c>
     </row>
     <row r="394">
@@ -7874,7 +7874,7 @@
         <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>3.5006983291044</v>
+        <v>3.5006983291</v>
       </c>
     </row>
     <row r="395">
@@ -7891,7 +7891,7 @@
         <v>7</v>
       </c>
       <c r="E395" t="n">
-        <v>5.71435531469133</v>
+        <v>5.7143553147</v>
       </c>
     </row>
     <row r="396">
@@ -7908,7 +7908,7 @@
         <v>7</v>
       </c>
       <c r="E396" t="n">
-        <v>4.03077026540326</v>
+        <v>4.0307702654</v>
       </c>
     </row>
     <row r="397">
@@ -7925,7 +7925,7 @@
         <v>7</v>
       </c>
       <c r="E397" t="n">
-        <v>4.13281888231894</v>
+        <v>4.1328188823</v>
       </c>
     </row>
     <row r="398">
@@ -7942,7 +7942,7 @@
         <v>7</v>
       </c>
       <c r="E398" t="n">
-        <v>0.800269110336781</v>
+        <v>0.8002691103</v>
       </c>
     </row>
     <row r="399">
@@ -7959,7 +7959,7 @@
         <v>7</v>
       </c>
       <c r="E399" t="n">
-        <v>2.9360713119936</v>
+        <v>2.936071312</v>
       </c>
     </row>
     <row r="400">
@@ -7976,7 +7976,7 @@
         <v>7</v>
       </c>
       <c r="E400" t="n">
-        <v>2.40977535465554</v>
+        <v>2.4097753547</v>
       </c>
     </row>
     <row r="401">
@@ -7993,7 +7993,7 @@
         <v>7</v>
       </c>
       <c r="E401" t="n">
-        <v>2.55643730447459</v>
+        <v>2.5564373045</v>
       </c>
     </row>
     <row r="402">
@@ -8010,7 +8010,7 @@
         <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>2.64051776762427</v>
+        <v>2.6405177676</v>
       </c>
     </row>
     <row r="403">
@@ -8027,7 +8027,7 @@
         <v>7</v>
       </c>
       <c r="E403" t="n">
-        <v>14.4180086073137</v>
+        <v>14.4180086073</v>
       </c>
     </row>
     <row r="404">
@@ -8044,7 +8044,7 @@
         <v>7</v>
       </c>
       <c r="E404" t="n">
-        <v>3.54172275359374</v>
+        <v>3.5417227536</v>
       </c>
     </row>
     <row r="405">
@@ -8061,7 +8061,7 @@
         <v>7</v>
       </c>
       <c r="E405" t="n">
-        <v>3.37787901650078</v>
+        <v>3.3778790165</v>
       </c>
     </row>
     <row r="406">
@@ -8078,7 +8078,7 @@
         <v>7</v>
       </c>
       <c r="E406" t="n">
-        <v>2.10260323653912</v>
+        <v>2.1026032365</v>
       </c>
     </row>
     <row r="407">
@@ -8095,7 +8095,7 @@
         <v>7</v>
       </c>
       <c r="E407" t="n">
-        <v>4.64274129193077</v>
+        <v>4.6427412919</v>
       </c>
     </row>
     <row r="408">
@@ -8112,7 +8112,7 @@
         <v>7</v>
       </c>
       <c r="E408" t="n">
-        <v>3.70032771817466</v>
+        <v>3.7003277182</v>
       </c>
     </row>
     <row r="409">
@@ -8129,7 +8129,7 @@
         <v>7</v>
       </c>
       <c r="E409" t="n">
-        <v>3.77615265600204</v>
+        <v>3.776152656</v>
       </c>
     </row>
     <row r="410">
@@ -8146,7 +8146,7 @@
         <v>7</v>
       </c>
       <c r="E410" t="n">
-        <v>1.57969870353553</v>
+        <v>1.5796987035</v>
       </c>
     </row>
     <row r="411">
@@ -8163,7 +8163,7 @@
         <v>7</v>
       </c>
       <c r="E411" t="n">
-        <v>2.44622965880324</v>
+        <v>2.4462296588</v>
       </c>
     </row>
     <row r="412">
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="E412" t="n">
-        <v>2.14109823798706</v>
+        <v>2.141098238</v>
       </c>
     </row>
     <row r="413">
@@ -8197,7 +8197,7 @@
         <v>7</v>
       </c>
       <c r="E413" t="n">
-        <v>2.14728269152586</v>
+        <v>2.1472826915</v>
       </c>
     </row>
     <row r="414">
@@ -8214,7 +8214,7 @@
         <v>7</v>
       </c>
       <c r="E414" t="n">
-        <v>1.50963967547024</v>
+        <v>1.5096396755</v>
       </c>
     </row>
     <row r="415">
@@ -8231,7 +8231,7 @@
         <v>7</v>
       </c>
       <c r="E415" t="n">
-        <v>2.0063721847498</v>
+        <v>2.0063721847</v>
       </c>
     </row>
     <row r="416">
@@ -8248,7 +8248,7 @@
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>3.80763729074887</v>
+        <v>3.8076372907</v>
       </c>
     </row>
     <row r="417">
@@ -8265,7 +8265,7 @@
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>3.79372320192342</v>
+        <v>3.7937232019</v>
       </c>
     </row>
     <row r="418">
@@ -8282,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="E418" t="n">
-        <v>2.37152964949676</v>
+        <v>2.3715296495</v>
       </c>
     </row>
     <row r="419">
@@ -8299,7 +8299,7 @@
         <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>4.1923432759618</v>
+        <v>4.192343276</v>
       </c>
     </row>
     <row r="420">
@@ -8316,7 +8316,7 @@
         <v>7</v>
       </c>
       <c r="E420" t="n">
-        <v>2.6112534577382</v>
+        <v>2.6112534577</v>
       </c>
     </row>
     <row r="421">
@@ -8333,7 +8333,7 @@
         <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>2.97523529524625</v>
+        <v>2.9752352952</v>
       </c>
     </row>
     <row r="422">
@@ -8350,7 +8350,7 @@
         <v>7</v>
       </c>
       <c r="E422" t="n">
-        <v>1.03430064146033</v>
+        <v>1.0343006415</v>
       </c>
     </row>
     <row r="423">
@@ -8367,7 +8367,7 @@
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>1.21545796628587</v>
+        <v>1.2154579663</v>
       </c>
     </row>
     <row r="424">
@@ -8384,7 +8384,7 @@
         <v>7</v>
       </c>
       <c r="E424" t="n">
-        <v>2.40980334771376</v>
+        <v>2.4098033477</v>
       </c>
     </row>
     <row r="425">
@@ -8401,7 +8401,7 @@
         <v>7</v>
       </c>
       <c r="E425" t="n">
-        <v>2.07123083939738</v>
+        <v>2.0712308394</v>
       </c>
     </row>
     <row r="426">
@@ -8418,7 +8418,7 @@
         <v>7</v>
       </c>
       <c r="E426" t="n">
-        <v>2.35815824922168</v>
+        <v>2.3581582492</v>
       </c>
     </row>
     <row r="427">
@@ -8435,7 +8435,7 @@
         <v>7</v>
       </c>
       <c r="E427" t="n">
-        <v>4.7230689386606</v>
+        <v>4.7230689387</v>
       </c>
     </row>
     <row r="428">
@@ -8452,7 +8452,7 @@
         <v>7</v>
       </c>
       <c r="E428" t="n">
-        <v>6.04081303700048</v>
+        <v>6.040813037</v>
       </c>
     </row>
     <row r="429">
@@ -8469,7 +8469,7 @@
         <v>7</v>
       </c>
       <c r="E429" t="n">
-        <v>6.80982220540215</v>
+        <v>6.8098222054</v>
       </c>
     </row>
     <row r="430">
@@ -8486,7 +8486,7 @@
         <v>7</v>
       </c>
       <c r="E430" t="n">
-        <v>12.1755745751231</v>
+        <v>12.1755745751</v>
       </c>
     </row>
     <row r="431">
@@ -8503,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="E431" t="n">
-        <v>15.5405132568804</v>
+        <v>15.5405132569</v>
       </c>
     </row>
     <row r="432">
@@ -8520,7 +8520,7 @@
         <v>7</v>
       </c>
       <c r="E432" t="n">
-        <v>16.6159991033387</v>
+        <v>16.6159991033</v>
       </c>
     </row>
     <row r="433">
@@ -8537,7 +8537,7 @@
         <v>7</v>
       </c>
       <c r="E433" t="n">
-        <v>17.2222915674363</v>
+        <v>17.2222915674</v>
       </c>
     </row>
     <row r="434">
@@ -8554,7 +8554,7 @@
         <v>7</v>
       </c>
       <c r="E434" t="n">
-        <v>0.400370414329098</v>
+        <v>0.4003704143</v>
       </c>
     </row>
     <row r="435">
@@ -8571,7 +8571,7 @@
         <v>7</v>
       </c>
       <c r="E435" t="n">
-        <v>1.61606856129436</v>
+        <v>1.6160685613</v>
       </c>
     </row>
     <row r="436">
@@ -8588,7 +8588,7 @@
         <v>7</v>
       </c>
       <c r="E436" t="n">
-        <v>1.59404714101017</v>
+        <v>1.594047141</v>
       </c>
     </row>
     <row r="437">
@@ -8605,7 +8605,7 @@
         <v>7</v>
       </c>
       <c r="E437" t="n">
-        <v>1.65101867753955</v>
+        <v>1.6510186775</v>
       </c>
     </row>
     <row r="438">
@@ -8622,7 +8622,7 @@
         <v>7</v>
       </c>
       <c r="E438" t="n">
-        <v>1.47084318735043</v>
+        <v>1.4708431874</v>
       </c>
     </row>
     <row r="439">
@@ -8639,7 +8639,7 @@
         <v>7</v>
       </c>
       <c r="E439" t="n">
-        <v>1.56540170882569</v>
+        <v>1.5654017088</v>
       </c>
     </row>
     <row r="440">
@@ -8656,7 +8656,7 @@
         <v>7</v>
       </c>
       <c r="E440" t="n">
-        <v>4.24995127853766</v>
+        <v>4.2499512785</v>
       </c>
     </row>
     <row r="441">
@@ -8673,7 +8673,7 @@
         <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>4.73256551473885</v>
+        <v>4.7325655147</v>
       </c>
     </row>
   </sheetData>
@@ -8718,16 +8718,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.23520522151401</v>
+        <v>1.2352052215</v>
       </c>
       <c r="D2" t="n">
-        <v>2.50229695382235</v>
+        <v>2.5022969538</v>
       </c>
       <c r="E2" t="n">
-        <v>2.05799818762834</v>
+        <v>2.0579981876</v>
       </c>
       <c r="F2" t="n">
-        <v>2.34788572255323</v>
+        <v>2.3478857226</v>
       </c>
     </row>
     <row r="3">
@@ -8738,16 +8738,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1.19393412426776</v>
+        <v>1.1939341243</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4112176836144</v>
+        <v>1.4112176836</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5806233448202</v>
+        <v>1.5806233448</v>
       </c>
       <c r="F3" t="n">
-        <v>1.67378768800091</v>
+        <v>1.673787688</v>
       </c>
     </row>
     <row r="4">
@@ -8758,16 +8758,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1.13735409230288</v>
+        <v>1.1373540923</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2393838445227</v>
+        <v>2.2393838445</v>
       </c>
       <c r="E4" t="n">
-        <v>1.99088546390738</v>
+        <v>1.9908854639</v>
       </c>
       <c r="F4" t="n">
-        <v>1.49272798787136</v>
+        <v>1.4927279879</v>
       </c>
     </row>
     <row r="5">
@@ -8778,16 +8778,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.07773148356783</v>
+        <v>2.0777314836</v>
       </c>
       <c r="D5" t="n">
-        <v>4.8154788087238</v>
+        <v>4.8154788087</v>
       </c>
       <c r="E5" t="n">
-        <v>2.99445662099563</v>
+        <v>2.994456621</v>
       </c>
       <c r="F5" t="n">
-        <v>3.70673082347425</v>
+        <v>3.7067308235</v>
       </c>
     </row>
     <row r="6">
@@ -8798,16 +8798,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998636371812413</v>
+        <v>0.9986363718</v>
       </c>
       <c r="D6" t="n">
-        <v>2.65202737092728</v>
+        <v>2.6520273709</v>
       </c>
       <c r="E6" t="n">
-        <v>2.76301965264553</v>
+        <v>2.7630196526</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8226573274246</v>
+        <v>2.8226573274</v>
       </c>
     </row>
     <row r="7">
@@ -8818,16 +8818,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.306228092876365</v>
+        <v>0.3062280929</v>
       </c>
       <c r="D7" t="n">
-        <v>2.48550176945518</v>
+        <v>2.4855017695</v>
       </c>
       <c r="E7" t="n">
-        <v>1.66554647431633</v>
+        <v>1.6655464743</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85760388958103</v>
+        <v>1.8576038896</v>
       </c>
     </row>
     <row r="8">
@@ -8838,16 +8838,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.987707239084757</v>
+        <v>0.9877072391</v>
       </c>
       <c r="D8" t="n">
-        <v>2.50410833410508</v>
+        <v>2.5041083341</v>
       </c>
       <c r="E8" t="n">
-        <v>2.70257467847858</v>
+        <v>2.7025746785</v>
       </c>
       <c r="F8" t="n">
-        <v>2.84932657120515</v>
+        <v>2.8493265712</v>
       </c>
     </row>
     <row r="9">
@@ -8858,16 +8858,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1.41922261572269</v>
+        <v>1.4192226157</v>
       </c>
       <c r="D9" t="n">
-        <v>2.73824656709592</v>
+        <v>2.7382465671</v>
       </c>
       <c r="E9" t="n">
-        <v>2.13127732002008</v>
+        <v>2.13127732</v>
       </c>
       <c r="F9" t="n">
-        <v>2.48423504497327</v>
+        <v>2.484235045</v>
       </c>
     </row>
     <row r="10">
@@ -8878,16 +8878,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>0.750350476201593</v>
+        <v>0.7503504762</v>
       </c>
       <c r="D10" t="n">
-        <v>1.24988820040719</v>
+        <v>1.2498882004</v>
       </c>
       <c r="E10" t="n">
-        <v>1.24668027987538</v>
+        <v>1.2466802799</v>
       </c>
       <c r="F10" t="n">
-        <v>1.31830127517936</v>
+        <v>1.3183012752</v>
       </c>
     </row>
     <row r="11">
@@ -8898,16 +8898,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2.82847758831485</v>
+        <v>2.8284775883</v>
       </c>
       <c r="D11" t="n">
-        <v>3.86638916660163</v>
+        <v>3.8663891666</v>
       </c>
       <c r="E11" t="n">
-        <v>4.02523389618896</v>
+        <v>4.0252338962</v>
       </c>
       <c r="F11" t="n">
-        <v>4.130716813547</v>
+        <v>4.1307168135</v>
       </c>
     </row>
     <row r="12">
@@ -8918,16 +8918,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.8661763297873</v>
+        <v>1.8661763298</v>
       </c>
       <c r="D12" t="n">
-        <v>2.95739191619107</v>
+        <v>2.9573919162</v>
       </c>
       <c r="E12" t="n">
-        <v>1.66513172301437</v>
+        <v>1.665131723</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73879502490809</v>
+        <v>1.7387950249</v>
       </c>
     </row>
     <row r="13">
@@ -8938,16 +8938,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1.40493190239974</v>
+        <v>1.4049319024</v>
       </c>
       <c r="D13" t="n">
-        <v>2.05398916201409</v>
+        <v>2.053989162</v>
       </c>
       <c r="E13" t="n">
-        <v>2.01912155551953</v>
+        <v>2.0191215555</v>
       </c>
       <c r="F13" t="n">
-        <v>2.14089436498047</v>
+        <v>2.140894365</v>
       </c>
     </row>
     <row r="14">
@@ -8958,16 +8958,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.2804301747882</v>
+        <v>2.2804301748</v>
       </c>
       <c r="D14" t="n">
-        <v>2.0153547673843</v>
+        <v>2.0153547674</v>
       </c>
       <c r="E14" t="n">
-        <v>1.92799450493921</v>
+        <v>1.9279945049</v>
       </c>
       <c r="F14" t="n">
-        <v>1.92799450493921</v>
+        <v>1.9279945049</v>
       </c>
     </row>
     <row r="15">
@@ -8978,16 +8978,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>0.854197729391157</v>
+        <v>0.8541977294</v>
       </c>
       <c r="D15" t="n">
-        <v>1.74073779184454</v>
+        <v>1.7407377918</v>
       </c>
       <c r="E15" t="n">
-        <v>2.17532956812214</v>
+        <v>2.1753295681</v>
       </c>
       <c r="F15" t="n">
-        <v>2.31273904192639</v>
+        <v>2.3127390419</v>
       </c>
     </row>
     <row r="16">
@@ -8998,16 +8998,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>3.04352143990596</v>
+        <v>3.0435214399</v>
       </c>
       <c r="D16" t="n">
-        <v>15.5160175507939</v>
+        <v>15.5160175508</v>
       </c>
       <c r="E16" t="n">
-        <v>14.783484673616</v>
+        <v>14.7834846736</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0882574834054</v>
+        <v>15.0882574834</v>
       </c>
     </row>
     <row r="17">
@@ -9018,16 +9018,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>1.35905378423995</v>
+        <v>1.3590537842</v>
       </c>
       <c r="D17" t="n">
-        <v>4.67181063198098</v>
+        <v>4.671810632</v>
       </c>
       <c r="E17" t="n">
-        <v>4.48022929448089</v>
+        <v>4.4802292945</v>
       </c>
       <c r="F17" t="n">
-        <v>3.51751896150463</v>
+        <v>3.5175189615</v>
       </c>
     </row>
     <row r="18">
@@ -9038,16 +9038,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>0.842221576243996</v>
+        <v>0.8422215762</v>
       </c>
       <c r="D18" t="n">
-        <v>1.27637191658556</v>
+        <v>1.2763719166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.892807355223368</v>
+        <v>0.8928073552</v>
       </c>
       <c r="F18" t="n">
-        <v>1.03453290890504</v>
+        <v>1.0345329089</v>
       </c>
     </row>
     <row r="19">
@@ -9058,16 +9058,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>0.559023786203937</v>
+        <v>0.5590237862</v>
       </c>
       <c r="D19" t="n">
-        <v>1.84236051307619</v>
+        <v>1.8423605131</v>
       </c>
       <c r="E19" t="n">
-        <v>1.47476585475212</v>
+        <v>1.4747658548</v>
       </c>
       <c r="F19" t="n">
-        <v>1.07657700157415</v>
+        <v>1.0765770016</v>
       </c>
     </row>
     <row r="20">
@@ -9078,16 +9078,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>1.10171320339071</v>
+        <v>1.1017132034</v>
       </c>
       <c r="D20" t="n">
-        <v>1.66331937058669</v>
+        <v>1.6633193706</v>
       </c>
       <c r="E20" t="n">
-        <v>1.06111388008496</v>
+        <v>1.0611138801</v>
       </c>
       <c r="F20" t="n">
-        <v>1.43255727669939</v>
+        <v>1.4325572767</v>
       </c>
     </row>
     <row r="21">
@@ -9098,16 +9098,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>2.97237372697621</v>
+        <v>2.972373727</v>
       </c>
       <c r="D21" t="n">
-        <v>4.30196632367885</v>
+        <v>4.3019663237</v>
       </c>
       <c r="E21" t="n">
-        <v>3.76255371463547</v>
+        <v>3.7625537146</v>
       </c>
       <c r="F21" t="n">
-        <v>4.88421180097899</v>
+        <v>4.884211801</v>
       </c>
     </row>
     <row r="22">
@@ -9118,16 +9118,16 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>0.883312292900098</v>
+        <v>0.8833122929</v>
       </c>
       <c r="D22" t="n">
-        <v>2.98355721958295</v>
+        <v>2.9835572196</v>
       </c>
       <c r="E22" t="n">
-        <v>0.795269755485696</v>
+        <v>0.7952697555</v>
       </c>
       <c r="F22" t="n">
-        <v>0.876092317852442</v>
+        <v>0.8760923179</v>
       </c>
     </row>
     <row r="23">
@@ -9138,16 +9138,16 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>3.30300155982826</v>
+        <v>3.3030015598</v>
       </c>
       <c r="D23" t="n">
-        <v>5.60062359710557</v>
+        <v>5.6006235971</v>
       </c>
       <c r="E23" t="n">
-        <v>4.65146756558836</v>
+        <v>4.6514675656</v>
       </c>
       <c r="F23" t="n">
-        <v>4.79368314486366</v>
+        <v>4.7936831449</v>
       </c>
     </row>
     <row r="24">
@@ -9158,16 +9158,16 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>4.01628694657159</v>
+        <v>4.0162869466</v>
       </c>
       <c r="D24" t="n">
-        <v>4.97383825123719</v>
+        <v>4.9738382512</v>
       </c>
       <c r="E24" t="n">
-        <v>5.55611869024556</v>
+        <v>5.5561186902</v>
       </c>
       <c r="F24" t="n">
-        <v>6.77885582195648</v>
+        <v>6.778855822</v>
       </c>
     </row>
     <row r="25">
@@ -9178,16 +9178,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>1.47219290901349</v>
+        <v>1.472192909</v>
       </c>
       <c r="D25" t="n">
-        <v>2.25468892291113</v>
+        <v>2.2546889229</v>
       </c>
       <c r="E25" t="n">
-        <v>1.78668758647188</v>
+        <v>1.7866875865</v>
       </c>
       <c r="F25" t="n">
-        <v>1.79454391848008</v>
+        <v>1.7945439185</v>
       </c>
     </row>
     <row r="26">
@@ -9198,16 +9198,16 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>0.752870769660412</v>
+        <v>0.7528707697</v>
       </c>
       <c r="D26" t="n">
-        <v>0.906352977226927</v>
+        <v>0.9063529772</v>
       </c>
       <c r="E26" t="n">
-        <v>1.06995526942153</v>
+        <v>1.0699552694</v>
       </c>
       <c r="F26" t="n">
-        <v>1.11002737275953</v>
+        <v>1.1100273728</v>
       </c>
     </row>
     <row r="27">
@@ -9218,16 +9218,16 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>1.94285864979482</v>
+        <v>1.9428586498</v>
       </c>
       <c r="D27" t="n">
-        <v>4.15545678491754</v>
+        <v>4.1554567849</v>
       </c>
       <c r="E27" t="n">
-        <v>4.54144626375261</v>
+        <v>4.5414462638</v>
       </c>
       <c r="F27" t="n">
-        <v>4.32054326362583</v>
+        <v>4.3205432636</v>
       </c>
     </row>
     <row r="28">
@@ -9238,16 +9238,16 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>0.400493282924849</v>
+        <v>0.4004932829</v>
       </c>
       <c r="D28" t="n">
-        <v>1.04241358370963</v>
+        <v>1.0424135837</v>
       </c>
       <c r="E28" t="n">
-        <v>1.98008109225057</v>
+        <v>1.9800810923</v>
       </c>
       <c r="F28" t="n">
-        <v>1.98008109225057</v>
+        <v>1.9800810923</v>
       </c>
     </row>
     <row r="29">
@@ -9258,16 +9258,16 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.665255427746133</v>
+        <v>0.6652554277</v>
       </c>
       <c r="D29" t="n">
-        <v>0.68487238452605</v>
+        <v>0.6848723845</v>
       </c>
       <c r="E29" t="n">
-        <v>0.656786895232684</v>
+        <v>0.6567868952</v>
       </c>
       <c r="F29" t="n">
-        <v>0.678701506404972</v>
+        <v>0.6787015064</v>
       </c>
     </row>
     <row r="30">
@@ -9278,16 +9278,16 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>1.73299626207766</v>
+        <v>1.7329962621</v>
       </c>
       <c r="D30" t="n">
-        <v>2.38663429422671</v>
+        <v>2.3866342942</v>
       </c>
       <c r="E30" t="n">
-        <v>3.8558373510897</v>
+        <v>3.8558373511</v>
       </c>
       <c r="F30" t="n">
-        <v>3.72965508161141</v>
+        <v>3.7296550816</v>
       </c>
     </row>
     <row r="31">
@@ -9299,13 +9299,13 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>2.13601069314493</v>
+        <v>2.1360106931</v>
       </c>
       <c r="E31" t="n">
-        <v>5.87718877803048</v>
+        <v>5.877188778</v>
       </c>
       <c r="F31" t="n">
-        <v>9.02162892752985</v>
+        <v>9.0216289275</v>
       </c>
     </row>
     <row r="32">
@@ -9316,16 +9316,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>6.74239630288476</v>
+        <v>6.7423963029</v>
       </c>
       <c r="D32" t="n">
-        <v>4.94216634488887</v>
+        <v>4.9421663449</v>
       </c>
       <c r="E32" t="n">
-        <v>8.09689209804396</v>
+        <v>8.096892098</v>
       </c>
       <c r="F32" t="n">
-        <v>8.4554568651784</v>
+        <v>8.4554568652</v>
       </c>
     </row>
     <row r="33">
@@ -9336,16 +9336,16 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>1.17945626862311</v>
+        <v>1.1794562686</v>
       </c>
       <c r="D33" t="n">
-        <v>5.17370366056003</v>
+        <v>5.1737036606</v>
       </c>
       <c r="E33" t="n">
-        <v>4.3664883918015</v>
+        <v>4.3664883918</v>
       </c>
       <c r="F33" t="n">
-        <v>4.51195121642948</v>
+        <v>4.5119512164</v>
       </c>
     </row>
     <row r="34">
@@ -9356,16 +9356,16 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>1.4687406857825</v>
+        <v>1.4687406858</v>
       </c>
       <c r="D34" t="n">
-        <v>0.753633665023405</v>
+        <v>0.753633665</v>
       </c>
       <c r="E34" t="n">
-        <v>2.24972793732116</v>
+        <v>2.2497279373</v>
       </c>
       <c r="F34" t="n">
-        <v>2.46274598680459</v>
+        <v>2.4627459868</v>
       </c>
     </row>
     <row r="35">
@@ -9376,16 +9376,16 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>2.59980183841057</v>
+        <v>2.5998018384</v>
       </c>
       <c r="D35" t="n">
-        <v>5.63174954725349</v>
+        <v>5.6317495473</v>
       </c>
       <c r="E35" t="n">
-        <v>3.73708156136489</v>
+        <v>3.7370815614</v>
       </c>
       <c r="F35" t="n">
-        <v>3.88984053969013</v>
+        <v>3.8898405397</v>
       </c>
     </row>
     <row r="36">
@@ -9396,16 +9396,16 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>19.9378987825684</v>
+        <v>19.9378987826</v>
       </c>
       <c r="D36" t="n">
-        <v>18.2070840449274</v>
+        <v>18.2070840449</v>
       </c>
       <c r="E36" t="n">
-        <v>18.3831762678329</v>
+        <v>18.3831762678</v>
       </c>
       <c r="F36" t="n">
-        <v>16.4235503142916</v>
+        <v>16.4235503143</v>
       </c>
     </row>
     <row r="37">
@@ -9416,16 +9416,16 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>0.841136566016352</v>
+        <v>0.841136566</v>
       </c>
       <c r="D37" t="n">
-        <v>1.52367624372211</v>
+        <v>1.5236762437</v>
       </c>
       <c r="E37" t="n">
-        <v>1.55795930138447</v>
+        <v>1.5579593014</v>
       </c>
       <c r="F37" t="n">
-        <v>1.52037398291059</v>
+        <v>1.5203739829</v>
       </c>
     </row>
     <row r="38">
@@ -9436,16 +9436,16 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>4.9797743409648</v>
+        <v>4.979774341</v>
       </c>
       <c r="D38" t="n">
-        <v>3.85716429325876</v>
+        <v>3.8571642933</v>
       </c>
       <c r="E38" t="n">
-        <v>6.55507310181237</v>
+        <v>6.5550731018</v>
       </c>
       <c r="F38" t="n">
-        <v>7.57696373705108</v>
+        <v>7.5769637371</v>
       </c>
     </row>
     <row r="39">
@@ -9456,16 +9456,16 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>4.23114011722558</v>
+        <v>4.2311401172</v>
       </c>
       <c r="D39" t="n">
-        <v>7.8101631791759</v>
+        <v>7.8101631792</v>
       </c>
       <c r="E39" t="n">
-        <v>8.23471582162962</v>
+        <v>8.2347158216</v>
       </c>
       <c r="F39" t="n">
-        <v>7.89947880042083</v>
+        <v>7.8994788004</v>
       </c>
     </row>
     <row r="40">
@@ -9476,16 +9476,16 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23660579970196</v>
+        <v>1.2366057997</v>
       </c>
       <c r="D40" t="n">
-        <v>2.75294214001274</v>
+        <v>2.75294214</v>
       </c>
       <c r="E40" t="n">
-        <v>2.63797852588771</v>
+        <v>2.6379785259</v>
       </c>
       <c r="F40" t="n">
-        <v>2.75053102972414</v>
+        <v>2.7505310297</v>
       </c>
     </row>
     <row r="41">
@@ -9496,16 +9496,16 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>3.57653225784671</v>
+        <v>3.5765322578</v>
       </c>
       <c r="D41" t="n">
-        <v>3.74075767762387</v>
+        <v>3.7407576776</v>
       </c>
       <c r="E41" t="n">
-        <v>4.40916324272846</v>
+        <v>4.4091632427</v>
       </c>
       <c r="F41" t="n">
-        <v>4.22943418931836</v>
+        <v>4.2294341893</v>
       </c>
     </row>
     <row r="42">
@@ -9516,16 +9516,16 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>2.52778757199674</v>
+        <v>2.527787572</v>
       </c>
       <c r="D42" t="n">
-        <v>2.17918955104015</v>
+        <v>2.179189551</v>
       </c>
       <c r="E42" t="n">
-        <v>1.66201192193614</v>
+        <v>1.6620119219</v>
       </c>
       <c r="F42" t="n">
-        <v>1.64948132554547</v>
+        <v>1.6494813255</v>
       </c>
     </row>
     <row r="43">
@@ -9536,16 +9536,16 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>1.01587313747149</v>
+        <v>1.0158731375</v>
       </c>
       <c r="D43" t="n">
-        <v>1.4322796287736</v>
+        <v>1.4322796288</v>
       </c>
       <c r="E43" t="n">
-        <v>3.11096256105014</v>
+        <v>3.1109625611</v>
       </c>
       <c r="F43" t="n">
-        <v>3.52543570679362</v>
+        <v>3.5254357068</v>
       </c>
     </row>
     <row r="44">
@@ -9556,16 +9556,16 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>1.12523483126568</v>
+        <v>1.1252348313</v>
       </c>
       <c r="D44" t="n">
-        <v>1.10901165398839</v>
+        <v>1.109011654</v>
       </c>
       <c r="E44" t="n">
-        <v>3.43153319667647</v>
+        <v>3.4315331967</v>
       </c>
       <c r="F44" t="n">
-        <v>3.51737676801882</v>
+        <v>3.517376768</v>
       </c>
     </row>
     <row r="45">
@@ -9577,13 +9577,13 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="n">
-        <v>2.52302899106254</v>
+        <v>2.5230289911</v>
       </c>
       <c r="E45" t="n">
-        <v>2.31672327353265</v>
+        <v>2.3167232735</v>
       </c>
       <c r="F45" t="n">
-        <v>2.69141453908348</v>
+        <v>2.6914145391</v>
       </c>
     </row>
     <row r="46">
@@ -9594,16 +9594,16 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>3.76319619490032</v>
+        <v>3.7631961949</v>
       </c>
       <c r="D46" t="n">
-        <v>3.5618048928175</v>
+        <v>3.5618048928</v>
       </c>
       <c r="E46" t="n">
-        <v>3.38539847578133</v>
+        <v>3.3853984758</v>
       </c>
       <c r="F46" t="n">
-        <v>2.76238988311454</v>
+        <v>2.7623898831</v>
       </c>
     </row>
     <row r="47">
@@ -9614,16 +9614,16 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>3.19766920127068</v>
+        <v>3.1976692013</v>
       </c>
       <c r="D47" t="n">
-        <v>2.29806886070733</v>
+        <v>2.2980688607</v>
       </c>
       <c r="E47" t="n">
-        <v>1.72988389352117</v>
+        <v>1.7298838935</v>
       </c>
       <c r="F47" t="n">
-        <v>1.60804946512096</v>
+        <v>1.6080494651</v>
       </c>
     </row>
     <row r="48">
@@ -9634,16 +9634,16 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>2.61563435062145</v>
+        <v>2.6156343506</v>
       </c>
       <c r="D48" t="n">
-        <v>8.26135827921442</v>
+        <v>8.2613582792</v>
       </c>
       <c r="E48" t="n">
-        <v>8.08378554514719</v>
+        <v>8.0837855451</v>
       </c>
       <c r="F48" t="n">
-        <v>7.35770652743574</v>
+        <v>7.3577065274</v>
       </c>
     </row>
     <row r="49">
@@ -9654,16 +9654,16 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>3.71954949976892</v>
+        <v>3.7195494998</v>
       </c>
       <c r="D49" t="n">
-        <v>3.78901606870482</v>
+        <v>3.7890160687</v>
       </c>
       <c r="E49" t="n">
-        <v>3.49326121712175</v>
+        <v>3.4932612171</v>
       </c>
       <c r="F49" t="n">
-        <v>4.98018107081247</v>
+        <v>4.9801810708</v>
       </c>
     </row>
     <row r="50">
@@ -9674,16 +9674,16 @@
         <v>103</v>
       </c>
       <c r="C50" t="n">
-        <v>3.97633833251124</v>
+        <v>3.9763383325</v>
       </c>
       <c r="D50" t="n">
-        <v>3.20824605777204</v>
+        <v>3.2082460578</v>
       </c>
       <c r="E50" t="n">
-        <v>2.80139621052229</v>
+        <v>2.8013962105</v>
       </c>
       <c r="F50" t="n">
-        <v>2.8577377235137</v>
+        <v>2.8577377235</v>
       </c>
     </row>
     <row r="51">
@@ -9694,16 +9694,16 @@
         <v>105</v>
       </c>
       <c r="C51" t="n">
-        <v>2.02749541563962</v>
+        <v>2.0274954156</v>
       </c>
       <c r="D51" t="n">
-        <v>4.6552024663231</v>
+        <v>4.6552024663</v>
       </c>
       <c r="E51" t="n">
-        <v>4.05552911989711</v>
+        <v>4.0555291199</v>
       </c>
       <c r="F51" t="n">
-        <v>4.22112287862409</v>
+        <v>4.2211228786</v>
       </c>
     </row>
     <row r="52">
@@ -9714,16 +9714,16 @@
         <v>107</v>
       </c>
       <c r="C52" t="n">
-        <v>7.41282643416469</v>
+        <v>7.4128264342</v>
       </c>
       <c r="D52" t="n">
-        <v>6.7099863038134</v>
+        <v>6.7099863038</v>
       </c>
       <c r="E52" t="n">
-        <v>5.74620862403684</v>
+        <v>5.746208624</v>
       </c>
       <c r="F52" t="n">
-        <v>6.20083513279232</v>
+        <v>6.2008351328</v>
       </c>
     </row>
     <row r="53">
@@ -9734,16 +9734,16 @@
         <v>109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.699480693396352</v>
+        <v>0.6994806934</v>
       </c>
       <c r="D53" t="n">
-        <v>1.00507112603409</v>
+        <v>1.005071126</v>
       </c>
       <c r="E53" t="n">
-        <v>0.858611292053306</v>
+        <v>0.8586112921</v>
       </c>
       <c r="F53" t="n">
-        <v>0.876832771442001</v>
+        <v>0.8768327714</v>
       </c>
     </row>
     <row r="54">
@@ -9754,16 +9754,16 @@
         <v>111</v>
       </c>
       <c r="C54" t="n">
-        <v>7.05578556266699</v>
+        <v>7.0557855627</v>
       </c>
       <c r="D54" t="n">
-        <v>7.05508616104547</v>
+        <v>7.055086161</v>
       </c>
       <c r="E54" t="n">
-        <v>6.27901832179725</v>
+        <v>6.2790183218</v>
       </c>
       <c r="F54" t="n">
-        <v>4.95356494359345</v>
+        <v>4.9535649436</v>
       </c>
     </row>
     <row r="55">
@@ -9774,16 +9774,16 @@
         <v>113</v>
       </c>
       <c r="C55" t="n">
-        <v>0.742421785344411</v>
+        <v>0.7424217853</v>
       </c>
       <c r="D55" t="n">
-        <v>6.93412196259664</v>
+        <v>6.9341219626</v>
       </c>
       <c r="E55" t="n">
-        <v>6.02803224769508</v>
+        <v>6.0280322477</v>
       </c>
       <c r="F55" t="n">
-        <v>5.95396484908465</v>
+        <v>5.9539648491</v>
       </c>
     </row>
     <row r="56">
@@ -9794,16 +9794,16 @@
         <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>1.55891392593409</v>
+        <v>1.5589139259</v>
       </c>
       <c r="D56" t="n">
-        <v>2.19979340907254</v>
+        <v>2.1997934091</v>
       </c>
       <c r="E56" t="n">
-        <v>3.55293109387484</v>
+        <v>3.5529310939</v>
       </c>
       <c r="F56" t="n">
-        <v>3.71846899022817</v>
+        <v>3.7184689902</v>
       </c>
     </row>
     <row r="57">
@@ -9814,16 +9814,16 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
-        <v>1.98112140123323</v>
+        <v>1.9811214012</v>
       </c>
       <c r="D57" t="n">
-        <v>4.37119562487305</v>
+        <v>4.3711956249</v>
       </c>
       <c r="E57" t="n">
-        <v>4.4836952643275</v>
+        <v>4.4836952643</v>
       </c>
       <c r="F57" t="n">
-        <v>4.67596575653247</v>
+        <v>4.6759657565</v>
       </c>
     </row>
     <row r="58">
@@ -9834,16 +9834,16 @@
         <v>119</v>
       </c>
       <c r="C58" t="n">
-        <v>1.07457368973821</v>
+        <v>1.0745736897</v>
       </c>
       <c r="D58" t="n">
-        <v>7.69863071357823</v>
+        <v>7.6986307136</v>
       </c>
       <c r="E58" t="n">
-        <v>6.13398284037743</v>
+        <v>6.1339828404</v>
       </c>
       <c r="F58" t="n">
-        <v>7.5746968973113</v>
+        <v>7.5746968973</v>
       </c>
     </row>
     <row r="59">
@@ -9854,16 +9854,16 @@
         <v>121</v>
       </c>
       <c r="C59" t="n">
-        <v>2.04310738189506</v>
+        <v>2.0431073819</v>
       </c>
       <c r="D59" t="n">
-        <v>3.2364640011854</v>
+        <v>3.2364640012</v>
       </c>
       <c r="E59" t="n">
-        <v>2.26945881537078</v>
+        <v>2.2694588154</v>
       </c>
       <c r="F59" t="n">
-        <v>2.38497657703602</v>
+        <v>2.384976577</v>
       </c>
     </row>
     <row r="60">
@@ -9874,16 +9874,16 @@
         <v>123</v>
       </c>
       <c r="C60" t="n">
-        <v>4.51819441873506</v>
+        <v>4.5181944187</v>
       </c>
       <c r="D60" t="n">
-        <v>2.67956774635823</v>
+        <v>2.6795677464</v>
       </c>
       <c r="E60" t="n">
-        <v>1.16006168061354</v>
+        <v>1.1600616806</v>
       </c>
       <c r="F60" t="n">
-        <v>1.57750004485995</v>
+        <v>1.5775000449</v>
       </c>
     </row>
     <row r="61">
@@ -9894,16 +9894,16 @@
         <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>1.05192443698609</v>
+        <v>1.051924437</v>
       </c>
       <c r="D61" t="n">
-        <v>1.00991767263569</v>
+        <v>1.0099176726</v>
       </c>
       <c r="E61" t="n">
-        <v>1.27746093792872</v>
+        <v>1.2774609379</v>
       </c>
       <c r="F61" t="n">
-        <v>1.39202993645979</v>
+        <v>1.3920299365</v>
       </c>
     </row>
     <row r="62">
@@ -9914,16 +9914,16 @@
         <v>127</v>
       </c>
       <c r="C62" t="n">
-        <v>1.33667430184495</v>
+        <v>1.3366743018</v>
       </c>
       <c r="D62" t="n">
-        <v>2.40795263818907</v>
+        <v>2.4079526382</v>
       </c>
       <c r="E62" t="n">
-        <v>2.42074518389617</v>
+        <v>2.4207451839</v>
       </c>
       <c r="F62" t="n">
-        <v>2.73544927106258</v>
+        <v>2.7354492711</v>
       </c>
     </row>
     <row r="63">
@@ -9934,16 +9934,16 @@
         <v>129</v>
       </c>
       <c r="C63" t="n">
-        <v>2.00738608004849</v>
+        <v>2.00738608</v>
       </c>
       <c r="D63" t="n">
-        <v>2.12122508298982</v>
+        <v>2.121225083</v>
       </c>
       <c r="E63" t="n">
-        <v>3.35446695809468</v>
+        <v>3.3544669581</v>
       </c>
       <c r="F63" t="n">
-        <v>3.48199024646151</v>
+        <v>3.4819902465</v>
       </c>
     </row>
     <row r="64">
@@ -9954,16 +9954,16 @@
         <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>2.67013136434165</v>
+        <v>2.6701313643</v>
       </c>
       <c r="D64" t="n">
-        <v>6.14521173238664</v>
+        <v>6.1452117324</v>
       </c>
       <c r="E64" t="n">
-        <v>4.79386888752066</v>
+        <v>4.7938688875</v>
       </c>
       <c r="F64" t="n">
-        <v>5.32025990115726</v>
+        <v>5.3202599012</v>
       </c>
     </row>
     <row r="65">
@@ -9974,16 +9974,16 @@
         <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>1.16054879286392</v>
+        <v>1.1605487929</v>
       </c>
       <c r="D65" t="n">
-        <v>0.93116801162313</v>
+        <v>0.9311680116</v>
       </c>
       <c r="E65" t="n">
-        <v>3.75161249353571</v>
+        <v>3.7516124935</v>
       </c>
       <c r="F65" t="n">
-        <v>5.0450754230459</v>
+        <v>5.045075423</v>
       </c>
     </row>
     <row r="66">
@@ -9994,16 +9994,16 @@
         <v>135</v>
       </c>
       <c r="C66" t="n">
-        <v>0.875888105428788</v>
+        <v>0.8758881054</v>
       </c>
       <c r="D66" t="n">
-        <v>1.28841108363933</v>
+        <v>1.2884110836</v>
       </c>
       <c r="E66" t="n">
-        <v>0.977798637482043</v>
+        <v>0.9777986375</v>
       </c>
       <c r="F66" t="n">
-        <v>1.4400552143352</v>
+        <v>1.4400552143</v>
       </c>
     </row>
     <row r="67">
@@ -10014,16 +10014,16 @@
         <v>137</v>
       </c>
       <c r="C67" t="n">
-        <v>2.68461947432581</v>
+        <v>2.6846194743</v>
       </c>
       <c r="D67" t="n">
-        <v>6.30105079926001</v>
+        <v>6.3010507993</v>
       </c>
       <c r="E67" t="n">
-        <v>5.14965905892906</v>
+        <v>5.1496590589</v>
       </c>
       <c r="F67" t="n">
-        <v>3.62854885305607</v>
+        <v>3.6285488531</v>
       </c>
     </row>
     <row r="68">
@@ -10034,16 +10034,16 @@
         <v>139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.420649190369905</v>
+        <v>0.4206491904</v>
       </c>
       <c r="D68" t="n">
-        <v>0.570147779582725</v>
+        <v>0.5701477796</v>
       </c>
       <c r="E68" t="n">
-        <v>13.6717238241783</v>
+        <v>13.6717238242</v>
       </c>
       <c r="F68" t="n">
-        <v>17.305157417963</v>
+        <v>17.305157418</v>
       </c>
     </row>
     <row r="69">
@@ -10054,16 +10054,16 @@
         <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>1.09423505797314</v>
+        <v>1.094235058</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0369067896807</v>
+        <v>1.0369067897</v>
       </c>
       <c r="E69" t="n">
-        <v>0.921092671814231</v>
+        <v>0.9210926718</v>
       </c>
       <c r="F69" t="n">
-        <v>0.928820802716864</v>
+        <v>0.9288208027</v>
       </c>
     </row>
     <row r="70">
@@ -10074,16 +10074,16 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>7.23947507557163</v>
+        <v>7.2394750756</v>
       </c>
       <c r="D70" t="n">
-        <v>1.55231911114137</v>
+        <v>1.5523191111</v>
       </c>
       <c r="E70" t="n">
-        <v>3.60554532790111</v>
+        <v>3.6055453279</v>
       </c>
       <c r="F70" t="n">
-        <v>3.26643157124646</v>
+        <v>3.2664315712</v>
       </c>
     </row>
     <row r="71">
@@ -10094,16 +10094,16 @@
         <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>1.45968923918592</v>
+        <v>1.4596892392</v>
       </c>
       <c r="D71" t="n">
-        <v>1.42210150921105</v>
+        <v>1.4221015092</v>
       </c>
       <c r="E71" t="n">
-        <v>6.67156156041172</v>
+        <v>6.6715615604</v>
       </c>
       <c r="F71" t="n">
-        <v>7.01452070185085</v>
+        <v>7.0145207019</v>
       </c>
     </row>
     <row r="72">
@@ -10114,16 +10114,16 @@
         <v>147</v>
       </c>
       <c r="C72" t="n">
-        <v>1.5066971430959</v>
+        <v>1.5066971431</v>
       </c>
       <c r="D72" t="n">
-        <v>2.65734894866625</v>
+        <v>2.6573489487</v>
       </c>
       <c r="E72" t="n">
-        <v>1.80549472268488</v>
+        <v>1.8054947227</v>
       </c>
       <c r="F72" t="n">
-        <v>2.02271432981579</v>
+        <v>2.0227143298</v>
       </c>
     </row>
     <row r="73">
@@ -10134,16 +10134,16 @@
         <v>149</v>
       </c>
       <c r="C73" t="n">
-        <v>1.50513414274401</v>
+        <v>1.5051341427</v>
       </c>
       <c r="D73" t="n">
-        <v>2.07641469758833</v>
+        <v>2.0764146976</v>
       </c>
       <c r="E73" t="n">
-        <v>1.36073846969191</v>
+        <v>1.3607384697</v>
       </c>
       <c r="F73" t="n">
-        <v>1.14908200553129</v>
+        <v>1.1490820055</v>
       </c>
     </row>
     <row r="74">
@@ -10154,16 +10154,16 @@
         <v>151</v>
       </c>
       <c r="C74" t="n">
-        <v>10.4545041821487</v>
+        <v>10.4545041821</v>
       </c>
       <c r="D74" t="n">
-        <v>17.3269502258801</v>
+        <v>17.3269502259</v>
       </c>
       <c r="E74" t="n">
-        <v>7.11299637242821</v>
+        <v>7.1129963724</v>
       </c>
       <c r="F74" t="n">
-        <v>8.1119954211216</v>
+        <v>8.1119954211</v>
       </c>
     </row>
     <row r="75">
@@ -10174,16 +10174,16 @@
         <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>3.4579202363056</v>
+        <v>3.4579202363</v>
       </c>
       <c r="D75" t="n">
-        <v>5.07147983105304</v>
+        <v>5.0714798311</v>
       </c>
       <c r="E75" t="n">
-        <v>6.25487827216076</v>
+        <v>6.2548782722</v>
       </c>
       <c r="F75" t="n">
-        <v>7.66636208262902</v>
+        <v>7.6663620826</v>
       </c>
     </row>
     <row r="76">
@@ -10194,16 +10194,16 @@
         <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>1.49804987249831</v>
+        <v>1.4980498725</v>
       </c>
       <c r="D76" t="n">
-        <v>2.1891114335568</v>
+        <v>2.1891114336</v>
       </c>
       <c r="E76" t="n">
-        <v>2.17392445637349</v>
+        <v>2.1739244564</v>
       </c>
       <c r="F76" t="n">
-        <v>2.46706951104379</v>
+        <v>2.467069511</v>
       </c>
     </row>
     <row r="77">
@@ -10214,16 +10214,16 @@
         <v>157</v>
       </c>
       <c r="C77" t="n">
-        <v>7.81659352724932</v>
+        <v>7.8165935272</v>
       </c>
       <c r="D77" t="n">
-        <v>3.38454986288062</v>
+        <v>3.3845498629</v>
       </c>
       <c r="E77" t="n">
-        <v>8.37023030890677</v>
+        <v>8.3702303089</v>
       </c>
       <c r="F77" t="n">
-        <v>9.59501905159843</v>
+        <v>9.5950190516</v>
       </c>
     </row>
     <row r="78">
@@ -10234,16 +10234,16 @@
         <v>159</v>
       </c>
       <c r="C78" t="n">
-        <v>6.7290185091135</v>
+        <v>6.7290185091</v>
       </c>
       <c r="D78" t="n">
-        <v>3.27195134316653</v>
+        <v>3.2719513432</v>
       </c>
       <c r="E78" t="n">
-        <v>9.11688544644748</v>
+        <v>9.1168854464</v>
       </c>
       <c r="F78" t="n">
-        <v>9.79110491839096</v>
+        <v>9.7911049184</v>
       </c>
     </row>
     <row r="79">
@@ -10254,16 +10254,16 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>1.45874872809317</v>
+        <v>1.4587487281</v>
       </c>
       <c r="D79" t="n">
-        <v>2.74611733846424</v>
+        <v>2.7461173385</v>
       </c>
       <c r="E79" t="n">
-        <v>2.23535528554594</v>
+        <v>2.2353552855</v>
       </c>
       <c r="F79" t="n">
-        <v>2.36779031879969</v>
+        <v>2.3677903188</v>
       </c>
     </row>
     <row r="80">
@@ -10274,16 +10274,16 @@
         <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>1.87547120936424</v>
+        <v>1.8754712094</v>
       </c>
       <c r="D80" t="n">
-        <v>1.28287146209061</v>
+        <v>1.2828714621</v>
       </c>
       <c r="E80" t="n">
-        <v>4.27283833008784</v>
+        <v>4.2728383301</v>
       </c>
       <c r="F80" t="n">
-        <v>4.09374665024683</v>
+        <v>4.0937466502</v>
       </c>
     </row>
     <row r="81">
@@ -10294,16 +10294,16 @@
         <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>7.25601847450431</v>
+        <v>7.2560184745</v>
       </c>
       <c r="D81" t="n">
-        <v>4.3002207909497</v>
+        <v>4.3002207909</v>
       </c>
       <c r="E81" t="n">
-        <v>9.59958405122159</v>
+        <v>9.5995840512</v>
       </c>
       <c r="F81" t="n">
-        <v>10.6734313928035</v>
+        <v>10.6734313928</v>
       </c>
     </row>
     <row r="82">
@@ -10314,16 +10314,16 @@
         <v>167</v>
       </c>
       <c r="C82" t="n">
-        <v>2.72893757859057</v>
+        <v>2.7289375786</v>
       </c>
       <c r="D82" t="n">
-        <v>3.85578215546341</v>
+        <v>3.8557821555</v>
       </c>
       <c r="E82" t="n">
-        <v>4.90867924277192</v>
+        <v>4.9086792428</v>
       </c>
       <c r="F82" t="n">
-        <v>3.55938305419318</v>
+        <v>3.5593830542</v>
       </c>
     </row>
     <row r="83">
@@ -10334,16 +10334,16 @@
         <v>169</v>
       </c>
       <c r="C83" t="n">
-        <v>2.98049247432227</v>
+        <v>2.9804924743</v>
       </c>
       <c r="D83" t="n">
-        <v>7.01680831042541</v>
+        <v>7.0168083104</v>
       </c>
       <c r="E83" t="n">
-        <v>4.64910045939559</v>
+        <v>4.6491004594</v>
       </c>
       <c r="F83" t="n">
-        <v>4.91535047113218</v>
+        <v>4.9153504711</v>
       </c>
     </row>
     <row r="84">
@@ -10354,16 +10354,16 @@
         <v>171</v>
       </c>
       <c r="C84" t="n">
-        <v>1.64393557349299</v>
+        <v>1.6439355735</v>
       </c>
       <c r="D84" t="n">
-        <v>4.65135874177613</v>
+        <v>4.6513587418</v>
       </c>
       <c r="E84" t="n">
-        <v>4.18685209967334</v>
+        <v>4.1868520997</v>
       </c>
       <c r="F84" t="n">
-        <v>4.31135615759698</v>
+        <v>4.3113561576</v>
       </c>
     </row>
     <row r="85">
@@ -10374,16 +10374,16 @@
         <v>173</v>
       </c>
       <c r="C85" t="n">
-        <v>9.96354387541893</v>
+        <v>9.9635438754</v>
       </c>
       <c r="D85" t="n">
-        <v>10.3950619838545</v>
+        <v>10.3950619839</v>
       </c>
       <c r="E85" t="n">
-        <v>8.74958521552525</v>
+        <v>8.7495852155</v>
       </c>
       <c r="F85" t="n">
-        <v>9.45616415702485</v>
+        <v>9.456164157</v>
       </c>
     </row>
     <row r="86">
@@ -10394,16 +10394,16 @@
         <v>175</v>
       </c>
       <c r="C86" t="n">
-        <v>1.29826067822886</v>
+        <v>1.2982606782</v>
       </c>
       <c r="D86" t="n">
-        <v>2.62331725315686</v>
+        <v>2.6233172532</v>
       </c>
       <c r="E86" t="n">
-        <v>2.5324269187771</v>
+        <v>2.5324269188</v>
       </c>
       <c r="F86" t="n">
-        <v>2.61385286865884</v>
+        <v>2.6138528687</v>
       </c>
     </row>
     <row r="87">
@@ -10414,16 +10414,16 @@
         <v>177</v>
       </c>
       <c r="C87" t="n">
-        <v>2.68668143265248</v>
+        <v>2.6866814327</v>
       </c>
       <c r="D87" t="n">
-        <v>5.98984273793014</v>
+        <v>5.9898427379</v>
       </c>
       <c r="E87" t="n">
-        <v>7.13061609557099</v>
+        <v>7.1306160956</v>
       </c>
       <c r="F87" t="n">
-        <v>7.7864782571486</v>
+        <v>7.7864782571</v>
       </c>
     </row>
     <row r="88">
@@ -10436,10 +10436,10 @@
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" t="n">
-        <v>2.62710653611025</v>
+        <v>2.6271065361</v>
       </c>
       <c r="F88" t="n">
-        <v>4.05358076951178</v>
+        <v>4.0535807695</v>
       </c>
     </row>
     <row r="89">
@@ -10450,16 +10450,16 @@
         <v>181</v>
       </c>
       <c r="C89" t="n">
-        <v>1.29327465938808</v>
+        <v>1.2932746594</v>
       </c>
       <c r="D89" t="n">
-        <v>4.12491206748337</v>
+        <v>4.1249120675</v>
       </c>
       <c r="E89" t="n">
-        <v>3.16162567957561</v>
+        <v>3.1616256796</v>
       </c>
       <c r="F89" t="n">
-        <v>3.32260590804598</v>
+        <v>3.322605908</v>
       </c>
     </row>
     <row r="90">
@@ -10470,16 +10470,16 @@
         <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.697081087876467</v>
+        <v>0.6970810879</v>
       </c>
       <c r="D90" t="n">
-        <v>0.669253144245011</v>
+        <v>0.6692531442</v>
       </c>
       <c r="E90" t="n">
-        <v>1.87838186757512</v>
+        <v>1.8783818676</v>
       </c>
       <c r="F90" t="n">
-        <v>1.9282106640028</v>
+        <v>1.928210664</v>
       </c>
     </row>
     <row r="91">
@@ -10490,16 +10490,16 @@
         <v>185</v>
       </c>
       <c r="C91" t="n">
-        <v>0.924028338945623</v>
+        <v>0.9240283389</v>
       </c>
       <c r="D91" t="n">
-        <v>2.44310999883942</v>
+        <v>2.4431099988</v>
       </c>
       <c r="E91" t="n">
-        <v>2.39743270914178</v>
+        <v>2.3974327091</v>
       </c>
       <c r="F91" t="n">
-        <v>1.84811902263002</v>
+        <v>1.8481190226</v>
       </c>
     </row>
     <row r="92">
@@ -10510,16 +10510,16 @@
         <v>187</v>
       </c>
       <c r="C92" t="n">
-        <v>1.20899511016608</v>
+        <v>1.2089951102</v>
       </c>
       <c r="D92" t="n">
-        <v>5.59757530721382</v>
+        <v>5.5975753072</v>
       </c>
       <c r="E92" t="n">
-        <v>5.59757530721382</v>
+        <v>5.5975753072</v>
       </c>
       <c r="F92" t="n">
-        <v>5.87496429839594</v>
+        <v>5.8749642984</v>
       </c>
     </row>
     <row r="93">
@@ -10530,16 +10530,16 @@
         <v>189</v>
       </c>
       <c r="C93" t="n">
-        <v>1.08698209955653</v>
+        <v>1.0869820996</v>
       </c>
       <c r="D93" t="n">
-        <v>3.72392367864222</v>
+        <v>3.7239236786</v>
       </c>
       <c r="E93" t="n">
-        <v>3.5047664410061</v>
+        <v>3.504766441</v>
       </c>
       <c r="F93" t="n">
-        <v>3.63283135448559</v>
+        <v>3.6328313545</v>
       </c>
     </row>
     <row r="94">
@@ -10550,16 +10550,16 @@
         <v>191</v>
       </c>
       <c r="C94" t="n">
-        <v>1.44758191074188</v>
+        <v>1.4475819107</v>
       </c>
       <c r="D94" t="n">
-        <v>3.26896744204312</v>
+        <v>3.268967442</v>
       </c>
       <c r="E94" t="n">
-        <v>3.35581179635331</v>
+        <v>3.3558117964</v>
       </c>
       <c r="F94" t="n">
-        <v>3.47003310454601</v>
+        <v>3.4700331045</v>
       </c>
     </row>
     <row r="95">
@@ -10570,16 +10570,16 @@
         <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09751015687993</v>
+        <v>1.0975101569</v>
       </c>
       <c r="D95" t="n">
-        <v>5.72056961723275</v>
+        <v>5.7205696172</v>
       </c>
       <c r="E95" t="n">
-        <v>4.99299026183473</v>
+        <v>4.9929902618</v>
       </c>
       <c r="F95" t="n">
-        <v>4.98654369296448</v>
+        <v>4.986543693</v>
       </c>
     </row>
     <row r="96">
@@ -10590,16 +10590,16 @@
         <v>195</v>
       </c>
       <c r="C96" t="n">
-        <v>0.643560464339031</v>
+        <v>0.6435604643</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03031536730488</v>
+        <v>2.0303153673</v>
       </c>
       <c r="E96" t="n">
-        <v>3.39859326786538</v>
+        <v>3.3985932679</v>
       </c>
       <c r="F96" t="n">
-        <v>5.57687646186236</v>
+        <v>5.5768764619</v>
       </c>
     </row>
     <row r="97">
@@ -10610,16 +10610,16 @@
         <v>197</v>
       </c>
       <c r="C97" t="n">
-        <v>0.916230221275216</v>
+        <v>0.9162302213</v>
       </c>
       <c r="D97" t="n">
-        <v>0.89471255628149</v>
+        <v>0.8947125563</v>
       </c>
       <c r="E97" t="n">
-        <v>0.982883260164094</v>
+        <v>0.9828832602</v>
       </c>
       <c r="F97" t="n">
-        <v>0.990125622655605</v>
+        <v>0.9901256227</v>
       </c>
     </row>
     <row r="98">
@@ -10630,16 +10630,16 @@
         <v>199</v>
       </c>
       <c r="C98" t="n">
-        <v>3.79645149070949</v>
+        <v>3.7964514907</v>
       </c>
       <c r="D98" t="n">
-        <v>2.79798732515554</v>
+        <v>2.7979873252</v>
       </c>
       <c r="E98" t="n">
-        <v>3.91117065785579</v>
+        <v>3.9111706579</v>
       </c>
       <c r="F98" t="n">
-        <v>3.75009311841201</v>
+        <v>3.7500931184</v>
       </c>
     </row>
     <row r="99">
@@ -10650,16 +10650,16 @@
         <v>201</v>
       </c>
       <c r="C99" t="n">
-        <v>1.8303038832268</v>
+        <v>1.8303038832</v>
       </c>
       <c r="D99" t="n">
-        <v>2.46911930384882</v>
+        <v>2.4691193038</v>
       </c>
       <c r="E99" t="n">
-        <v>2.85904075775747</v>
+        <v>2.8590407578</v>
       </c>
       <c r="F99" t="n">
-        <v>3.22706886084531</v>
+        <v>3.2270688608</v>
       </c>
     </row>
     <row r="100">
@@ -10670,16 +10670,16 @@
         <v>203</v>
       </c>
       <c r="C100" t="n">
-        <v>1.4039649565539</v>
+        <v>1.4039649566</v>
       </c>
       <c r="D100" t="n">
-        <v>1.23274757912762</v>
+        <v>1.2327475791</v>
       </c>
       <c r="E100" t="n">
-        <v>2.47308774565781</v>
+        <v>2.4730877457</v>
       </c>
       <c r="F100" t="n">
-        <v>2.6105554884783</v>
+        <v>2.6105554885</v>
       </c>
     </row>
     <row r="101">
@@ -10690,16 +10690,16 @@
         <v>205</v>
       </c>
       <c r="C101" t="n">
-        <v>3.5006983291044</v>
+        <v>3.5006983291</v>
       </c>
       <c r="D101" t="n">
-        <v>5.71435531469133</v>
+        <v>5.7143553147</v>
       </c>
       <c r="E101" t="n">
-        <v>4.03077026540326</v>
+        <v>4.0307702654</v>
       </c>
       <c r="F101" t="n">
-        <v>4.13281888231894</v>
+        <v>4.1328188823</v>
       </c>
     </row>
     <row r="102">
@@ -10710,16 +10710,16 @@
         <v>207</v>
       </c>
       <c r="C102" t="n">
-        <v>0.800269110336781</v>
+        <v>0.8002691103</v>
       </c>
       <c r="D102" t="n">
-        <v>2.9360713119936</v>
+        <v>2.936071312</v>
       </c>
       <c r="E102" t="n">
-        <v>2.40977535465554</v>
+        <v>2.4097753547</v>
       </c>
       <c r="F102" t="n">
-        <v>2.55643730447459</v>
+        <v>2.5564373045</v>
       </c>
     </row>
     <row r="103">
@@ -10730,16 +10730,16 @@
         <v>209</v>
       </c>
       <c r="C103" t="n">
-        <v>2.64051776762427</v>
+        <v>2.6405177676</v>
       </c>
       <c r="D103" t="n">
-        <v>14.4180086073137</v>
+        <v>14.4180086073</v>
       </c>
       <c r="E103" t="n">
-        <v>3.54172275359374</v>
+        <v>3.5417227536</v>
       </c>
       <c r="F103" t="n">
-        <v>3.37787901650078</v>
+        <v>3.3778790165</v>
       </c>
     </row>
     <row r="104">
@@ -10750,16 +10750,16 @@
         <v>211</v>
       </c>
       <c r="C104" t="n">
-        <v>2.10260323653912</v>
+        <v>2.1026032365</v>
       </c>
       <c r="D104" t="n">
-        <v>4.64274129193077</v>
+        <v>4.6427412919</v>
       </c>
       <c r="E104" t="n">
-        <v>3.70032771817466</v>
+        <v>3.7003277182</v>
       </c>
       <c r="F104" t="n">
-        <v>3.77615265600204</v>
+        <v>3.776152656</v>
       </c>
     </row>
     <row r="105">
@@ -10770,16 +10770,16 @@
         <v>213</v>
       </c>
       <c r="C105" t="n">
-        <v>1.57969870353553</v>
+        <v>1.5796987035</v>
       </c>
       <c r="D105" t="n">
-        <v>2.44622965880324</v>
+        <v>2.4462296588</v>
       </c>
       <c r="E105" t="n">
-        <v>2.14109823798706</v>
+        <v>2.141098238</v>
       </c>
       <c r="F105" t="n">
-        <v>2.14728269152586</v>
+        <v>2.1472826915</v>
       </c>
     </row>
     <row r="106">
@@ -10790,16 +10790,16 @@
         <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>1.50963967547024</v>
+        <v>1.5096396755</v>
       </c>
       <c r="D106" t="n">
-        <v>2.0063721847498</v>
+        <v>2.0063721847</v>
       </c>
       <c r="E106" t="n">
-        <v>3.80763729074887</v>
+        <v>3.8076372907</v>
       </c>
       <c r="F106" t="n">
-        <v>3.79372320192342</v>
+        <v>3.7937232019</v>
       </c>
     </row>
     <row r="107">
@@ -10810,16 +10810,16 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
-        <v>2.37152964949676</v>
+        <v>2.3715296495</v>
       </c>
       <c r="D107" t="n">
-        <v>4.1923432759618</v>
+        <v>4.192343276</v>
       </c>
       <c r="E107" t="n">
-        <v>2.6112534577382</v>
+        <v>2.6112534577</v>
       </c>
       <c r="F107" t="n">
-        <v>2.97523529524625</v>
+        <v>2.9752352952</v>
       </c>
     </row>
     <row r="108">
@@ -10830,16 +10830,16 @@
         <v>219</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03430064146033</v>
+        <v>1.0343006415</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21545796628587</v>
+        <v>1.2154579663</v>
       </c>
       <c r="E108" t="n">
-        <v>2.40980334771376</v>
+        <v>2.4098033477</v>
       </c>
       <c r="F108" t="n">
-        <v>2.07123083939738</v>
+        <v>2.0712308394</v>
       </c>
     </row>
     <row r="109">
@@ -10850,16 +10850,16 @@
         <v>221</v>
       </c>
       <c r="C109" t="n">
-        <v>2.35815824922168</v>
+        <v>2.3581582492</v>
       </c>
       <c r="D109" t="n">
-        <v>4.7230689386606</v>
+        <v>4.7230689387</v>
       </c>
       <c r="E109" t="n">
-        <v>6.04081303700048</v>
+        <v>6.040813037</v>
       </c>
       <c r="F109" t="n">
-        <v>6.80982220540215</v>
+        <v>6.8098222054</v>
       </c>
     </row>
     <row r="110">
@@ -10870,16 +10870,16 @@
         <v>223</v>
       </c>
       <c r="C110" t="n">
-        <v>12.1755745751231</v>
+        <v>12.1755745751</v>
       </c>
       <c r="D110" t="n">
-        <v>15.5405132568804</v>
+        <v>15.5405132569</v>
       </c>
       <c r="E110" t="n">
-        <v>16.6159991033387</v>
+        <v>16.6159991033</v>
       </c>
       <c r="F110" t="n">
-        <v>17.2222915674363</v>
+        <v>17.2222915674</v>
       </c>
     </row>
     <row r="111">
@@ -10890,16 +10890,16 @@
         <v>225</v>
       </c>
       <c r="C111" t="n">
-        <v>0.400370414329098</v>
+        <v>0.4003704143</v>
       </c>
       <c r="D111" t="n">
-        <v>1.61606856129436</v>
+        <v>1.6160685613</v>
       </c>
       <c r="E111" t="n">
-        <v>1.59404714101017</v>
+        <v>1.594047141</v>
       </c>
       <c r="F111" t="n">
-        <v>1.65101867753955</v>
+        <v>1.6510186775</v>
       </c>
     </row>
     <row r="112">
@@ -10910,16 +10910,16 @@
         <v>227</v>
       </c>
       <c r="C112" t="n">
-        <v>1.47084318735043</v>
+        <v>1.4708431874</v>
       </c>
       <c r="D112" t="n">
-        <v>1.56540170882569</v>
+        <v>1.5654017088</v>
       </c>
       <c r="E112" t="n">
-        <v>4.24995127853766</v>
+        <v>4.2499512785</v>
       </c>
       <c r="F112" t="n">
-        <v>4.73256551473885</v>
+        <v>4.7325655147</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -6582,7 +6582,7 @@
         <v>7</v>
       </c>
       <c r="E318" t="n">
-        <v>9.59958405122159</v>
+        <v>5.01609503350996</v>
       </c>
     </row>
     <row r="319">
@@ -6599,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>10.6734313928035</v>
+        <v>5.52476992669126</v>
       </c>
     </row>
     <row r="320">
@@ -10300,10 +10300,10 @@
         <v>4.3002207909497</v>
       </c>
       <c r="E81" t="n">
-        <v>9.59958405122159</v>
+        <v>5.01609503350996</v>
       </c>
       <c r="F81" t="n">
-        <v>10.6734313928035</v>
+        <v>5.52476992669126</v>
       </c>
     </row>
     <row r="82">

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -7478,15 +7478,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7494,16 +7497,19 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>3.5765322578</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3.7407576776</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4.4091632427</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.2294341893</v>
       </c>
     </row>
@@ -7511,16 +7517,19 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
         <v>7.4128264342</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>6.7099863038</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>5.746208624</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.2008351328</v>
       </c>
     </row>
@@ -7528,16 +7537,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
         <v>1.094235058</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.0369067897</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.9210926718</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.9288208027</v>
       </c>
     </row>
@@ -7545,16 +7557,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>10.4545041821</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>17.3269502259</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>7.1129963724</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.1119954211</v>
       </c>
     </row>
@@ -7562,16 +7577,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.9804924743</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>7.0168083104</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4.6491004594</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.9153504711</v>
       </c>
     </row>
@@ -7579,16 +7597,19 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.6439355735</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>4.6513587418</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>4.1868520997</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.3113561576</v>
       </c>
     </row>
@@ -7596,16 +7617,19 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>9.9635438754</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>10.3950619839</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>8.7495852155</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>9.456164157</v>
       </c>
     </row>
@@ -7613,12 +7637,15 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9"/>
-      <c r="D9" t="n">
+      <c r="D9"/>
+      <c r="E9" t="n">
         <v>2.6271065361</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.0535807695</v>
       </c>
     </row>
@@ -7626,16 +7653,19 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
         <v>3.5006983291</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>5.7143553147</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4.0307702654</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.1328188823</v>
       </c>
     </row>
@@ -7643,16 +7673,19 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0343006415</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1.2154579663</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2.4098033477</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.0712308394</v>
       </c>
     </row>
@@ -7660,16 +7693,19 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
         <v>3.9763383325</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>3.2082460578</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>2.8013962105</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.8577377235</v>
       </c>
     </row>
@@ -7677,16 +7713,19 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
         <v>12.1755745751</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>15.5405132569</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>16.6159991033</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>17.2222915674</v>
       </c>
     </row>
@@ -7694,16 +7733,19 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.4596892392</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>1.4221015092</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>6.6715615604</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>7.0145207019</v>
       </c>
     </row>
@@ -7711,16 +7753,19 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.8754712094</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1.2828714621</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>4.2728383301</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>4.0937466502</v>
       </c>
     </row>
@@ -7728,16 +7773,19 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
         <v>2.6866814327</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>5.9898427379</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>7.1306160956</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>7.7864782571</v>
       </c>
     </row>
@@ -7745,16 +7793,19 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
         <v>3.0435214399</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>15.5160175508</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>14.7834846736</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>15.0882574834</v>
       </c>
     </row>
@@ -7762,16 +7813,19 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.8422215762</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>1.2763719166</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.8928073552</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.0345329089</v>
       </c>
     </row>
@@ -7779,16 +7833,19 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.7528707697</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.9063529772</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1.0699552694</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.1100273728</v>
       </c>
     </row>
@@ -7796,16 +7853,19 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.9428586498</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>4.1554567849</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4.5414462638</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>4.3205432636</v>
       </c>
     </row>
@@ -7813,16 +7873,19 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.7329962621</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>2.3866342942</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3.8558373511</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>3.7296550816</v>
       </c>
     </row>
@@ -7830,16 +7893,19 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
         <v>1.0158731375</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>1.4322796288</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>3.1109625611</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>3.5254357068</v>
       </c>
     </row>
@@ -7847,16 +7913,19 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
         <v>2.00738608</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>2.121225083</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>3.3544669581</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>3.4819902465</v>
       </c>
     </row>
@@ -7864,16 +7933,19 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
         <v>7.2394750756</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.5523191111</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>3.6055453279</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>3.2664315712</v>
       </c>
     </row>
@@ -7881,16 +7953,19 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
         <v>2.2804301748</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2.0153547674</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>1.9279945049</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.9279945049</v>
       </c>
     </row>
@@ -7898,16 +7973,19 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
         <v>4.0162869466</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>4.9738382512</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>5.5561186902</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.778855822</v>
       </c>
     </row>
@@ -7915,16 +7993,19 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
         <v>1.4687406858</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.753633665</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>2.2497279373</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2.4627459868</v>
       </c>
     </row>
@@ -7932,16 +8013,19 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
         <v>19.9378987826</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>18.2070840449</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>18.3831762678</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>16.4235503143</v>
       </c>
     </row>
@@ -7949,16 +8033,19 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.1252348313</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>1.109011654</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>3.4315331967</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>3.517376768</v>
       </c>
     </row>
@@ -7966,16 +8053,19 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
         <v>3.1976692013</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2.2980688607</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.7298838935</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.6080494651</v>
       </c>
     </row>
@@ -7983,16 +8073,19 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
         <v>3.7195494998</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>3.7890160687</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>3.4932612171</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>4.9801810708</v>
       </c>
     </row>
@@ -8000,16 +8093,19 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
         <v>1.051924437</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1.0099176726</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.2774609379</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.3920299365</v>
       </c>
     </row>
@@ -8017,16 +8113,19 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
         <v>7.8165935272</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>3.3845498629</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>8.3702303089</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>9.5950190516</v>
       </c>
     </row>
@@ -8034,16 +8133,19 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
         <v>1.4039649566</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>1.2327475791</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>2.4730877457</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>2.6105554885</v>
       </c>
     </row>
@@ -8051,16 +8153,19 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
         <v>2.3715296495</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>4.192343276</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>2.6112534577</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>2.9752352952</v>
       </c>
     </row>
@@ -8068,16 +8173,19 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
         <v>2.3581582492</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>4.7230689387</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>6.040813037</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>6.8098222054</v>
       </c>
     </row>
@@ -8085,16 +8193,19 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
         <v>1.2366057997</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>2.75294214</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>2.6379785259</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>2.7505310297</v>
       </c>
     </row>
@@ -8102,16 +8213,19 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
         <v>1.4980498725</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>2.1891114336</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>2.1739244564</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>2.467069511</v>
       </c>
     </row>
@@ -8119,16 +8233,19 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
         <v>1.5096396755</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>2.0063721847</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>3.8076372907</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>3.7937232019</v>
       </c>
     </row>
@@ -8136,16 +8253,19 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
         <v>0.9877072391</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>2.5041083341</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>2.7025746785</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>2.8493265712</v>
       </c>
     </row>
@@ -8153,16 +8273,19 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
         <v>1.8661763298</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>2.9573919162</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>1.665131723</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1.7387950249</v>
       </c>
     </row>
@@ -8170,16 +8293,19 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
         <v>1.4049319024</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>2.053989162</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>2.0191215555</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>2.140894365</v>
       </c>
     </row>
@@ -8187,16 +8313,19 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
         <v>1.3590537842</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>4.671810632</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>4.4802292945</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>3.5175189615</v>
       </c>
     </row>
@@ -8204,16 +8333,19 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
         <v>0.5590237862</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>1.8423605131</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>1.4747658548</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1.0765770016</v>
       </c>
     </row>
@@ -8221,16 +8353,19 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
         <v>1.472192909</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>2.2546889229</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>1.7866875865</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1.7945439185</v>
       </c>
     </row>
@@ -8238,16 +8373,19 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
         <v>2.527787572</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>2.179189551</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1.6620119219</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>1.6494813255</v>
       </c>
     </row>
@@ -8255,16 +8393,19 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
         <v>1.5066971431</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>2.6573489487</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>1.8054947227</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>2.0227143298</v>
       </c>
     </row>
@@ -8272,16 +8413,19 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
         <v>0.6970810879</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>0.6692531442</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>1.8783818676</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>1.928210664</v>
       </c>
     </row>
@@ -8289,16 +8433,19 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n">
         <v>1.1017132034</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>1.6633193706</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>1.0611138801</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>1.4325572767</v>
       </c>
     </row>
@@ -8306,16 +8453,19 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n">
         <v>0.4004932829</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>1.0424135837</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>1.9800810923</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1.9800810923</v>
       </c>
     </row>
@@ -8323,16 +8473,19 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n">
         <v>0.6994806934</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>1.005071126</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0.8586112921</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.8768327714</v>
       </c>
     </row>
@@ -8340,16 +8493,19 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
         <v>1.3366743018</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>2.4079526382</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>2.4207451839</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>2.7354492711</v>
       </c>
     </row>
@@ -8357,16 +8513,19 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
         <v>0.4206491904</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>0.5701477796</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>13.6717238242</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>17.305157418</v>
       </c>
     </row>
@@ -8374,16 +8533,19 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
         <v>1.2932746594</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>4.1249120675</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>3.1616256796</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>3.322605908</v>
       </c>
     </row>
@@ -8391,16 +8553,19 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
         <v>1.0869820996</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>3.7239236786</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>3.504766441</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>3.6328313545</v>
       </c>
     </row>
@@ -8408,16 +8573,19 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
         <v>2.1026032365</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>4.6427412919</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>3.7003277182</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>3.776152656</v>
       </c>
     </row>
@@ -8425,16 +8593,19 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
         <v>1.1939341243</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>1.4112176836</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>1.5806233448</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>1.673787688</v>
       </c>
     </row>
@@ -8442,16 +8613,19 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
         <v>0.7503504762</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>1.2498882004</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>1.2466802799</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>1.3183012752</v>
       </c>
     </row>
@@ -8459,16 +8633,19 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="n">
         <v>2.8284775883</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>3.8663891666</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>4.0252338962</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>4.1307168135</v>
       </c>
     </row>
@@ -8476,14 +8653,17 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60"/>
-      <c r="C60" t="n">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="n">
         <v>2.1360106931</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>5.877188778</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>9.0216289275</v>
       </c>
     </row>
@@ -8491,16 +8671,19 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
         <v>1.9811214012</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>4.3711956249</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>4.4836952643</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>4.6759657565</v>
       </c>
     </row>
@@ -8508,16 +8691,19 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="n">
         <v>4.5181944187</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>2.6795677464</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>1.1600616806</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>1.5775000449</v>
       </c>
     </row>
@@ -8525,16 +8711,19 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
         <v>2.6846194743</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>6.3010507993</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>5.1496590589</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>3.6285488531</v>
       </c>
     </row>
@@ -8542,16 +8731,19 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
         <v>7.2560184745</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>4.3002207909</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>9.5995840512</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>10.6734313928</v>
       </c>
     </row>
@@ -8559,16 +8751,19 @@
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n">
         <v>2.7289375786</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>3.8557821555</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>4.9086792428</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>3.5593830542</v>
       </c>
     </row>
@@ -8576,16 +8771,19 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
         <v>1.2089951102</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.5975753072</v>
       </c>
       <c r="D66" t="n">
         <v>5.5975753072</v>
       </c>
       <c r="E66" t="n">
+        <v>5.5975753072</v>
+      </c>
+      <c r="F66" t="n">
         <v>5.8749642984</v>
       </c>
     </row>
@@ -8593,16 +8791,19 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
         <v>1.2982606782</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>2.6233172532</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>2.5324269188</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>2.6138528687</v>
       </c>
     </row>
@@ -8610,16 +8811,19 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
         <v>1.8303038832</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>2.4691193038</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>2.8590407578</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>3.2270688608</v>
       </c>
     </row>
@@ -8627,16 +8831,19 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="n">
         <v>0.4003704143</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>1.6160685613</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>1.594047141</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>1.6510186775</v>
       </c>
     </row>
@@ -8644,16 +8851,19 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n">
         <v>1.2352052215</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>2.5022969538</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>2.0579981876</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>2.3478857226</v>
       </c>
     </row>
@@ -8661,16 +8871,19 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
         <v>0.9986363718</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>2.6520273709</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>2.7630196526</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>2.8226573274</v>
       </c>
     </row>
@@ -8678,16 +8891,19 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="n">
         <v>1.4192226157</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>2.7382465671</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>2.13127732</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>2.484235045</v>
       </c>
     </row>
@@ -8695,16 +8911,19 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="n">
         <v>0.6652554277</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>0.6848723845</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0.6567868952</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.6787015064</v>
       </c>
     </row>
@@ -8712,16 +8931,19 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
         <v>0.841136566</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>1.5236762437</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>1.5579593014</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>1.5203739829</v>
       </c>
     </row>
@@ -8729,16 +8951,19 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
         <v>1.0745736897</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>7.6986307136</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>6.1339828404</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>7.5746968973</v>
       </c>
     </row>
@@ -8746,16 +8971,19 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
         <v>1.5051341427</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>2.0764146976</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>1.3607384697</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>1.1490820055</v>
       </c>
     </row>
@@ -8763,16 +8991,19 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
         <v>3.7964514907</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>2.7979873252</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>3.9111706579</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>3.7500931184</v>
       </c>
     </row>
@@ -8780,16 +9011,19 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="n">
         <v>1.1373540923</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>2.2393838445</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>1.9908854639</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>1.4927279879</v>
       </c>
     </row>
@@ -8797,16 +9031,19 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
         <v>2.0777314836</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>4.8154788087</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>2.994456621</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>3.7067308235</v>
       </c>
     </row>
@@ -8814,16 +9051,19 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="n">
         <v>0.3062280929</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>2.4855017695</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>1.6655464743</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>1.8576038896</v>
       </c>
     </row>
@@ -8831,16 +9071,19 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
         <v>2.0431073819</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>3.2364640012</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>2.2694588154</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>2.384976577</v>
       </c>
     </row>
@@ -8848,16 +9091,19 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n">
         <v>0.8758881054</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>1.2884110836</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>0.9777986375</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1.4400552143</v>
       </c>
     </row>
@@ -8865,16 +9111,19 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
         <v>0.9240283389</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>2.4431099988</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>2.3974327091</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>1.8481190226</v>
       </c>
     </row>
@@ -8882,16 +9131,19 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n">
         <v>0.6435604643</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>2.0303153673</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>3.3985932679</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>5.5768764619</v>
       </c>
     </row>
@@ -8899,16 +9151,19 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n">
         <v>0.9162302213</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>0.8947125563</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>0.9828832602</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.9901256227</v>
       </c>
     </row>
@@ -8916,16 +9171,19 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
         <v>1.4708431874</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>1.5654017088</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>4.2499512785</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>4.7325655147</v>
       </c>
     </row>
@@ -8933,16 +9191,19 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="n">
         <v>0.8833122929</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>2.9835572196</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>0.7952697555</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>0.8760923179</v>
       </c>
     </row>
@@ -8950,16 +9211,19 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
         <v>3.3030015598</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>5.6006235971</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>4.6514675656</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>4.7936831449</v>
       </c>
     </row>
@@ -8967,16 +9231,19 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
         <v>6.7423963029</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>4.9421663449</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>8.096892098</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>8.4554568652</v>
       </c>
     </row>
@@ -8984,16 +9251,19 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n">
         <v>4.979774341</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>3.8571642933</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>6.5550731018</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>7.5769637371</v>
       </c>
     </row>
@@ -9001,16 +9271,19 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
         <v>4.2311401172</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>7.8101631792</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>8.2347158216</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>7.8994788004</v>
       </c>
     </row>
@@ -9018,16 +9291,19 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
         <v>2.6156343506</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>8.2613582792</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>8.0837855451</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>7.3577065274</v>
       </c>
     </row>
@@ -9035,16 +9311,19 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n">
         <v>2.0274954156</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>4.6552024663</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>4.0555291199</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>4.2211228786</v>
       </c>
     </row>
@@ -9052,16 +9331,19 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
         <v>1.5589139259</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>2.1997934091</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>3.5529310939</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>3.7184689902</v>
       </c>
     </row>
@@ -9069,16 +9351,19 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
         <v>3.4579202363</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>5.0714798311</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>6.2548782722</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>7.6663620826</v>
       </c>
     </row>
@@ -9086,16 +9371,19 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
         <v>6.7290185091</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>3.2719513432</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>9.1168854464</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>9.7911049184</v>
       </c>
     </row>
@@ -9103,16 +9391,19 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="n">
         <v>1.0975101569</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>5.7205696172</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>4.9929902618</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>4.986543693</v>
       </c>
     </row>
@@ -9120,16 +9411,19 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
         <v>2.6405177676</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>14.4180086073</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>3.5417227536</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>3.3778790165</v>
       </c>
     </row>
@@ -9137,14 +9431,17 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99"/>
-      <c r="C99" t="n">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" t="n">
         <v>2.5230289911</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>2.3167232735</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>2.6914145391</v>
       </c>
     </row>
@@ -9152,16 +9449,19 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n">
         <v>3.7631961949</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>3.5618048928</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>3.3853984758</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>2.7623898831</v>
       </c>
     </row>
@@ -9169,16 +9469,19 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
         <v>1.1605487929</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>0.9311680116</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>3.7516124935</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>5.045075423</v>
       </c>
     </row>
@@ -9186,16 +9489,19 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
         <v>2.972373727</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>4.3019663237</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>3.7625537146</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>4.884211801</v>
       </c>
     </row>
@@ -9203,16 +9509,19 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
         <v>1.1794562686</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>5.1737036606</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>4.3664883918</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>4.5119512164</v>
       </c>
     </row>
@@ -9220,16 +9529,19 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
         <v>2.5998018384</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>5.6317495473</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>3.7370815614</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>3.8898405397</v>
       </c>
     </row>
@@ -9237,16 +9549,19 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n">
         <v>7.0557855627</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>7.055086161</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>6.2790183218</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>4.9535649436</v>
       </c>
     </row>
@@ -9254,16 +9569,19 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="n">
         <v>0.8541977294</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>1.7407377918</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>2.1753295681</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>2.3127390419</v>
       </c>
     </row>
@@ -9271,16 +9589,19 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
         <v>0.7424217853</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>6.9341219626</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>6.0280322477</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>5.9539648491</v>
       </c>
     </row>
@@ -9288,16 +9609,19 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n">
         <v>2.6701313643</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>6.1452117324</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>4.7938688875</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>5.3202599012</v>
       </c>
     </row>
@@ -9305,16 +9629,19 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="n">
         <v>1.4587487281</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>2.7461173385</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>2.2353552855</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>2.3677903188</v>
       </c>
     </row>
@@ -9322,16 +9649,19 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="n">
         <v>1.4475819107</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>3.268967442</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>3.3558117964</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>3.4700331045</v>
       </c>
     </row>
@@ -9339,16 +9669,19 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n">
         <v>0.8002691103</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>2.936071312</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>2.4097753547</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>2.5564373045</v>
       </c>
     </row>
@@ -9356,16 +9689,19 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="n">
         <v>1.5796987035</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>2.4462296588</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>2.141098238</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>2.1472826915</v>
       </c>
     </row>

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -7478,18 +7478,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7497,19 +7494,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" t="n">
+        <v>3.5765322578</v>
       </c>
       <c r="C2" t="n">
-        <v>3.5765322578</v>
+        <v>3.7407576776</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7407576776</v>
+        <v>4.4091632427</v>
       </c>
       <c r="E2" t="n">
-        <v>4.4091632427</v>
-      </c>
-      <c r="F2" t="n">
         <v>4.2294341893</v>
       </c>
     </row>
@@ -7517,19 +7511,16 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="n">
+        <v>7.4128264342</v>
       </c>
       <c r="C3" t="n">
-        <v>7.4128264342</v>
+        <v>6.7099863038</v>
       </c>
       <c r="D3" t="n">
-        <v>6.7099863038</v>
+        <v>5.746208624</v>
       </c>
       <c r="E3" t="n">
-        <v>5.746208624</v>
-      </c>
-      <c r="F3" t="n">
         <v>6.2008351328</v>
       </c>
     </row>
@@ -7537,19 +7528,16 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" t="n">
+        <v>1.094235058</v>
       </c>
       <c r="C4" t="n">
-        <v>1.094235058</v>
+        <v>1.0369067897</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0369067897</v>
+        <v>0.9210926718</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9210926718</v>
-      </c>
-      <c r="F4" t="n">
         <v>0.9288208027</v>
       </c>
     </row>
@@ -7557,19 +7545,16 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" t="n">
+        <v>10.4545041821</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4545041821</v>
+        <v>17.3269502259</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3269502259</v>
+        <v>7.1129963724</v>
       </c>
       <c r="E5" t="n">
-        <v>7.1129963724</v>
-      </c>
-      <c r="F5" t="n">
         <v>8.1119954211</v>
       </c>
     </row>
@@ -7577,19 +7562,16 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" t="n">
+        <v>2.9804924743</v>
       </c>
       <c r="C6" t="n">
-        <v>2.9804924743</v>
+        <v>7.0168083104</v>
       </c>
       <c r="D6" t="n">
-        <v>7.0168083104</v>
+        <v>4.6491004594</v>
       </c>
       <c r="E6" t="n">
-        <v>4.6491004594</v>
-      </c>
-      <c r="F6" t="n">
         <v>4.9153504711</v>
       </c>
     </row>
@@ -7597,19 +7579,16 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" t="n">
+        <v>1.6439355735</v>
       </c>
       <c r="C7" t="n">
-        <v>1.6439355735</v>
+        <v>4.6513587418</v>
       </c>
       <c r="D7" t="n">
-        <v>4.6513587418</v>
+        <v>4.1868520997</v>
       </c>
       <c r="E7" t="n">
-        <v>4.1868520997</v>
-      </c>
-      <c r="F7" t="n">
         <v>4.3113561576</v>
       </c>
     </row>
@@ -7617,19 +7596,16 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" t="n">
+        <v>9.9635438754</v>
       </c>
       <c r="C8" t="n">
-        <v>9.9635438754</v>
+        <v>10.3950619839</v>
       </c>
       <c r="D8" t="n">
-        <v>10.3950619839</v>
+        <v>8.7495852155</v>
       </c>
       <c r="E8" t="n">
-        <v>8.7495852155</v>
-      </c>
-      <c r="F8" t="n">
         <v>9.456164157</v>
       </c>
     </row>
@@ -7637,15 +7613,12 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>2.6271065361</v>
+      </c>
       <c r="E9" t="n">
-        <v>2.6271065361</v>
-      </c>
-      <c r="F9" t="n">
         <v>4.0535807695</v>
       </c>
     </row>
@@ -7653,19 +7626,16 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10" t="n">
+        <v>3.5006983291</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5006983291</v>
+        <v>5.7143553147</v>
       </c>
       <c r="D10" t="n">
-        <v>5.7143553147</v>
+        <v>4.0307702654</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0307702654</v>
-      </c>
-      <c r="F10" t="n">
         <v>4.1328188823</v>
       </c>
     </row>
@@ -7673,19 +7643,16 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" t="n">
+        <v>1.0343006415</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0343006415</v>
+        <v>1.2154579663</v>
       </c>
       <c r="D11" t="n">
-        <v>1.2154579663</v>
+        <v>2.4098033477</v>
       </c>
       <c r="E11" t="n">
-        <v>2.4098033477</v>
-      </c>
-      <c r="F11" t="n">
         <v>2.0712308394</v>
       </c>
     </row>
@@ -7693,19 +7660,16 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12" t="n">
+        <v>3.9763383325</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9763383325</v>
+        <v>3.2082460578</v>
       </c>
       <c r="D12" t="n">
-        <v>3.2082460578</v>
+        <v>2.8013962105</v>
       </c>
       <c r="E12" t="n">
-        <v>2.8013962105</v>
-      </c>
-      <c r="F12" t="n">
         <v>2.8577377235</v>
       </c>
     </row>
@@ -7713,19 +7677,16 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
+      <c r="B13" t="n">
+        <v>12.1755745751</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1755745751</v>
+        <v>15.5405132569</v>
       </c>
       <c r="D13" t="n">
-        <v>15.5405132569</v>
+        <v>16.6159991033</v>
       </c>
       <c r="E13" t="n">
-        <v>16.6159991033</v>
-      </c>
-      <c r="F13" t="n">
         <v>17.2222915674</v>
       </c>
     </row>
@@ -7733,19 +7694,16 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" t="n">
+        <v>1.4596892392</v>
       </c>
       <c r="C14" t="n">
-        <v>1.4596892392</v>
+        <v>1.4221015092</v>
       </c>
       <c r="D14" t="n">
-        <v>1.4221015092</v>
+        <v>6.6715615604</v>
       </c>
       <c r="E14" t="n">
-        <v>6.6715615604</v>
-      </c>
-      <c r="F14" t="n">
         <v>7.0145207019</v>
       </c>
     </row>
@@ -7753,19 +7711,16 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15" t="n">
+        <v>1.8754712094</v>
       </c>
       <c r="C15" t="n">
-        <v>1.8754712094</v>
+        <v>1.2828714621</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2828714621</v>
+        <v>4.2728383301</v>
       </c>
       <c r="E15" t="n">
-        <v>4.2728383301</v>
-      </c>
-      <c r="F15" t="n">
         <v>4.0937466502</v>
       </c>
     </row>
@@ -7773,19 +7728,16 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
+      <c r="B16" t="n">
+        <v>2.6866814327</v>
       </c>
       <c r="C16" t="n">
-        <v>2.6866814327</v>
+        <v>5.9898427379</v>
       </c>
       <c r="D16" t="n">
-        <v>5.9898427379</v>
+        <v>7.1306160956</v>
       </c>
       <c r="E16" t="n">
-        <v>7.1306160956</v>
-      </c>
-      <c r="F16" t="n">
         <v>7.7864782571</v>
       </c>
     </row>
@@ -7793,19 +7745,16 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="B17" t="n">
+        <v>3.0435214399</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0435214399</v>
+        <v>15.5160175508</v>
       </c>
       <c r="D17" t="n">
-        <v>15.5160175508</v>
+        <v>14.7834846736</v>
       </c>
       <c r="E17" t="n">
-        <v>14.7834846736</v>
-      </c>
-      <c r="F17" t="n">
         <v>15.0882574834</v>
       </c>
     </row>
@@ -7813,19 +7762,16 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" t="n">
+        <v>0.8422215762</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8422215762</v>
+        <v>1.2763719166</v>
       </c>
       <c r="D18" t="n">
-        <v>1.2763719166</v>
+        <v>0.8928073552</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8928073552</v>
-      </c>
-      <c r="F18" t="n">
         <v>1.0345329089</v>
       </c>
     </row>
@@ -7833,19 +7779,16 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19" t="n">
+        <v>0.7528707697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7528707697</v>
+        <v>0.9063529772</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9063529772</v>
+        <v>1.0699552694</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0699552694</v>
-      </c>
-      <c r="F19" t="n">
         <v>1.1100273728</v>
       </c>
     </row>
@@ -7853,19 +7796,16 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20" t="n">
+        <v>1.9428586498</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9428586498</v>
+        <v>4.1554567849</v>
       </c>
       <c r="D20" t="n">
-        <v>4.1554567849</v>
+        <v>4.5414462638</v>
       </c>
       <c r="E20" t="n">
-        <v>4.5414462638</v>
-      </c>
-      <c r="F20" t="n">
         <v>4.3205432636</v>
       </c>
     </row>
@@ -7873,19 +7813,16 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
+      <c r="B21" t="n">
+        <v>1.7329962621</v>
       </c>
       <c r="C21" t="n">
-        <v>1.7329962621</v>
+        <v>2.3866342942</v>
       </c>
       <c r="D21" t="n">
-        <v>2.3866342942</v>
+        <v>3.8558373511</v>
       </c>
       <c r="E21" t="n">
-        <v>3.8558373511</v>
-      </c>
-      <c r="F21" t="n">
         <v>3.7296550816</v>
       </c>
     </row>
@@ -7893,19 +7830,16 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
+      <c r="B22" t="n">
+        <v>1.0158731375</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0158731375</v>
+        <v>1.4322796288</v>
       </c>
       <c r="D22" t="n">
-        <v>1.4322796288</v>
+        <v>3.1109625611</v>
       </c>
       <c r="E22" t="n">
-        <v>3.1109625611</v>
-      </c>
-      <c r="F22" t="n">
         <v>3.5254357068</v>
       </c>
     </row>
@@ -7913,19 +7847,16 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
+      <c r="B23" t="n">
+        <v>2.00738608</v>
       </c>
       <c r="C23" t="n">
-        <v>2.00738608</v>
+        <v>2.121225083</v>
       </c>
       <c r="D23" t="n">
-        <v>2.121225083</v>
+        <v>3.3544669581</v>
       </c>
       <c r="E23" t="n">
-        <v>3.3544669581</v>
-      </c>
-      <c r="F23" t="n">
         <v>3.4819902465</v>
       </c>
     </row>
@@ -7933,19 +7864,16 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
+      <c r="B24" t="n">
+        <v>7.2394750756</v>
       </c>
       <c r="C24" t="n">
-        <v>7.2394750756</v>
+        <v>1.5523191111</v>
       </c>
       <c r="D24" t="n">
-        <v>1.5523191111</v>
+        <v>3.6055453279</v>
       </c>
       <c r="E24" t="n">
-        <v>3.6055453279</v>
-      </c>
-      <c r="F24" t="n">
         <v>3.2664315712</v>
       </c>
     </row>
@@ -7953,19 +7881,16 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
+      <c r="B25" t="n">
+        <v>2.2804301748</v>
       </c>
       <c r="C25" t="n">
-        <v>2.2804301748</v>
+        <v>2.0153547674</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0153547674</v>
+        <v>1.9279945049</v>
       </c>
       <c r="E25" t="n">
-        <v>1.9279945049</v>
-      </c>
-      <c r="F25" t="n">
         <v>1.9279945049</v>
       </c>
     </row>
@@ -7973,19 +7898,16 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
+      <c r="B26" t="n">
+        <v>4.0162869466</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0162869466</v>
+        <v>4.9738382512</v>
       </c>
       <c r="D26" t="n">
-        <v>4.9738382512</v>
+        <v>5.5561186902</v>
       </c>
       <c r="E26" t="n">
-        <v>5.5561186902</v>
-      </c>
-      <c r="F26" t="n">
         <v>6.778855822</v>
       </c>
     </row>
@@ -7993,19 +7915,16 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
+      <c r="B27" t="n">
+        <v>1.4687406858</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4687406858</v>
+        <v>0.753633665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.753633665</v>
+        <v>2.2497279373</v>
       </c>
       <c r="E27" t="n">
-        <v>2.2497279373</v>
-      </c>
-      <c r="F27" t="n">
         <v>2.4627459868</v>
       </c>
     </row>
@@ -8013,19 +7932,16 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
+      <c r="B28" t="n">
+        <v>19.9378987826</v>
       </c>
       <c r="C28" t="n">
-        <v>19.9378987826</v>
+        <v>18.2070840449</v>
       </c>
       <c r="D28" t="n">
-        <v>18.2070840449</v>
+        <v>18.3831762678</v>
       </c>
       <c r="E28" t="n">
-        <v>18.3831762678</v>
-      </c>
-      <c r="F28" t="n">
         <v>16.4235503143</v>
       </c>
     </row>
@@ -8033,19 +7949,16 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29" t="n">
+        <v>1.1252348313</v>
       </c>
       <c r="C29" t="n">
-        <v>1.1252348313</v>
+        <v>1.109011654</v>
       </c>
       <c r="D29" t="n">
-        <v>1.109011654</v>
+        <v>3.4315331967</v>
       </c>
       <c r="E29" t="n">
-        <v>3.4315331967</v>
-      </c>
-      <c r="F29" t="n">
         <v>3.517376768</v>
       </c>
     </row>
@@ -8053,19 +7966,16 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
+      <c r="B30" t="n">
+        <v>3.1976692013</v>
       </c>
       <c r="C30" t="n">
-        <v>3.1976692013</v>
+        <v>2.2980688607</v>
       </c>
       <c r="D30" t="n">
-        <v>2.2980688607</v>
+        <v>1.7298838935</v>
       </c>
       <c r="E30" t="n">
-        <v>1.7298838935</v>
-      </c>
-      <c r="F30" t="n">
         <v>1.6080494651</v>
       </c>
     </row>
@@ -8073,19 +7983,16 @@
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31" t="n">
+        <v>3.7195494998</v>
       </c>
       <c r="C31" t="n">
-        <v>3.7195494998</v>
+        <v>3.7890160687</v>
       </c>
       <c r="D31" t="n">
-        <v>3.7890160687</v>
+        <v>3.4932612171</v>
       </c>
       <c r="E31" t="n">
-        <v>3.4932612171</v>
-      </c>
-      <c r="F31" t="n">
         <v>4.9801810708</v>
       </c>
     </row>
@@ -8093,19 +8000,16 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
+      <c r="B32" t="n">
+        <v>1.051924437</v>
       </c>
       <c r="C32" t="n">
-        <v>1.051924437</v>
+        <v>1.0099176726</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0099176726</v>
+        <v>1.2774609379</v>
       </c>
       <c r="E32" t="n">
-        <v>1.2774609379</v>
-      </c>
-      <c r="F32" t="n">
         <v>1.3920299365</v>
       </c>
     </row>
@@ -8113,19 +8017,16 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="B33" t="n">
+        <v>7.8165935272</v>
       </c>
       <c r="C33" t="n">
-        <v>7.8165935272</v>
+        <v>3.3845498629</v>
       </c>
       <c r="D33" t="n">
-        <v>3.3845498629</v>
+        <v>8.3702303089</v>
       </c>
       <c r="E33" t="n">
-        <v>8.3702303089</v>
-      </c>
-      <c r="F33" t="n">
         <v>9.5950190516</v>
       </c>
     </row>
@@ -8133,19 +8034,16 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34" t="n">
+        <v>1.4039649566</v>
       </c>
       <c r="C34" t="n">
-        <v>1.4039649566</v>
+        <v>1.2327475791</v>
       </c>
       <c r="D34" t="n">
-        <v>1.2327475791</v>
+        <v>2.4730877457</v>
       </c>
       <c r="E34" t="n">
-        <v>2.4730877457</v>
-      </c>
-      <c r="F34" t="n">
         <v>2.6105554885</v>
       </c>
     </row>
@@ -8153,19 +8051,16 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
+      <c r="B35" t="n">
+        <v>2.3715296495</v>
       </c>
       <c r="C35" t="n">
-        <v>2.3715296495</v>
+        <v>4.192343276</v>
       </c>
       <c r="D35" t="n">
-        <v>4.192343276</v>
+        <v>2.6112534577</v>
       </c>
       <c r="E35" t="n">
-        <v>2.6112534577</v>
-      </c>
-      <c r="F35" t="n">
         <v>2.9752352952</v>
       </c>
     </row>
@@ -8173,19 +8068,16 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36" t="n">
+        <v>2.3581582492</v>
       </c>
       <c r="C36" t="n">
-        <v>2.3581582492</v>
+        <v>4.7230689387</v>
       </c>
       <c r="D36" t="n">
-        <v>4.7230689387</v>
+        <v>6.040813037</v>
       </c>
       <c r="E36" t="n">
-        <v>6.040813037</v>
-      </c>
-      <c r="F36" t="n">
         <v>6.8098222054</v>
       </c>
     </row>
@@ -8193,19 +8085,16 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
+      <c r="B37" t="n">
+        <v>1.2366057997</v>
       </c>
       <c r="C37" t="n">
-        <v>1.2366057997</v>
+        <v>2.75294214</v>
       </c>
       <c r="D37" t="n">
-        <v>2.75294214</v>
+        <v>2.6379785259</v>
       </c>
       <c r="E37" t="n">
-        <v>2.6379785259</v>
-      </c>
-      <c r="F37" t="n">
         <v>2.7505310297</v>
       </c>
     </row>
@@ -8213,19 +8102,16 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38" t="n">
+        <v>1.4980498725</v>
       </c>
       <c r="C38" t="n">
-        <v>1.4980498725</v>
+        <v>2.1891114336</v>
       </c>
       <c r="D38" t="n">
-        <v>2.1891114336</v>
+        <v>2.1739244564</v>
       </c>
       <c r="E38" t="n">
-        <v>2.1739244564</v>
-      </c>
-      <c r="F38" t="n">
         <v>2.467069511</v>
       </c>
     </row>
@@ -8233,19 +8119,16 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39" t="n">
+        <v>1.5096396755</v>
       </c>
       <c r="C39" t="n">
-        <v>1.5096396755</v>
+        <v>2.0063721847</v>
       </c>
       <c r="D39" t="n">
-        <v>2.0063721847</v>
+        <v>3.8076372907</v>
       </c>
       <c r="E39" t="n">
-        <v>3.8076372907</v>
-      </c>
-      <c r="F39" t="n">
         <v>3.7937232019</v>
       </c>
     </row>
@@ -8253,19 +8136,16 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40" t="n">
+        <v>0.9877072391</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9877072391</v>
+        <v>2.5041083341</v>
       </c>
       <c r="D40" t="n">
-        <v>2.5041083341</v>
+        <v>2.7025746785</v>
       </c>
       <c r="E40" t="n">
-        <v>2.7025746785</v>
-      </c>
-      <c r="F40" t="n">
         <v>2.8493265712</v>
       </c>
     </row>
@@ -8273,19 +8153,16 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41" t="n">
+        <v>1.8661763298</v>
       </c>
       <c r="C41" t="n">
-        <v>1.8661763298</v>
+        <v>2.9573919162</v>
       </c>
       <c r="D41" t="n">
-        <v>2.9573919162</v>
+        <v>1.665131723</v>
       </c>
       <c r="E41" t="n">
-        <v>1.665131723</v>
-      </c>
-      <c r="F41" t="n">
         <v>1.7387950249</v>
       </c>
     </row>
@@ -8293,19 +8170,16 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42" t="n">
+        <v>1.4049319024</v>
       </c>
       <c r="C42" t="n">
-        <v>1.4049319024</v>
+        <v>2.053989162</v>
       </c>
       <c r="D42" t="n">
-        <v>2.053989162</v>
+        <v>2.0191215555</v>
       </c>
       <c r="E42" t="n">
-        <v>2.0191215555</v>
-      </c>
-      <c r="F42" t="n">
         <v>2.140894365</v>
       </c>
     </row>
@@ -8313,19 +8187,16 @@
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43" t="n">
+        <v>1.3590537842</v>
       </c>
       <c r="C43" t="n">
-        <v>1.3590537842</v>
+        <v>4.671810632</v>
       </c>
       <c r="D43" t="n">
-        <v>4.671810632</v>
+        <v>4.4802292945</v>
       </c>
       <c r="E43" t="n">
-        <v>4.4802292945</v>
-      </c>
-      <c r="F43" t="n">
         <v>3.5175189615</v>
       </c>
     </row>
@@ -8333,19 +8204,16 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" t="n">
+        <v>0.5590237862</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5590237862</v>
+        <v>1.8423605131</v>
       </c>
       <c r="D44" t="n">
-        <v>1.8423605131</v>
+        <v>1.4747658548</v>
       </c>
       <c r="E44" t="n">
-        <v>1.4747658548</v>
-      </c>
-      <c r="F44" t="n">
         <v>1.0765770016</v>
       </c>
     </row>
@@ -8353,19 +8221,16 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45" t="n">
+        <v>1.472192909</v>
       </c>
       <c r="C45" t="n">
-        <v>1.472192909</v>
+        <v>2.2546889229</v>
       </c>
       <c r="D45" t="n">
-        <v>2.2546889229</v>
+        <v>1.7866875865</v>
       </c>
       <c r="E45" t="n">
-        <v>1.7866875865</v>
-      </c>
-      <c r="F45" t="n">
         <v>1.7945439185</v>
       </c>
     </row>
@@ -8373,19 +8238,16 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46" t="n">
+        <v>2.527787572</v>
       </c>
       <c r="C46" t="n">
-        <v>2.527787572</v>
+        <v>2.179189551</v>
       </c>
       <c r="D46" t="n">
-        <v>2.179189551</v>
+        <v>1.6620119219</v>
       </c>
       <c r="E46" t="n">
-        <v>1.6620119219</v>
-      </c>
-      <c r="F46" t="n">
         <v>1.6494813255</v>
       </c>
     </row>
@@ -8393,19 +8255,16 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47" t="n">
+        <v>1.5066971431</v>
       </c>
       <c r="C47" t="n">
-        <v>1.5066971431</v>
+        <v>2.6573489487</v>
       </c>
       <c r="D47" t="n">
-        <v>2.6573489487</v>
+        <v>1.8054947227</v>
       </c>
       <c r="E47" t="n">
-        <v>1.8054947227</v>
-      </c>
-      <c r="F47" t="n">
         <v>2.0227143298</v>
       </c>
     </row>
@@ -8413,19 +8272,16 @@
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48" t="n">
+        <v>0.6970810879</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6970810879</v>
+        <v>0.6692531442</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6692531442</v>
+        <v>1.8783818676</v>
       </c>
       <c r="E48" t="n">
-        <v>1.8783818676</v>
-      </c>
-      <c r="F48" t="n">
         <v>1.928210664</v>
       </c>
     </row>
@@ -8433,19 +8289,16 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
+      <c r="B49" t="n">
+        <v>1.1017132034</v>
       </c>
       <c r="C49" t="n">
-        <v>1.1017132034</v>
+        <v>1.6633193706</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6633193706</v>
+        <v>1.0611138801</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0611138801</v>
-      </c>
-      <c r="F49" t="n">
         <v>1.4325572767</v>
       </c>
     </row>
@@ -8453,19 +8306,16 @@
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
+      <c r="B50" t="n">
+        <v>0.4004932829</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4004932829</v>
+        <v>1.0424135837</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0424135837</v>
+        <v>1.9800810923</v>
       </c>
       <c r="E50" t="n">
-        <v>1.9800810923</v>
-      </c>
-      <c r="F50" t="n">
         <v>1.9800810923</v>
       </c>
     </row>
@@ -8473,19 +8323,16 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
+      <c r="B51" t="n">
+        <v>0.6994806934</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6994806934</v>
+        <v>1.005071126</v>
       </c>
       <c r="D51" t="n">
-        <v>1.005071126</v>
+        <v>0.8586112921</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8586112921</v>
-      </c>
-      <c r="F51" t="n">
         <v>0.8768327714</v>
       </c>
     </row>
@@ -8493,19 +8340,16 @@
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
+      <c r="B52" t="n">
+        <v>1.3366743018</v>
       </c>
       <c r="C52" t="n">
-        <v>1.3366743018</v>
+        <v>2.4079526382</v>
       </c>
       <c r="D52" t="n">
-        <v>2.4079526382</v>
+        <v>2.4207451839</v>
       </c>
       <c r="E52" t="n">
-        <v>2.4207451839</v>
-      </c>
-      <c r="F52" t="n">
         <v>2.7354492711</v>
       </c>
     </row>
@@ -8513,19 +8357,16 @@
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
+      <c r="B53" t="n">
+        <v>0.4206491904</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4206491904</v>
+        <v>0.5701477796</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5701477796</v>
+        <v>13.6717238242</v>
       </c>
       <c r="E53" t="n">
-        <v>13.6717238242</v>
-      </c>
-      <c r="F53" t="n">
         <v>17.305157418</v>
       </c>
     </row>
@@ -8533,19 +8374,16 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
+      <c r="B54" t="n">
+        <v>1.2932746594</v>
       </c>
       <c r="C54" t="n">
-        <v>1.2932746594</v>
+        <v>4.1249120675</v>
       </c>
       <c r="D54" t="n">
-        <v>4.1249120675</v>
+        <v>3.1616256796</v>
       </c>
       <c r="E54" t="n">
-        <v>3.1616256796</v>
-      </c>
-      <c r="F54" t="n">
         <v>3.322605908</v>
       </c>
     </row>
@@ -8553,19 +8391,16 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
+      <c r="B55" t="n">
+        <v>1.0869820996</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0869820996</v>
+        <v>3.7239236786</v>
       </c>
       <c r="D55" t="n">
-        <v>3.7239236786</v>
+        <v>3.504766441</v>
       </c>
       <c r="E55" t="n">
-        <v>3.504766441</v>
-      </c>
-      <c r="F55" t="n">
         <v>3.6328313545</v>
       </c>
     </row>
@@ -8573,19 +8408,16 @@
       <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
+      <c r="B56" t="n">
+        <v>2.1026032365</v>
       </c>
       <c r="C56" t="n">
-        <v>2.1026032365</v>
+        <v>4.6427412919</v>
       </c>
       <c r="D56" t="n">
-        <v>4.6427412919</v>
+        <v>3.7003277182</v>
       </c>
       <c r="E56" t="n">
-        <v>3.7003277182</v>
-      </c>
-      <c r="F56" t="n">
         <v>3.776152656</v>
       </c>
     </row>
@@ -8593,19 +8425,16 @@
       <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
+      <c r="B57" t="n">
+        <v>1.1939341243</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1939341243</v>
+        <v>1.4112176836</v>
       </c>
       <c r="D57" t="n">
-        <v>1.4112176836</v>
+        <v>1.5806233448</v>
       </c>
       <c r="E57" t="n">
-        <v>1.5806233448</v>
-      </c>
-      <c r="F57" t="n">
         <v>1.673787688</v>
       </c>
     </row>
@@ -8613,19 +8442,16 @@
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
+      <c r="B58" t="n">
+        <v>0.7503504762</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7503504762</v>
+        <v>1.2498882004</v>
       </c>
       <c r="D58" t="n">
-        <v>1.2498882004</v>
+        <v>1.2466802799</v>
       </c>
       <c r="E58" t="n">
-        <v>1.2466802799</v>
-      </c>
-      <c r="F58" t="n">
         <v>1.3183012752</v>
       </c>
     </row>
@@ -8633,19 +8459,16 @@
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
+      <c r="B59" t="n">
+        <v>2.8284775883</v>
       </c>
       <c r="C59" t="n">
-        <v>2.8284775883</v>
+        <v>3.8663891666</v>
       </c>
       <c r="D59" t="n">
-        <v>3.8663891666</v>
+        <v>4.0252338962</v>
       </c>
       <c r="E59" t="n">
-        <v>4.0252338962</v>
-      </c>
-      <c r="F59" t="n">
         <v>4.1307168135</v>
       </c>
     </row>
@@ -8653,17 +8476,14 @@
       <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60"/>
+      <c r="B60"/>
+      <c r="C60" t="n">
+        <v>2.1360106931</v>
+      </c>
       <c r="D60" t="n">
-        <v>2.1360106931</v>
+        <v>5.877188778</v>
       </c>
       <c r="E60" t="n">
-        <v>5.877188778</v>
-      </c>
-      <c r="F60" t="n">
         <v>9.0216289275</v>
       </c>
     </row>
@@ -8671,19 +8491,16 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
+      <c r="B61" t="n">
+        <v>1.9811214012</v>
       </c>
       <c r="C61" t="n">
-        <v>1.9811214012</v>
+        <v>4.3711956249</v>
       </c>
       <c r="D61" t="n">
-        <v>4.3711956249</v>
+        <v>4.4836952643</v>
       </c>
       <c r="E61" t="n">
-        <v>4.4836952643</v>
-      </c>
-      <c r="F61" t="n">
         <v>4.6759657565</v>
       </c>
     </row>
@@ -8691,19 +8508,16 @@
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
+      <c r="B62" t="n">
+        <v>4.5181944187</v>
       </c>
       <c r="C62" t="n">
-        <v>4.5181944187</v>
+        <v>2.6795677464</v>
       </c>
       <c r="D62" t="n">
-        <v>2.6795677464</v>
+        <v>1.1600616806</v>
       </c>
       <c r="E62" t="n">
-        <v>1.1600616806</v>
-      </c>
-      <c r="F62" t="n">
         <v>1.5775000449</v>
       </c>
     </row>
@@ -8711,19 +8525,16 @@
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
+      <c r="B63" t="n">
+        <v>2.6846194743</v>
       </c>
       <c r="C63" t="n">
-        <v>2.6846194743</v>
+        <v>6.3010507993</v>
       </c>
       <c r="D63" t="n">
-        <v>6.3010507993</v>
+        <v>5.1496590589</v>
       </c>
       <c r="E63" t="n">
-        <v>5.1496590589</v>
-      </c>
-      <c r="F63" t="n">
         <v>3.6285488531</v>
       </c>
     </row>
@@ -8731,19 +8542,16 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
+      <c r="B64" t="n">
+        <v>7.2560184745</v>
       </c>
       <c r="C64" t="n">
-        <v>7.2560184745</v>
+        <v>4.3002207909</v>
       </c>
       <c r="D64" t="n">
-        <v>4.3002207909</v>
+        <v>9.5995840512</v>
       </c>
       <c r="E64" t="n">
-        <v>9.5995840512</v>
-      </c>
-      <c r="F64" t="n">
         <v>10.6734313928</v>
       </c>
     </row>
@@ -8751,19 +8559,16 @@
       <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
+      <c r="B65" t="n">
+        <v>2.7289375786</v>
       </c>
       <c r="C65" t="n">
-        <v>2.7289375786</v>
+        <v>3.8557821555</v>
       </c>
       <c r="D65" t="n">
-        <v>3.8557821555</v>
+        <v>4.9086792428</v>
       </c>
       <c r="E65" t="n">
-        <v>4.9086792428</v>
-      </c>
-      <c r="F65" t="n">
         <v>3.5593830542</v>
       </c>
     </row>
@@ -8771,19 +8576,16 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
+      <c r="B66" t="n">
+        <v>1.2089951102</v>
       </c>
       <c r="C66" t="n">
-        <v>1.2089951102</v>
+        <v>5.5975753072</v>
       </c>
       <c r="D66" t="n">
         <v>5.5975753072</v>
       </c>
       <c r="E66" t="n">
-        <v>5.5975753072</v>
-      </c>
-      <c r="F66" t="n">
         <v>5.8749642984</v>
       </c>
     </row>
@@ -8791,19 +8593,16 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
+      <c r="B67" t="n">
+        <v>1.2982606782</v>
       </c>
       <c r="C67" t="n">
-        <v>1.2982606782</v>
+        <v>2.6233172532</v>
       </c>
       <c r="D67" t="n">
-        <v>2.6233172532</v>
+        <v>2.5324269188</v>
       </c>
       <c r="E67" t="n">
-        <v>2.5324269188</v>
-      </c>
-      <c r="F67" t="n">
         <v>2.6138528687</v>
       </c>
     </row>
@@ -8811,19 +8610,16 @@
       <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
+      <c r="B68" t="n">
+        <v>1.8303038832</v>
       </c>
       <c r="C68" t="n">
-        <v>1.8303038832</v>
+        <v>2.4691193038</v>
       </c>
       <c r="D68" t="n">
-        <v>2.4691193038</v>
+        <v>2.8590407578</v>
       </c>
       <c r="E68" t="n">
-        <v>2.8590407578</v>
-      </c>
-      <c r="F68" t="n">
         <v>3.2270688608</v>
       </c>
     </row>
@@ -8831,19 +8627,16 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
+      <c r="B69" t="n">
+        <v>0.4003704143</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4003704143</v>
+        <v>1.6160685613</v>
       </c>
       <c r="D69" t="n">
-        <v>1.6160685613</v>
+        <v>1.594047141</v>
       </c>
       <c r="E69" t="n">
-        <v>1.594047141</v>
-      </c>
-      <c r="F69" t="n">
         <v>1.6510186775</v>
       </c>
     </row>
@@ -8851,19 +8644,16 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" t="s">
-        <v>6</v>
+      <c r="B70" t="n">
+        <v>1.2352052215</v>
       </c>
       <c r="C70" t="n">
-        <v>1.2352052215</v>
+        <v>2.5022969538</v>
       </c>
       <c r="D70" t="n">
-        <v>2.5022969538</v>
+        <v>2.0579981876</v>
       </c>
       <c r="E70" t="n">
-        <v>2.0579981876</v>
-      </c>
-      <c r="F70" t="n">
         <v>2.3478857226</v>
       </c>
     </row>
@@ -8871,19 +8661,16 @@
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
+      <c r="B71" t="n">
+        <v>0.9986363718</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9986363718</v>
+        <v>2.6520273709</v>
       </c>
       <c r="D71" t="n">
-        <v>2.6520273709</v>
+        <v>2.7630196526</v>
       </c>
       <c r="E71" t="n">
-        <v>2.7630196526</v>
-      </c>
-      <c r="F71" t="n">
         <v>2.8226573274</v>
       </c>
     </row>
@@ -8891,19 +8678,16 @@
       <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" t="s">
-        <v>6</v>
+      <c r="B72" t="n">
+        <v>1.4192226157</v>
       </c>
       <c r="C72" t="n">
-        <v>1.4192226157</v>
+        <v>2.7382465671</v>
       </c>
       <c r="D72" t="n">
-        <v>2.7382465671</v>
+        <v>2.13127732</v>
       </c>
       <c r="E72" t="n">
-        <v>2.13127732</v>
-      </c>
-      <c r="F72" t="n">
         <v>2.484235045</v>
       </c>
     </row>
@@ -8911,19 +8695,16 @@
       <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
+      <c r="B73" t="n">
+        <v>0.6652554277</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6652554277</v>
+        <v>0.6848723845</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6848723845</v>
+        <v>0.6567868952</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6567868952</v>
-      </c>
-      <c r="F73" t="n">
         <v>0.6787015064</v>
       </c>
     </row>
@@ -8931,19 +8712,16 @@
       <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
+      <c r="B74" t="n">
+        <v>0.841136566</v>
       </c>
       <c r="C74" t="n">
-        <v>0.841136566</v>
+        <v>1.5236762437</v>
       </c>
       <c r="D74" t="n">
-        <v>1.5236762437</v>
+        <v>1.5579593014</v>
       </c>
       <c r="E74" t="n">
-        <v>1.5579593014</v>
-      </c>
-      <c r="F74" t="n">
         <v>1.5203739829</v>
       </c>
     </row>
@@ -8951,19 +8729,16 @@
       <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
+      <c r="B75" t="n">
+        <v>1.0745736897</v>
       </c>
       <c r="C75" t="n">
-        <v>1.0745736897</v>
+        <v>7.6986307136</v>
       </c>
       <c r="D75" t="n">
-        <v>7.6986307136</v>
+        <v>6.1339828404</v>
       </c>
       <c r="E75" t="n">
-        <v>6.1339828404</v>
-      </c>
-      <c r="F75" t="n">
         <v>7.5746968973</v>
       </c>
     </row>
@@ -8971,19 +8746,16 @@
       <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
+      <c r="B76" t="n">
+        <v>1.5051341427</v>
       </c>
       <c r="C76" t="n">
-        <v>1.5051341427</v>
+        <v>2.0764146976</v>
       </c>
       <c r="D76" t="n">
-        <v>2.0764146976</v>
+        <v>1.3607384697</v>
       </c>
       <c r="E76" t="n">
-        <v>1.3607384697</v>
-      </c>
-      <c r="F76" t="n">
         <v>1.1490820055</v>
       </c>
     </row>
@@ -8991,19 +8763,16 @@
       <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" t="s">
-        <v>6</v>
+      <c r="B77" t="n">
+        <v>3.7964514907</v>
       </c>
       <c r="C77" t="n">
-        <v>3.7964514907</v>
+        <v>2.7979873252</v>
       </c>
       <c r="D77" t="n">
-        <v>2.7979873252</v>
+        <v>3.9111706579</v>
       </c>
       <c r="E77" t="n">
-        <v>3.9111706579</v>
-      </c>
-      <c r="F77" t="n">
         <v>3.7500931184</v>
       </c>
     </row>
@@ -9011,19 +8780,16 @@
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" t="s">
-        <v>6</v>
+      <c r="B78" t="n">
+        <v>1.1373540923</v>
       </c>
       <c r="C78" t="n">
-        <v>1.1373540923</v>
+        <v>2.2393838445</v>
       </c>
       <c r="D78" t="n">
-        <v>2.2393838445</v>
+        <v>1.9908854639</v>
       </c>
       <c r="E78" t="n">
-        <v>1.9908854639</v>
-      </c>
-      <c r="F78" t="n">
         <v>1.4927279879</v>
       </c>
     </row>
@@ -9031,19 +8797,16 @@
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79" t="n">
+        <v>2.0777314836</v>
       </c>
       <c r="C79" t="n">
-        <v>2.0777314836</v>
+        <v>4.8154788087</v>
       </c>
       <c r="D79" t="n">
-        <v>4.8154788087</v>
+        <v>2.994456621</v>
       </c>
       <c r="E79" t="n">
-        <v>2.994456621</v>
-      </c>
-      <c r="F79" t="n">
         <v>3.7067308235</v>
       </c>
     </row>
@@ -9051,19 +8814,16 @@
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
+      <c r="B80" t="n">
+        <v>0.3062280929</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3062280929</v>
+        <v>2.4855017695</v>
       </c>
       <c r="D80" t="n">
-        <v>2.4855017695</v>
+        <v>1.6655464743</v>
       </c>
       <c r="E80" t="n">
-        <v>1.6655464743</v>
-      </c>
-      <c r="F80" t="n">
         <v>1.8576038896</v>
       </c>
     </row>
@@ -9071,19 +8831,16 @@
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81" t="n">
+        <v>2.0431073819</v>
       </c>
       <c r="C81" t="n">
-        <v>2.0431073819</v>
+        <v>3.2364640012</v>
       </c>
       <c r="D81" t="n">
-        <v>3.2364640012</v>
+        <v>2.2694588154</v>
       </c>
       <c r="E81" t="n">
-        <v>2.2694588154</v>
-      </c>
-      <c r="F81" t="n">
         <v>2.384976577</v>
       </c>
     </row>
@@ -9091,19 +8848,16 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82" t="n">
+        <v>0.8758881054</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8758881054</v>
+        <v>1.2884110836</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2884110836</v>
+        <v>0.9777986375</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9777986375</v>
-      </c>
-      <c r="F82" t="n">
         <v>1.4400552143</v>
       </c>
     </row>
@@ -9111,19 +8865,16 @@
       <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83" t="n">
+        <v>0.9240283389</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9240283389</v>
+        <v>2.4431099988</v>
       </c>
       <c r="D83" t="n">
-        <v>2.4431099988</v>
+        <v>2.3974327091</v>
       </c>
       <c r="E83" t="n">
-        <v>2.3974327091</v>
-      </c>
-      <c r="F83" t="n">
         <v>1.8481190226</v>
       </c>
     </row>
@@ -9131,19 +8882,16 @@
       <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" t="s">
-        <v>6</v>
+      <c r="B84" t="n">
+        <v>0.6435604643</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6435604643</v>
+        <v>2.0303153673</v>
       </c>
       <c r="D84" t="n">
-        <v>2.0303153673</v>
+        <v>3.3985932679</v>
       </c>
       <c r="E84" t="n">
-        <v>3.3985932679</v>
-      </c>
-      <c r="F84" t="n">
         <v>5.5768764619</v>
       </c>
     </row>
@@ -9151,19 +8899,16 @@
       <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" t="s">
-        <v>6</v>
+      <c r="B85" t="n">
+        <v>0.9162302213</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9162302213</v>
+        <v>0.8947125563</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8947125563</v>
+        <v>0.9828832602</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9828832602</v>
-      </c>
-      <c r="F85" t="n">
         <v>0.9901256227</v>
       </c>
     </row>
@@ -9171,19 +8916,16 @@
       <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
+      <c r="B86" t="n">
+        <v>1.4708431874</v>
       </c>
       <c r="C86" t="n">
-        <v>1.4708431874</v>
+        <v>1.5654017088</v>
       </c>
       <c r="D86" t="n">
-        <v>1.5654017088</v>
+        <v>4.2499512785</v>
       </c>
       <c r="E86" t="n">
-        <v>4.2499512785</v>
-      </c>
-      <c r="F86" t="n">
         <v>4.7325655147</v>
       </c>
     </row>
@@ -9191,19 +8933,16 @@
       <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87" t="n">
+        <v>0.8833122929</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8833122929</v>
+        <v>2.9835572196</v>
       </c>
       <c r="D87" t="n">
-        <v>2.9835572196</v>
+        <v>0.7952697555</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7952697555</v>
-      </c>
-      <c r="F87" t="n">
         <v>0.8760923179</v>
       </c>
     </row>
@@ -9211,19 +8950,16 @@
       <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" t="n">
+        <v>3.3030015598</v>
       </c>
       <c r="C88" t="n">
-        <v>3.3030015598</v>
+        <v>5.6006235971</v>
       </c>
       <c r="D88" t="n">
-        <v>5.6006235971</v>
+        <v>4.6514675656</v>
       </c>
       <c r="E88" t="n">
-        <v>4.6514675656</v>
-      </c>
-      <c r="F88" t="n">
         <v>4.7936831449</v>
       </c>
     </row>
@@ -9231,19 +8967,16 @@
       <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89" t="n">
+        <v>6.7423963029</v>
       </c>
       <c r="C89" t="n">
-        <v>6.7423963029</v>
+        <v>4.9421663449</v>
       </c>
       <c r="D89" t="n">
-        <v>4.9421663449</v>
+        <v>8.096892098</v>
       </c>
       <c r="E89" t="n">
-        <v>8.096892098</v>
-      </c>
-      <c r="F89" t="n">
         <v>8.4554568652</v>
       </c>
     </row>
@@ -9251,19 +8984,16 @@
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
+      <c r="B90" t="n">
+        <v>4.979774341</v>
       </c>
       <c r="C90" t="n">
-        <v>4.979774341</v>
+        <v>3.8571642933</v>
       </c>
       <c r="D90" t="n">
-        <v>3.8571642933</v>
+        <v>6.5550731018</v>
       </c>
       <c r="E90" t="n">
-        <v>6.5550731018</v>
-      </c>
-      <c r="F90" t="n">
         <v>7.5769637371</v>
       </c>
     </row>
@@ -9271,19 +9001,16 @@
       <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" t="n">
+        <v>4.2311401172</v>
       </c>
       <c r="C91" t="n">
-        <v>4.2311401172</v>
+        <v>7.8101631792</v>
       </c>
       <c r="D91" t="n">
-        <v>7.8101631792</v>
+        <v>8.2347158216</v>
       </c>
       <c r="E91" t="n">
-        <v>8.2347158216</v>
-      </c>
-      <c r="F91" t="n">
         <v>7.8994788004</v>
       </c>
     </row>
@@ -9291,19 +9018,16 @@
       <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" t="n">
+        <v>2.6156343506</v>
       </c>
       <c r="C92" t="n">
-        <v>2.6156343506</v>
+        <v>8.2613582792</v>
       </c>
       <c r="D92" t="n">
-        <v>8.2613582792</v>
+        <v>8.0837855451</v>
       </c>
       <c r="E92" t="n">
-        <v>8.0837855451</v>
-      </c>
-      <c r="F92" t="n">
         <v>7.3577065274</v>
       </c>
     </row>
@@ -9311,19 +9035,16 @@
       <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
+      <c r="B93" t="n">
+        <v>2.0274954156</v>
       </c>
       <c r="C93" t="n">
-        <v>2.0274954156</v>
+        <v>4.6552024663</v>
       </c>
       <c r="D93" t="n">
-        <v>4.6552024663</v>
+        <v>4.0555291199</v>
       </c>
       <c r="E93" t="n">
-        <v>4.0555291199</v>
-      </c>
-      <c r="F93" t="n">
         <v>4.2211228786</v>
       </c>
     </row>
@@ -9331,19 +9052,16 @@
       <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
+      <c r="B94" t="n">
+        <v>1.5589139259</v>
       </c>
       <c r="C94" t="n">
-        <v>1.5589139259</v>
+        <v>2.1997934091</v>
       </c>
       <c r="D94" t="n">
-        <v>2.1997934091</v>
+        <v>3.5529310939</v>
       </c>
       <c r="E94" t="n">
-        <v>3.5529310939</v>
-      </c>
-      <c r="F94" t="n">
         <v>3.7184689902</v>
       </c>
     </row>
@@ -9351,19 +9069,16 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
-        <v>6</v>
+      <c r="B95" t="n">
+        <v>3.4579202363</v>
       </c>
       <c r="C95" t="n">
-        <v>3.4579202363</v>
+        <v>5.0714798311</v>
       </c>
       <c r="D95" t="n">
-        <v>5.0714798311</v>
+        <v>6.2548782722</v>
       </c>
       <c r="E95" t="n">
-        <v>6.2548782722</v>
-      </c>
-      <c r="F95" t="n">
         <v>7.6663620826</v>
       </c>
     </row>
@@ -9371,19 +9086,16 @@
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
+      <c r="B96" t="n">
+        <v>6.7290185091</v>
       </c>
       <c r="C96" t="n">
-        <v>6.7290185091</v>
+        <v>3.2719513432</v>
       </c>
       <c r="D96" t="n">
-        <v>3.2719513432</v>
+        <v>9.1168854464</v>
       </c>
       <c r="E96" t="n">
-        <v>9.1168854464</v>
-      </c>
-      <c r="F96" t="n">
         <v>9.7911049184</v>
       </c>
     </row>
@@ -9391,19 +9103,16 @@
       <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
+      <c r="B97" t="n">
+        <v>1.0975101569</v>
       </c>
       <c r="C97" t="n">
-        <v>1.0975101569</v>
+        <v>5.7205696172</v>
       </c>
       <c r="D97" t="n">
-        <v>5.7205696172</v>
+        <v>4.9929902618</v>
       </c>
       <c r="E97" t="n">
-        <v>4.9929902618</v>
-      </c>
-      <c r="F97" t="n">
         <v>4.986543693</v>
       </c>
     </row>
@@ -9411,19 +9120,16 @@
       <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" t="s">
-        <v>6</v>
+      <c r="B98" t="n">
+        <v>2.6405177676</v>
       </c>
       <c r="C98" t="n">
-        <v>2.6405177676</v>
+        <v>14.4180086073</v>
       </c>
       <c r="D98" t="n">
-        <v>14.4180086073</v>
+        <v>3.5417227536</v>
       </c>
       <c r="E98" t="n">
-        <v>3.5417227536</v>
-      </c>
-      <c r="F98" t="n">
         <v>3.3778790165</v>
       </c>
     </row>
@@ -9431,17 +9137,14 @@
       <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99"/>
+      <c r="B99"/>
+      <c r="C99" t="n">
+        <v>2.5230289911</v>
+      </c>
       <c r="D99" t="n">
-        <v>2.5230289911</v>
+        <v>2.3167232735</v>
       </c>
       <c r="E99" t="n">
-        <v>2.3167232735</v>
-      </c>
-      <c r="F99" t="n">
         <v>2.6914145391</v>
       </c>
     </row>
@@ -9449,19 +9152,16 @@
       <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" t="s">
-        <v>6</v>
+      <c r="B100" t="n">
+        <v>3.7631961949</v>
       </c>
       <c r="C100" t="n">
-        <v>3.7631961949</v>
+        <v>3.5618048928</v>
       </c>
       <c r="D100" t="n">
-        <v>3.5618048928</v>
+        <v>3.3853984758</v>
       </c>
       <c r="E100" t="n">
-        <v>3.3853984758</v>
-      </c>
-      <c r="F100" t="n">
         <v>2.7623898831</v>
       </c>
     </row>
@@ -9469,19 +9169,16 @@
       <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" t="s">
-        <v>6</v>
+      <c r="B101" t="n">
+        <v>1.1605487929</v>
       </c>
       <c r="C101" t="n">
-        <v>1.1605487929</v>
+        <v>0.9311680116</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9311680116</v>
+        <v>3.7516124935</v>
       </c>
       <c r="E101" t="n">
-        <v>3.7516124935</v>
-      </c>
-      <c r="F101" t="n">
         <v>5.045075423</v>
       </c>
     </row>
@@ -9489,19 +9186,16 @@
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" t="s">
-        <v>6</v>
+      <c r="B102" t="n">
+        <v>2.972373727</v>
       </c>
       <c r="C102" t="n">
-        <v>2.972373727</v>
+        <v>4.3019663237</v>
       </c>
       <c r="D102" t="n">
-        <v>4.3019663237</v>
+        <v>3.7625537146</v>
       </c>
       <c r="E102" t="n">
-        <v>3.7625537146</v>
-      </c>
-      <c r="F102" t="n">
         <v>4.884211801</v>
       </c>
     </row>
@@ -9509,19 +9203,16 @@
       <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
+      <c r="B103" t="n">
+        <v>1.1794562686</v>
       </c>
       <c r="C103" t="n">
-        <v>1.1794562686</v>
+        <v>5.1737036606</v>
       </c>
       <c r="D103" t="n">
-        <v>5.1737036606</v>
+        <v>4.3664883918</v>
       </c>
       <c r="E103" t="n">
-        <v>4.3664883918</v>
-      </c>
-      <c r="F103" t="n">
         <v>4.5119512164</v>
       </c>
     </row>
@@ -9529,19 +9220,16 @@
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
+      <c r="B104" t="n">
+        <v>2.5998018384</v>
       </c>
       <c r="C104" t="n">
-        <v>2.5998018384</v>
+        <v>5.6317495473</v>
       </c>
       <c r="D104" t="n">
-        <v>5.6317495473</v>
+        <v>3.7370815614</v>
       </c>
       <c r="E104" t="n">
-        <v>3.7370815614</v>
-      </c>
-      <c r="F104" t="n">
         <v>3.8898405397</v>
       </c>
     </row>
@@ -9549,19 +9237,16 @@
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" t="s">
-        <v>6</v>
+      <c r="B105" t="n">
+        <v>7.0557855627</v>
       </c>
       <c r="C105" t="n">
-        <v>7.0557855627</v>
+        <v>7.055086161</v>
       </c>
       <c r="D105" t="n">
-        <v>7.055086161</v>
+        <v>6.2790183218</v>
       </c>
       <c r="E105" t="n">
-        <v>6.2790183218</v>
-      </c>
-      <c r="F105" t="n">
         <v>4.9535649436</v>
       </c>
     </row>
@@ -9569,19 +9254,16 @@
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" t="s">
-        <v>6</v>
+      <c r="B106" t="n">
+        <v>0.8541977294</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8541977294</v>
+        <v>1.7407377918</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7407377918</v>
+        <v>2.1753295681</v>
       </c>
       <c r="E106" t="n">
-        <v>2.1753295681</v>
-      </c>
-      <c r="F106" t="n">
         <v>2.3127390419</v>
       </c>
     </row>
@@ -9589,19 +9271,16 @@
       <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" t="s">
-        <v>6</v>
+      <c r="B107" t="n">
+        <v>0.7424217853</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7424217853</v>
+        <v>6.9341219626</v>
       </c>
       <c r="D107" t="n">
-        <v>6.9341219626</v>
+        <v>6.0280322477</v>
       </c>
       <c r="E107" t="n">
-        <v>6.0280322477</v>
-      </c>
-      <c r="F107" t="n">
         <v>5.9539648491</v>
       </c>
     </row>
@@ -9609,19 +9288,16 @@
       <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
+      <c r="B108" t="n">
+        <v>2.6701313643</v>
       </c>
       <c r="C108" t="n">
-        <v>2.6701313643</v>
+        <v>6.1452117324</v>
       </c>
       <c r="D108" t="n">
-        <v>6.1452117324</v>
+        <v>4.7938688875</v>
       </c>
       <c r="E108" t="n">
-        <v>4.7938688875</v>
-      </c>
-      <c r="F108" t="n">
         <v>5.3202599012</v>
       </c>
     </row>
@@ -9629,19 +9305,16 @@
       <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" t="s">
-        <v>6</v>
+      <c r="B109" t="n">
+        <v>1.4587487281</v>
       </c>
       <c r="C109" t="n">
-        <v>1.4587487281</v>
+        <v>2.7461173385</v>
       </c>
       <c r="D109" t="n">
-        <v>2.7461173385</v>
+        <v>2.2353552855</v>
       </c>
       <c r="E109" t="n">
-        <v>2.2353552855</v>
-      </c>
-      <c r="F109" t="n">
         <v>2.3677903188</v>
       </c>
     </row>
@@ -9649,19 +9322,16 @@
       <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
+      <c r="B110" t="n">
+        <v>1.4475819107</v>
       </c>
       <c r="C110" t="n">
-        <v>1.4475819107</v>
+        <v>3.268967442</v>
       </c>
       <c r="D110" t="n">
-        <v>3.268967442</v>
+        <v>3.3558117964</v>
       </c>
       <c r="E110" t="n">
-        <v>3.3558117964</v>
-      </c>
-      <c r="F110" t="n">
         <v>3.4700331045</v>
       </c>
     </row>
@@ -9669,19 +9339,16 @@
       <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
+      <c r="B111" t="n">
+        <v>0.8002691103</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8002691103</v>
+        <v>2.936071312</v>
       </c>
       <c r="D111" t="n">
-        <v>2.936071312</v>
+        <v>2.4097753547</v>
       </c>
       <c r="E111" t="n">
-        <v>2.4097753547</v>
-      </c>
-      <c r="F111" t="n">
         <v>2.5564373045</v>
       </c>
     </row>
@@ -9689,19 +9356,16 @@
       <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" t="s">
-        <v>6</v>
+      <c r="B112" t="n">
+        <v>1.5796987035</v>
       </c>
       <c r="C112" t="n">
-        <v>1.5796987035</v>
+        <v>2.4462296588</v>
       </c>
       <c r="D112" t="n">
-        <v>2.4462296588</v>
+        <v>2.141098238</v>
       </c>
       <c r="E112" t="n">
-        <v>2.141098238</v>
-      </c>
-      <c r="F112" t="n">
         <v>2.1472826915</v>
       </c>
     </row>

--- a/user-data/uganda-local-percent/uganda-local-percent.xlsx
+++ b/user-data/uganda-local-percent/uganda-local-percent.xlsx
@@ -736,7 +736,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
